--- a/Lora 2019v2.xlsx
+++ b/Lora 2019v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\elektr_2019\LoRa_2019\LoRa_2019.X\Lora2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F21B7DB-0E85-445C-8293-40F9C86FBDE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF41C19-B902-4977-9B75-34799EBFC1C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47656" yWindow="4347" windowWidth="21084" windowHeight="13925" activeTab="4" xr2:uid="{CF74FFB2-BF4B-47C5-93C8-DE55957A940B}"/>
+    <workbookView xWindow="47656" yWindow="4347" windowWidth="21084" windowHeight="13925" activeTab="5" xr2:uid="{CF74FFB2-BF4B-47C5-93C8-DE55957A940B}"/>
   </bookViews>
   <sheets>
     <sheet name="function" sheetId="9" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="LoRa_Reset" sheetId="23" r:id="rId3"/>
     <sheet name="LoRa_Send" sheetId="24" r:id="rId4"/>
     <sheet name="LoRa_Send_Header" sheetId="25" r:id="rId5"/>
+    <sheet name="LoRa_TxDone" sheetId="26" r:id="rId6"/>
+    <sheet name="LoRa_TxDone (2)" sheetId="27" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="199">
   <si>
     <t>RADIO_Transmit</t>
   </si>
@@ -57,6 +59,9 @@
     <t>TIME_ON_AIR_LOAD_VALUE</t>
   </si>
   <si>
+    <t>RADIO_TxDone</t>
+  </si>
+  <si>
     <t>buffer</t>
   </si>
   <si>
@@ -72,15 +77,27 @@
     <t>LoRa_TimerHandshakingCallback</t>
   </si>
   <si>
+    <t>LoRa_TxDone</t>
+  </si>
+  <si>
+    <t>timeOnAir</t>
+  </si>
+  <si>
     <t>uint16_t</t>
   </si>
   <si>
+    <t>ConfigureRadioRx</t>
+  </si>
+  <si>
     <t>LoRa_Send</t>
   </si>
   <si>
     <t>LoRa_Handshaking_TX</t>
   </si>
   <si>
+    <t>LoRa_Handshaking_RX</t>
+  </si>
+  <si>
     <t>uint8_t</t>
   </si>
   <si>
@@ -450,6 +467,9 @@
     <t>watchdogTimerTimeout</t>
   </si>
   <si>
+    <t>LoRa_EnterReceive</t>
+  </si>
+  <si>
     <t>LoRa_Command</t>
   </si>
   <si>
@@ -598,6 +618,24 @@
   </si>
   <si>
     <t>DATA</t>
+  </si>
+  <si>
+    <t>flags</t>
+  </si>
+  <si>
+    <t>RADIO_FLAG_TRANSMITTING</t>
+  </si>
+  <si>
+    <t>RADIO_flagsInit()</t>
+  </si>
+  <si>
+    <t>RADIO_ReceiveStart</t>
+  </si>
+  <si>
+    <t>RADIO_FLAG_RECEIVING</t>
+  </si>
+  <si>
+    <t>MODE_RXSINGLE</t>
   </si>
 </sst>
 </file>
@@ -637,7 +675,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -671,6 +709,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -768,7 +812,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -827,6 +871,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
@@ -1144,8 +1189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DAFAB4C-423A-465C-95FD-D669F885255A}">
   <dimension ref="B1:H66"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -1163,485 +1208,491 @@
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="C4" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="D4"/>
       <c r="E4"/>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E5"/>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H5" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C6" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
       <c r="G6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7"/>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D8"/>
       <c r="E8"/>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D9"/>
       <c r="E9"/>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D10"/>
       <c r="E10"/>
       <c r="G10" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="H10" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
       <c r="G11" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H11" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D12"/>
       <c r="E12"/>
       <c r="G12" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H12" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
       <c r="G13" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H13" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
       <c r="G14" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H14" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
       <c r="G15" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H15" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
+      <c r="G16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D17"/>
       <c r="E17"/>
       <c r="G17" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
       <c r="G18" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H18" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
       <c r="G19" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="H19" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D20"/>
       <c r="E20"/>
       <c r="G20" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H20" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
       <c r="G21" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H21" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
       <c r="G22" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H22" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
       <c r="G23" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H23" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C24" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
       <c r="G24" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H24" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C25" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
       <c r="G25" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H25" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C26" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D26"/>
       <c r="E26"/>
       <c r="G26" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H26" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C27" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
       <c r="G27" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H27" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C28" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D28"/>
       <c r="E28"/>
       <c r="G28" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H28" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C29" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D29"/>
       <c r="E29"/>
       <c r="G29" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H29" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C30" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D30"/>
       <c r="E30"/>
       <c r="G30" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H30" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D31"/>
       <c r="E31"/>
       <c r="G31" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H31" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D32"/>
       <c r="E32"/>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H32" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D33"/>
       <c r="E33"/>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H33" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D34"/>
       <c r="E34"/>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H34" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
@@ -1658,75 +1709,75 @@
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C38" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D38"/>
       <c r="E38"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C39" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D39" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="E39"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C40" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D40"/>
       <c r="E40"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C41" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D41"/>
       <c r="E41"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C42" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D42"/>
       <c r="E42"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C43" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D43"/>
       <c r="E43"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C44" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="D44" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="E44"/>
     </row>
@@ -1738,100 +1789,100 @@
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C49" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="66" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -1845,7 +1896,7 @@
   <dimension ref="B1:J79"/>
   <sheetViews>
     <sheetView showZeros="0" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25:D25"/>
+      <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -1862,7 +1913,7 @@
   <sheetData>
     <row r="1" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C1" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>3</v>
@@ -1874,7 +1925,7 @@
         <v>LoRa_transmitStatus</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G3" t="str">
         <f>function!B3</f>
@@ -1885,7 +1936,7 @@
         <v>LoRa_transmitStatus</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J3">
         <f>function!E3</f>
@@ -1898,7 +1949,7 @@
         <v>LoRa_StatusDanych</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="G4" t="str">
         <f>function!B4</f>
@@ -1909,7 +1960,7 @@
         <v>LoRa_StatusDanych</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="J4">
         <f>function!E4</f>
@@ -1926,7 +1977,7 @@
         <v>LoRa_initialised</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="J5">
         <f>function!E5</f>
@@ -1943,7 +1994,7 @@
         <v>LoRa_Counnter</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="J6">
         <f>function!E6</f>
@@ -1960,7 +2011,7 @@
         <v>LoRa_Addres</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="J7">
         <f>function!E7</f>
@@ -1969,7 +2020,7 @@
     </row>
     <row r="8" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="G8" t="str">
         <f>function!B8</f>
@@ -1980,15 +2031,15 @@
         <v>LoRa_TimerHandshaking</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="G9" t="str">
         <f>function!B9</f>
@@ -1999,10 +2050,10 @@
         <v>LoRa_TimerReconnect</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="3:10" x14ac:dyDescent="0.25">
@@ -2015,10 +2066,10 @@
         <v>LoRa_TimerWaitAck</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="3:10" x14ac:dyDescent="0.25">
@@ -2026,10 +2077,10 @@
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G11" t="str">
         <f>function!B11</f>
@@ -2050,7 +2101,7 @@
     </row>
     <row r="12" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="G12" t="str">
         <f>function!B12</f>
@@ -2089,10 +2140,10 @@
     </row>
     <row r="14" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C14" s="12" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G14" t="str">
         <f>function!B14</f>
@@ -2131,7 +2182,7 @@
     </row>
     <row r="16" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="G16" t="str">
         <f>function!B16</f>
@@ -2142,7 +2193,7 @@
         <v>LoRa_maxChannels</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="J16">
         <f>function!E16</f>
@@ -2177,7 +2228,7 @@
         <v>LoRa_ch0_params.frequency</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="J18">
         <f>function!E18</f>
@@ -2194,7 +2245,7 @@
         <v>LoRa_ch0_params.datarate</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="J19">
         <f>function!E19</f>
@@ -2292,7 +2343,7 @@
         <v>LoRa_syncWord</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="J25">
         <f>function!E25</f>
@@ -2309,7 +2360,7 @@
         <v>mode</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="G26" t="str">
         <f>function!B26</f>
@@ -2320,7 +2371,7 @@
         <v>LoRa_batteryLevel</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="J26">
         <f>function!E26</f>
@@ -2337,7 +2388,7 @@
         <v>modulation</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="G27" t="str">
         <f>function!B27</f>
@@ -2348,7 +2399,7 @@
         <v>LoRa_ismBand</v>
       </c>
       <c r="I27" s="14" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J27">
         <f>function!E27</f>
@@ -2365,7 +2416,7 @@
         <v>frequency</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G28" t="str">
         <f>function!B28</f>
@@ -2376,7 +2427,7 @@
         <v>LoRa_currentDataRate</v>
       </c>
       <c r="I28" s="14" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="J28">
         <f>function!E28</f>
@@ -2393,7 +2444,7 @@
         <v>payload</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="G29" t="str">
         <f>function!B29</f>
@@ -2404,7 +2455,7 @@
         <v>LoRa_minDataRate</v>
       </c>
       <c r="I29" s="14" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="J29">
         <f>function!E29</f>
@@ -2429,7 +2480,7 @@
         <v>LoRa_maxDataRate</v>
       </c>
       <c r="I30" s="14" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="J30">
         <f>function!E30</f>
@@ -2536,7 +2587,7 @@
         <v>frequency;</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="J34">
         <f>function!E38</f>
@@ -2628,7 +2679,7 @@
         <v>syncWordLoRa;</v>
       </c>
       <c r="I38" s="14" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="J38">
         <f>function!E42</f>
@@ -2649,7 +2700,7 @@
         <v>syncWord[8];</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="J39">
         <f>function!E43</f>
@@ -2691,7 +2742,7 @@
         <v>modulation;</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="J41">
         <f>function!E45</f>
@@ -2712,7 +2763,7 @@
         <v>dataRate;</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J42">
         <f>function!E46</f>
@@ -2733,7 +2784,7 @@
         <v>bandWidth;</v>
       </c>
       <c r="I43" s="10" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="J43">
         <f>function!E47</f>
@@ -2788,7 +2839,7 @@
         <v>paBoost;</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="J46">
         <f>function!E50</f>
@@ -2796,17 +2847,16 @@
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G47">
+      <c r="G47" t="str">
         <f>function!G16</f>
-        <v>0</v>
-      </c>
-      <c r="H47">
+        <v>uint8_t</v>
+      </c>
+      <c r="H47" t="str">
         <f>function!H16</f>
-        <v>0</v>
-      </c>
-      <c r="I47" s="2">
-        <f>function!I16</f>
-        <v>0</v>
+        <v>flags</v>
+      </c>
+      <c r="I47" s="11" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.25">
@@ -2819,7 +2869,7 @@
         <v>frequencyHopPeriod;</v>
       </c>
       <c r="I48" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="49" spans="7:10" x14ac:dyDescent="0.25">
@@ -2832,7 +2882,7 @@
         <v>iqInverted;</v>
       </c>
       <c r="I49" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="50" spans="7:10" x14ac:dyDescent="0.25">
@@ -2845,7 +2895,7 @@
         <v>errorCodingRate;</v>
       </c>
       <c r="I50" s="10" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="51" spans="7:10" x14ac:dyDescent="0.25">
@@ -2858,7 +2908,7 @@
         <v>implicitHeaderMode;</v>
       </c>
       <c r="I51" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="52" spans="7:10" x14ac:dyDescent="0.25">
@@ -2871,7 +2921,7 @@
         <v>flags;</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="53" spans="7:10" x14ac:dyDescent="0.25">
@@ -2884,7 +2934,7 @@
         <v>dataBufferLen;</v>
       </c>
       <c r="I53" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="54" spans="7:10" x14ac:dyDescent="0.25">
@@ -2897,7 +2947,7 @@
         <v>*dataBuffer;</v>
       </c>
       <c r="I54" s="10" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="55" spans="7:10" x14ac:dyDescent="0.25">
@@ -2910,7 +2960,7 @@
         <v>timeOnAirTimerId;</v>
       </c>
       <c r="I55" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="56" spans="7:10" x14ac:dyDescent="0.25">
@@ -2923,7 +2973,7 @@
         <v>fskRxWindowTimerId;</v>
       </c>
       <c r="I56" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="J56" s="9" t="s">
         <v>2</v>
@@ -2939,7 +2989,7 @@
         <v>watchdogTimerId;</v>
       </c>
       <c r="I57" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="J57" s="9" t="s">
         <v>4</v>
@@ -2955,7 +3005,7 @@
         <v>watchdogTimerTimeout;</v>
       </c>
       <c r="I58" s="10" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="59" spans="7:10" x14ac:dyDescent="0.25">
@@ -2981,7 +3031,7 @@
         <v>(*fhssNextFrequency)(void);</v>
       </c>
       <c r="I60" s="10" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="61" spans="7:10" x14ac:dyDescent="0.25">
@@ -2994,7 +3044,7 @@
         <v>regVersion;</v>
       </c>
       <c r="I61" s="10" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="62" spans="7:10" x14ac:dyDescent="0.25">
@@ -3020,7 +3070,7 @@
         <v>fskDataShaping;</v>
       </c>
       <c r="I63" s="10" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="64" spans="7:10" x14ac:dyDescent="0.25">
@@ -3033,7 +3083,7 @@
         <v>rxBw;</v>
       </c>
       <c r="I64" s="10" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="65" spans="7:10" x14ac:dyDescent="0.25">
@@ -3046,7 +3096,7 @@
         <v>afcBw;</v>
       </c>
       <c r="I65" s="10" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="66" spans="7:10" x14ac:dyDescent="0.25">
@@ -3101,7 +3151,7 @@
         <v>Channels</v>
       </c>
       <c r="I69" s="14" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="J69">
         <f>function!E38</f>
@@ -3300,7 +3350,7 @@
   <dimension ref="B1:J79"/>
   <sheetViews>
     <sheetView showZeros="0" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25:D25"/>
+      <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -3317,10 +3367,10 @@
   <sheetData>
     <row r="1" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C1" s="4" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>3</v>
@@ -3448,7 +3498,7 @@
         <v>LoRa_TimerHandshaking</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="J8" t="str">
         <f>LoRa_System_Init!J8</f>
@@ -3468,7 +3518,7 @@
         <v>LoRa_TimerReconnect</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="J9" t="str">
         <f>LoRa_System_Init!J9</f>
@@ -3488,7 +3538,7 @@
         <v>LoRa_TimerWaitAck</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="J10" t="str">
         <f>LoRa_System_Init!J10</f>
@@ -4372,15 +4422,15 @@
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G47">
+      <c r="G47" t="str">
         <f>LoRa_System_Init!G47</f>
-        <v>0</v>
-      </c>
-      <c r="H47">
+        <v>uint8_t</v>
+      </c>
+      <c r="H47" t="str">
         <f>LoRa_System_Init!H47</f>
-        <v>0</v>
-      </c>
-      <c r="I47" s="2">
+        <v>flags</v>
+      </c>
+      <c r="I47" s="6" t="str">
         <f>LoRa_System_Init!I47</f>
         <v>0</v>
       </c>
@@ -4976,7 +5026,7 @@
   <dimension ref="A1:J79"/>
   <sheetViews>
     <sheetView showZeros="0" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -4993,19 +5043,19 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>3</v>
@@ -5013,10 +5063,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -5067,7 +5117,7 @@
         <v>LoRa_StatusDanych</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E4">
         <f>LoRa_Reset!E4</f>
@@ -5176,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D7" s="17">
         <f>LoRa_Reset!D7</f>
@@ -5251,13 +5301,13 @@
         <v>0</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F9" s="21">
         <f>LoRa_Reset!F9</f>
@@ -5324,16 +5374,16 @@
         <v>0</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="G11" t="str">
         <f>LoRa_Reset!G11</f>
@@ -5344,7 +5394,7 @@
         <v>LoRa_HeaderBufor</v>
       </c>
       <c r="I11" s="28" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="J11">
         <f>LoRa_Reset!J11</f>
@@ -5381,7 +5431,7 @@
         <v>LoRa_HeaderLength</v>
       </c>
       <c r="I12" s="28" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="J12">
         <f>LoRa_Reset!J12</f>
@@ -5394,7 +5444,7 @@
         <v>0</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="D13" s="20">
         <f>LoRa_Reset!D13</f>
@@ -5417,7 +5467,7 @@
         <v>LoRa_Bufor</v>
       </c>
       <c r="I13" s="28" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="J13">
         <f>LoRa_Reset!J13</f>
@@ -5454,7 +5504,7 @@
         <v>LoRa_BuforLength</v>
       </c>
       <c r="I14" s="28" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="J14">
         <f>LoRa_Reset!J14</f>
@@ -5681,7 +5731,7 @@
         <v>LoRa_receiveChannelParameters.frequency</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="J20">
         <f>LoRa_Reset!J20</f>
@@ -5756,7 +5806,7 @@
         <v>LoRa_sendChannelParameters.frequency</v>
       </c>
       <c r="I22" s="15" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="J22">
         <f>LoRa_Reset!J22</f>
@@ -6696,15 +6746,15 @@
         <f>LoRa_Reset!F47</f>
         <v>0</v>
       </c>
-      <c r="G47">
+      <c r="G47" t="str">
         <f>LoRa_Reset!G47</f>
-        <v>0</v>
-      </c>
-      <c r="H47">
+        <v>uint8_t</v>
+      </c>
+      <c r="H47" t="str">
         <f>LoRa_Reset!H47</f>
-        <v>0</v>
-      </c>
-      <c r="I47" s="2">
+        <v>flags</v>
+      </c>
+      <c r="I47" s="2" t="str">
         <f>LoRa_Reset!I47</f>
         <v>0</v>
       </c>
@@ -7917,10 +7967,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4B4ECE7-0122-4C74-99F3-7DF333B519C0}">
-  <dimension ref="B1:J79"/>
+  <dimension ref="B1:J78"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView showZeros="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -7937,13 +7987,13 @@
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C1" s="4" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>3</v>
@@ -7959,7 +8009,7 @@
         <v>LoRa_transmitStatus</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E3">
         <f>LoRa_Send!E3</f>
@@ -7996,7 +8046,7 @@
         <v>LoRa_StatusDanych</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E4">
         <f>LoRa_Send!E4</f>
@@ -8091,7 +8141,7 @@
         <v>LoRa_Counnter</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="J6">
         <f>LoRa_Send!J6</f>
@@ -8130,13 +8180,13 @@
         <v>0</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F8" s="21"/>
       <c r="G8" t="str">
@@ -8148,7 +8198,7 @@
         <v>LoRa_TimerHandshaking</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J8" t="str">
         <f>LoRa_Send!J8</f>
@@ -8161,7 +8211,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="D9" s="30"/>
       <c r="E9" s="20"/>
@@ -8218,10 +8268,10 @@
         <v>0</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" t="str">
@@ -8247,7 +8297,7 @@
         <v>0</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="D12" s="30">
         <v>4</v>
@@ -8458,9 +8508,15 @@
         <f>LoRa_Reset!B20</f>
         <v>0</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="20"/>
+      <c r="C20" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>13</v>
+      </c>
       <c r="F20" s="21"/>
       <c r="G20" t="str">
         <f>LoRa_Send!G20</f>
@@ -8484,7 +8540,9 @@
         <f>LoRa_Reset!B21</f>
         <v>0</v>
       </c>
-      <c r="C21" s="19"/>
+      <c r="C21" s="19" t="s">
+        <v>21</v>
+      </c>
       <c r="D21" s="30"/>
       <c r="E21" s="20"/>
       <c r="F21" s="21"/>
@@ -8510,7 +8568,9 @@
         <f>LoRa_Reset!B22</f>
         <v>0</v>
       </c>
-      <c r="C22" s="19"/>
+      <c r="C22" s="19" t="s">
+        <v>70</v>
+      </c>
       <c r="D22" s="30"/>
       <c r="E22" s="20"/>
       <c r="F22" s="21"/>
@@ -8536,7 +8596,9 @@
         <f>LoRa_Reset!B23</f>
         <v>0</v>
       </c>
-      <c r="C23" s="19"/>
+      <c r="C23" s="19" t="s">
+        <v>73</v>
+      </c>
       <c r="D23" s="30"/>
       <c r="E23" s="20"/>
       <c r="F23" s="21"/>
@@ -8631,7 +8693,7 @@
         <v>mode</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="E26">
         <f>LoRa_Send!E26</f>
@@ -8954,7 +9016,7 @@
         <v>frequency;</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="J34">
         <f>LoRa_Send!J34</f>
@@ -9105,7 +9167,7 @@
         <v>syncWordLoRa;</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="J38">
         <f>LoRa_Send!J38</f>
@@ -9217,7 +9279,7 @@
         <v>modulation;</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="J41">
         <f>LoRa_Send!J41</f>
@@ -9254,7 +9316,7 @@
         <v>dataRate;</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="J42">
         <f>LoRa_Send!J42</f>
@@ -9291,7 +9353,7 @@
         <v>bandWidth;</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="J43">
         <f>LoRa_Send!J43</f>
@@ -9328,7 +9390,7 @@
         <v>outputPower;</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="J44">
         <f>LoRa_Send!J44</f>
@@ -9365,7 +9427,7 @@
         <v>crcOn;</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="J45">
         <f>LoRa_Send!J45</f>
@@ -9431,15 +9493,15 @@
         <f>LoRa_Send!F47</f>
         <v>0</v>
       </c>
-      <c r="G47">
+      <c r="G47" t="str">
         <f>LoRa_Send!G47</f>
-        <v>0</v>
-      </c>
-      <c r="H47">
+        <v>uint8_t</v>
+      </c>
+      <c r="H47" t="str">
         <f>LoRa_Send!H47</f>
-        <v>0</v>
-      </c>
-      <c r="I47" s="2">
+        <v>flags</v>
+      </c>
+      <c r="I47" s="2" t="str">
         <f>LoRa_Send!I47</f>
         <v>0</v>
       </c>
@@ -9478,7 +9540,7 @@
         <v>frequencyHopPeriod;</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="J48">
         <f>LoRa_Send!J48</f>
@@ -9515,7 +9577,7 @@
         <v>iqInverted;</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="J49">
         <f>LoRa_Send!J49</f>
@@ -9627,9 +9689,8 @@
         <f>LoRa_Send!H52</f>
         <v>flags;</v>
       </c>
-      <c r="I52" s="2" t="str">
-        <f>LoRa_Send!I52</f>
-        <v>0</v>
+      <c r="I52" s="14" t="s">
+        <v>194</v>
       </c>
       <c r="J52">
         <f>LoRa_Send!J52</f>
@@ -9855,7 +9916,7 @@
         <v>watchdogTimerTimeout;</v>
       </c>
       <c r="I58" s="14" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="J58">
         <f>LoRa_Send!J58</f>
@@ -10622,23 +10683,5541 @@
         <v>0</v>
       </c>
     </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C2A150-A73A-4C2C-9789-7613EBAA81D9}">
+  <dimension ref="B1:J79"/>
+  <sheetViews>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.25" customWidth="1"/>
+    <col min="3" max="3" width="44.875" customWidth="1"/>
+    <col min="4" max="5" width="24.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="5.75" customWidth="1"/>
+    <col min="7" max="7" width="27" customWidth="1"/>
+    <col min="8" max="8" width="27.5" customWidth="1"/>
+    <col min="9" max="9" width="31.875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="28.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <f>LoRa_Reset!B3</f>
+        <v>0</v>
+      </c>
+      <c r="C3" t="str">
+        <f>LoRa_Send_Header!C3</f>
+        <v>LoRa_transmitStatus</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3">
+        <f>LoRa_Send_Header!F3</f>
+        <v>0</v>
+      </c>
+      <c r="G3" t="str">
+        <f>LoRa_Send_Header!G3</f>
+        <v>LoRaMacState_t</v>
+      </c>
+      <c r="H3" t="str">
+        <f>LoRa_Send_Header!H3</f>
+        <v>LoRa_transmitStatus</v>
+      </c>
+      <c r="I3" s="2" t="str">
+        <f>LoRa_Send_Header!I3</f>
+        <v>LoRa_Idle</v>
+      </c>
+      <c r="J3">
+        <f>LoRa_Send_Header!J3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <f>LoRa_Reset!B4</f>
+        <v>0</v>
+      </c>
+      <c r="C4" t="str">
+        <f>LoRa_Send_Header!C4</f>
+        <v>LoRa_StatusDanych</v>
+      </c>
+      <c r="D4" s="2" t="str">
+        <f>LoRa_Send_Header!D4</f>
+        <v>LoRa_transmiting</v>
+      </c>
+      <c r="E4">
+        <f>LoRa_Send_Header!E4</f>
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f>LoRa_Send_Header!F4</f>
+        <v>0</v>
+      </c>
+      <c r="G4" t="str">
+        <f>LoRa_Send_Header!G4</f>
+        <v>LoRaStatus_t</v>
+      </c>
+      <c r="H4" t="str">
+        <f>LoRa_Send_Header!H4</f>
+        <v>LoRa_StatusDanych</v>
+      </c>
+      <c r="I4" s="2" t="str">
+        <f>LoRa_Send_Header!I4</f>
+        <v>LoRa_transmitIdle</v>
+      </c>
+      <c r="J4">
+        <f>LoRa_Send_Header!J4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <f>LoRa_Reset!B5</f>
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <f>LoRa_Send_Header!C5</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <f>LoRa_Send_Header!D5</f>
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <f>LoRa_Send_Header!E5</f>
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f>LoRa_Send_Header!F5</f>
+        <v>0</v>
+      </c>
+      <c r="G5" t="str">
+        <f>LoRa_Send_Header!G5</f>
+        <v>bool</v>
+      </c>
+      <c r="H5" t="str">
+        <f>LoRa_Send_Header!H5</f>
+        <v>LoRa_initialised</v>
+      </c>
+      <c r="I5" s="2" t="str">
+        <f>LoRa_Send_Header!I5</f>
+        <v>ENABLED</v>
+      </c>
+      <c r="J5">
+        <f>LoRa_Send_Header!J5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <f>LoRa_Reset!B6</f>
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <f>LoRa_Send_Header!C6</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <f>LoRa_Send_Header!D6</f>
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <f>LoRa_Send_Header!E6</f>
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <f>LoRa_Send_Header!F6</f>
+        <v>0</v>
+      </c>
+      <c r="G6" t="str">
+        <f>LoRa_Send_Header!G6</f>
+        <v>FCnt_t</v>
+      </c>
+      <c r="H6" t="str">
+        <f>LoRa_Send_Header!H6</f>
+        <v>LoRa_Counnter</v>
+      </c>
+      <c r="I6" s="2" t="str">
+        <f>LoRa_Send_Header!I6</f>
+        <v>++</v>
+      </c>
+      <c r="J6">
+        <f>LoRa_Send_Header!J6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <f>LoRa_Reset!B7</f>
+        <v>0</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="29"/>
+      <c r="E7" s="18"/>
+      <c r="F7">
+        <f>LoRa_Send_Header!F7</f>
+        <v>0</v>
+      </c>
+      <c r="G7" t="str">
+        <f>LoRa_Send_Header!G7</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H7" t="str">
+        <f>LoRa_Send_Header!H7</f>
+        <v>LoRa_Addres</v>
+      </c>
+      <c r="I7" s="2" t="str">
+        <f>LoRa_Send_Header!I7</f>
+        <v>LoRaDeviceAddress</v>
+      </c>
+      <c r="J7">
+        <f>LoRa_Send_Header!J7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <f>LoRa_Reset!B8</f>
+        <v>0</v>
+      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="21"/>
+      <c r="F8">
+        <f>LoRa_Send_Header!F8</f>
+        <v>0</v>
+      </c>
+      <c r="G8" t="str">
+        <f>LoRa_Send_Header!G8</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H8" t="str">
+        <f>LoRa_Send_Header!H8</f>
+        <v>LoRa_TimerHandshaking</v>
+      </c>
+      <c r="I8" s="2" t="str">
+        <f>LoRa_Send_Header!I8</f>
+        <v>LoRa_Handshaking_timeout</v>
+      </c>
+      <c r="J8" t="str">
+        <f>LoRa_Send_Header!J8</f>
+        <v>LoRa_TimerHandshakingCallback</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <f>LoRa_Reset!B9</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="D9" s="30"/>
+      <c r="E9" s="21"/>
+      <c r="F9">
+        <f>LoRa_Send_Header!F9</f>
+        <v>0</v>
+      </c>
+      <c r="G9" t="str">
+        <f>LoRa_Send_Header!G9</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H9" t="str">
+        <f>LoRa_Send_Header!H9</f>
+        <v>LoRa_TimerReconnect</v>
+      </c>
+      <c r="I9" s="2" t="str">
+        <f>LoRa_Send_Header!I9</f>
+        <v>0</v>
+      </c>
+      <c r="J9" t="str">
+        <f>LoRa_Send_Header!J9</f>
+        <v>LoRa_TimerReconnectCallback</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <f>LoRa_Reset!B10</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="D10" s="30"/>
+      <c r="E10" s="21"/>
+      <c r="F10">
+        <f>LoRa_Send_Header!F10</f>
+        <v>0</v>
+      </c>
+      <c r="G10" t="str">
+        <f>LoRa_Send_Header!G10</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H10" t="str">
+        <f>LoRa_Send_Header!H10</f>
+        <v>LoRa_TimerWaitAck</v>
+      </c>
+      <c r="I10" s="2" t="str">
+        <f>LoRa_Send_Header!I10</f>
+        <v>0</v>
+      </c>
+      <c r="J10" t="str">
+        <f>LoRa_Send_Header!J10</f>
+        <v>LoRa_TimerWaitAckCallback</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <f>LoRa_Reset!B11</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="19"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="21"/>
+      <c r="F11">
+        <f>LoRa_Send_Header!F11</f>
+        <v>0</v>
+      </c>
+      <c r="G11" t="str">
+        <f>LoRa_Send_Header!G11</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H11" t="str">
+        <f>LoRa_Send_Header!H11</f>
+        <v>LoRa_HeaderBufor</v>
+      </c>
+      <c r="I11" s="2" t="str">
+        <f>LoRa_Send_Header!I11</f>
+        <v>LoRa_Addres, nxt_channel</v>
+      </c>
+      <c r="J11">
+        <f>LoRa_Send_Header!J11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <f>LoRa_Reset!B12</f>
+        <v>0</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="F12">
+        <f>LoRa_Send_Header!F12</f>
+        <v>0</v>
+      </c>
+      <c r="G12" t="str">
+        <f>LoRa_Send_Header!G12</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H12" t="str">
+        <f>LoRa_Send_Header!H12</f>
+        <v>LoRa_HeaderLength</v>
+      </c>
+      <c r="I12" s="2" t="str">
+        <f>LoRa_Send_Header!I12</f>
+        <v>bufferHeadIndex</v>
+      </c>
+      <c r="J12">
+        <f>LoRa_Send_Header!J12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <f>LoRa_Reset!B13</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="D13" s="30"/>
+      <c r="E13" s="21"/>
+      <c r="F13">
+        <f>LoRa_Send_Header!F13</f>
+        <v>0</v>
+      </c>
+      <c r="G13" t="str">
+        <f>LoRa_Send_Header!G13</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H13" t="str">
+        <f>LoRa_Send_Header!H13</f>
+        <v>LoRa_Bufor</v>
+      </c>
+      <c r="I13" s="2" t="str">
+        <f>LoRa_Send_Header!I13</f>
+        <v>bufferIndex, nxt_channel, data, CRC</v>
+      </c>
+      <c r="J13">
+        <f>LoRa_Send_Header!J13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <f>LoRa_Reset!B14</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="D14" s="30">
+        <v>4</v>
+      </c>
+      <c r="E14" s="21"/>
+      <c r="F14">
+        <f>LoRa_Send_Header!F14</f>
+        <v>0</v>
+      </c>
+      <c r="G14" t="str">
+        <f>LoRa_Send_Header!G14</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H14" t="str">
+        <f>LoRa_Send_Header!H14</f>
+        <v>LoRa_BuforLength</v>
+      </c>
+      <c r="I14" s="2" t="str">
+        <f>LoRa_Send_Header!I14</f>
+        <v>bufferIndex</v>
+      </c>
+      <c r="J14">
+        <f>LoRa_Send_Header!J14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <f>LoRa_Reset!B15</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="21"/>
+      <c r="F15">
+        <f>LoRa_Send_Header!F15</f>
+        <v>0</v>
+      </c>
+      <c r="G15" t="str">
+        <f>LoRa_Send_Header!G15</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H15" t="str">
+        <f>LoRa_Send_Header!H15</f>
+        <v>LoRa_Command</v>
+      </c>
+      <c r="I15" s="2">
+        <f>LoRa_Send_Header!I15</f>
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <f>LoRa_Send_Header!J15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <f>LoRa_Reset!B16</f>
+        <v>0</v>
+      </c>
+      <c r="C16" s="19"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="21"/>
+      <c r="F16">
+        <f>LoRa_Send_Header!F16</f>
+        <v>0</v>
+      </c>
+      <c r="G16" t="str">
+        <f>LoRa_Send_Header!G16</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H16" t="str">
+        <f>LoRa_Send_Header!H16</f>
+        <v>LoRa_maxChannels</v>
+      </c>
+      <c r="I16" s="2" t="str">
+        <f>LoRa_Send_Header!I16</f>
+        <v>MAX_EU_SINGLE_BAND_CHANNELS</v>
+      </c>
+      <c r="J16">
+        <f>LoRa_Send_Header!J16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <f>LoRa_Reset!B17</f>
+        <v>0</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="21"/>
+      <c r="F17">
+        <f>LoRa_Send_Header!F17</f>
+        <v>0</v>
+      </c>
+      <c r="G17" t="str">
+        <f>LoRa_Send_Header!G17</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H17" t="str">
+        <f>LoRa_Send_Header!H17</f>
+        <v>LoRa_lastUsedChannelIndex</v>
+      </c>
+      <c r="I17" s="2" t="str">
+        <f>LoRa_Send_Header!I17</f>
+        <v>CH_nr</v>
+      </c>
+      <c r="J17">
+        <f>LoRa_Send_Header!J17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <f>LoRa_Reset!B18</f>
+        <v>0</v>
+      </c>
+      <c r="C18" s="19"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="21"/>
+      <c r="F18">
+        <f>LoRa_Send_Header!F18</f>
+        <v>0</v>
+      </c>
+      <c r="G18" t="str">
+        <f>LoRa_Send_Header!G18</f>
+        <v>ReceiveWindowParameters_t</v>
+      </c>
+      <c r="H18" t="str">
+        <f>LoRa_Send_Header!H18</f>
+        <v>LoRa_ch0_params.frequency</v>
+      </c>
+      <c r="I18" s="2" t="str">
+        <f>LoRa_Send_Header!I18</f>
+        <v>LoRa_CH0_frequency</v>
+      </c>
+      <c r="J18">
+        <f>LoRa_Send_Header!J18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <f>LoRa_Reset!B19</f>
+        <v>0</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="21"/>
+      <c r="F19">
+        <f>LoRa_Send_Header!F19</f>
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <f>LoRa_Send_Header!G19</f>
+        <v>0</v>
+      </c>
+      <c r="H19" t="str">
+        <f>LoRa_Send_Header!H19</f>
+        <v>LoRa_ch0_params.datarate</v>
+      </c>
+      <c r="I19" s="2" t="str">
+        <f>LoRa_Send_Header!I19</f>
+        <v>LoRa_CH0_datarate</v>
+      </c>
+      <c r="J19">
+        <f>LoRa_Send_Header!J19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <f>LoRa_Reset!B20</f>
+        <v>0</v>
+      </c>
+      <c r="C20" s="19"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="21"/>
+      <c r="F20">
+        <f>LoRa_Send_Header!F20</f>
+        <v>0</v>
+      </c>
+      <c r="G20" t="str">
+        <f>LoRa_Send_Header!G20</f>
+        <v>ReceiveWindowParameters_t</v>
+      </c>
+      <c r="H20" t="str">
+        <f>LoRa_Send_Header!H20</f>
+        <v>LoRa_receiveChannelParameters.frequency</v>
+      </c>
+      <c r="I20" s="2" t="str">
+        <f>LoRa_Send_Header!I20</f>
+        <v>Channels[CH_nr].frequency</v>
+      </c>
+      <c r="J20">
+        <f>LoRa_Send_Header!J20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <f>LoRa_Reset!B21</f>
+        <v>0</v>
+      </c>
+      <c r="C21" s="19"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="21"/>
+      <c r="F21">
+        <f>LoRa_Send_Header!F21</f>
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <f>LoRa_Send_Header!G21</f>
+        <v>0</v>
+      </c>
+      <c r="H21" t="str">
+        <f>LoRa_Send_Header!H21</f>
+        <v>LoRa_receiveChannelParameters.dataRate</v>
+      </c>
+      <c r="I21" s="2" t="str">
+        <f>LoRa_Send_Header!I21</f>
+        <v>LoRa_currentDataRate</v>
+      </c>
+      <c r="J21">
+        <f>LoRa_Send_Header!J21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <f>LoRa_Reset!B22</f>
+        <v>0</v>
+      </c>
+      <c r="C22" s="19"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="21"/>
+      <c r="F22">
+        <f>LoRa_Send_Header!F22</f>
+        <v>0</v>
+      </c>
+      <c r="G22" t="str">
+        <f>LoRa_Send_Header!G22</f>
+        <v>ReceiveWindowParameters_t</v>
+      </c>
+      <c r="H22" t="str">
+        <f>LoRa_Send_Header!H22</f>
+        <v>LoRa_sendChannelParameters.frequency</v>
+      </c>
+      <c r="I22" s="2" t="str">
+        <f>LoRa_Send_Header!I22</f>
+        <v>Channels[CH_nr].frequency</v>
+      </c>
+      <c r="J22">
+        <f>LoRa_Send_Header!J22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <f>LoRa_Reset!B23</f>
+        <v>0</v>
+      </c>
+      <c r="C23" s="19"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="21"/>
+      <c r="F23">
+        <f>LoRa_Send_Header!F23</f>
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <f>LoRa_Send_Header!G23</f>
+        <v>0</v>
+      </c>
+      <c r="H23" t="str">
+        <f>LoRa_Send_Header!H23</f>
+        <v>LoRa_sendChannelParameters.dataRate</v>
+      </c>
+      <c r="I23" s="2" t="str">
+        <f>LoRa_Send_Header!I23</f>
+        <v>LoRa_currentDataRate</v>
+      </c>
+      <c r="J23">
+        <f>LoRa_Send_Header!J23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <f>LoRa_Reset!B24</f>
+        <v>0</v>
+      </c>
+      <c r="C24" s="25"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="27"/>
+      <c r="F24">
+        <f>LoRa_Send_Header!F24</f>
+        <v>0</v>
+      </c>
+      <c r="G24" t="str">
+        <f>LoRa_Send_Header!G24</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H24" t="str">
+        <f>LoRa_Send_Header!H24</f>
+        <v>LoRa_txPower</v>
+      </c>
+      <c r="I24" s="2">
+        <f>LoRa_Send_Header!I24</f>
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <f>LoRa_Send_Header!J24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <f>LoRa_Reset!B25</f>
+        <v>0</v>
+      </c>
+      <c r="C25" t="str">
+        <f>LoRa_Send_Header!C25</f>
+        <v>DATA</v>
+      </c>
+      <c r="D25" s="2" t="str">
+        <f>LoRa_Send_Header!D25</f>
+        <v>LoRa_HeaderBufor</v>
+      </c>
+      <c r="E25">
+        <f>LoRa_Send_Header!E25</f>
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <f>LoRa_Send_Header!F25</f>
+        <v>0</v>
+      </c>
+      <c r="G25" t="str">
+        <f>LoRa_Send_Header!G25</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H25" t="str">
+        <f>LoRa_Send_Header!H25</f>
+        <v>LoRa_syncWord</v>
+      </c>
+      <c r="I25" s="2" t="str">
+        <f>LoRa_Send_Header!I25</f>
+        <v>0x34</v>
+      </c>
+      <c r="J25">
+        <f>LoRa_Send_Header!J25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" t="str">
+        <f>LoRa_Reset!B26</f>
+        <v>RADIO</v>
+      </c>
+      <c r="C26" t="str">
+        <f>LoRa_Send_Header!C26</f>
+        <v>mode</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="E26">
+        <f>LoRa_Send_Header!E26</f>
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <f>LoRa_Send_Header!F26</f>
+        <v>0</v>
+      </c>
+      <c r="G26" t="str">
+        <f>LoRa_Send_Header!G26</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H26" t="str">
+        <f>LoRa_Send_Header!H26</f>
+        <v>LoRa_batteryLevel</v>
+      </c>
+      <c r="I26" s="2" t="str">
+        <f>LoRa_Send_Header!I26</f>
+        <v>BATTERY_LEVEL_INVALID</v>
+      </c>
+      <c r="J26">
+        <f>LoRa_Send_Header!J26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <f>LoRa_Reset!B27</f>
+        <v>0</v>
+      </c>
+      <c r="C27" t="str">
+        <f>LoRa_Send_Header!C27</f>
+        <v>modulation</v>
+      </c>
+      <c r="D27" s="10" t="str">
+        <f>I41</f>
+        <v>modulation[dataRate]</v>
+      </c>
+      <c r="E27">
+        <f>LoRa_Send_Header!E27</f>
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <f>LoRa_Send_Header!F27</f>
+        <v>0</v>
+      </c>
+      <c r="G27" t="str">
+        <f>LoRa_Send_Header!G27</f>
+        <v>IsmBand_t</v>
+      </c>
+      <c r="H27" t="str">
+        <f>LoRa_Send_Header!H27</f>
+        <v>LoRa_ismBand</v>
+      </c>
+      <c r="I27" s="2" t="str">
+        <f>LoRa_Send_Header!I27</f>
+        <v>ISM_EU868</v>
+      </c>
+      <c r="J27">
+        <f>LoRa_Send_Header!J27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <f>LoRa_Reset!B28</f>
+        <v>0</v>
+      </c>
+      <c r="C28" t="str">
+        <f>LoRa_Send_Header!C28</f>
+        <v>frequency</v>
+      </c>
+      <c r="D28" s="10" t="str">
+        <f>I34</f>
+        <v>freq</v>
+      </c>
+      <c r="E28">
+        <f>LoRa_Send_Header!E28</f>
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <f>LoRa_Send_Header!F28</f>
+        <v>0</v>
+      </c>
+      <c r="G28" t="str">
+        <f>LoRa_Send_Header!G28</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H28" t="str">
+        <f>LoRa_Send_Header!H28</f>
+        <v>LoRa_currentDataRate</v>
+      </c>
+      <c r="I28" s="2" t="str">
+        <f>LoRa_Send_Header!I28</f>
+        <v>DR0</v>
+      </c>
+      <c r="J28">
+        <f>LoRa_Send_Header!J28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <f>LoRa_Reset!B29</f>
+        <v>0</v>
+      </c>
+      <c r="C29" t="str">
+        <f>LoRa_Send_Header!C29</f>
+        <v>payload</v>
+      </c>
+      <c r="D29" s="10">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <f>LoRa_Send_Header!E29</f>
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <f>LoRa_Send_Header!F29</f>
+        <v>0</v>
+      </c>
+      <c r="G29" t="str">
+        <f>LoRa_Send_Header!G29</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H29" t="str">
+        <f>LoRa_Send_Header!H29</f>
+        <v>LoRa_minDataRate</v>
+      </c>
+      <c r="I29" s="2" t="str">
+        <f>LoRa_Send_Header!I29</f>
+        <v>DR0</v>
+      </c>
+      <c r="J29">
+        <f>LoRa_Send_Header!J29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <f>LoRa_Reset!B30</f>
+        <v>0</v>
+      </c>
+      <c r="C30" t="str">
+        <f>LoRa_Send_Header!C30</f>
+        <v>power</v>
+      </c>
+      <c r="D30" s="10" t="str">
+        <f>I44</f>
+        <v>txPower868[LoRa_txPower]</v>
+      </c>
+      <c r="E30">
+        <f>LoRa_Send_Header!E30</f>
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <f>LoRa_Send_Header!F30</f>
+        <v>0</v>
+      </c>
+      <c r="G30" t="str">
+        <f>LoRa_Send_Header!G30</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H30" t="str">
+        <f>LoRa_Send_Header!H30</f>
+        <v>LoRa_maxDataRate</v>
+      </c>
+      <c r="I30" s="2" t="str">
+        <f>LoRa_Send_Header!I30</f>
+        <v>DR7</v>
+      </c>
+      <c r="J30">
+        <f>LoRa_Send_Header!J30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <f>LoRa_Reset!B31</f>
+        <v>0</v>
+      </c>
+      <c r="C31" t="str">
+        <f>LoRa_Send_Header!C31</f>
+        <v>SpreadingFactor</v>
+      </c>
+      <c r="D31" s="10" t="str">
+        <f>I42</f>
+        <v>spreadingFactor[dataRate]</v>
+      </c>
+      <c r="E31">
+        <f>LoRa_Send_Header!E31</f>
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <f>LoRa_Send_Header!F31</f>
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <f>LoRa_Send_Header!G31</f>
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <f>LoRa_Send_Header!H31</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="2">
+        <f>LoRa_Send_Header!I31</f>
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <f>LoRa_Send_Header!J31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <f>LoRa_Reset!B32</f>
+        <v>0</v>
+      </c>
+      <c r="C32" t="str">
+        <f>LoRa_Send_Header!C32</f>
+        <v>Bandwidth</v>
+      </c>
+      <c r="D32" s="10" t="str">
+        <f>I43</f>
+        <v>bandwidth[dataRate]</v>
+      </c>
+      <c r="E32">
+        <f>LoRa_Send_Header!E32</f>
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <f>LoRa_Send_Header!F32</f>
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <f>LoRa_Send_Header!G32</f>
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <f>LoRa_Send_Header!H32</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="2">
+        <f>LoRa_Send_Header!I32</f>
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <f>LoRa_Send_Header!J32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <f>LoRa_Reset!B33</f>
+        <v>0</v>
+      </c>
+      <c r="C33" t="str">
+        <f>LoRa_Send_Header!C33</f>
+        <v>SyncWord</v>
+      </c>
+      <c r="D33" s="10" t="str">
+        <f>I38</f>
+        <v>LoRa_syncWord</v>
+      </c>
+      <c r="E33">
+        <f>LoRa_Send_Header!E33</f>
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <f>LoRa_Send_Header!F33</f>
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <f>LoRa_Send_Header!G33</f>
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <f>LoRa_Send_Header!H33</f>
+        <v>0</v>
+      </c>
+      <c r="I33" s="2">
+        <f>LoRa_Send_Header!I33</f>
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <f>LoRa_Send_Header!J33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <f>LoRa_Reset!B34</f>
+        <v>0</v>
+      </c>
+      <c r="C34" t="str">
+        <f>LoRa_Send_Header!C34</f>
+        <v>CRC</v>
+      </c>
+      <c r="D34" s="10" t="str">
+        <f>I45</f>
+        <v>DISABLED</v>
+      </c>
+      <c r="E34">
+        <f>LoRa_Send_Header!E34</f>
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <f>LoRa_Send_Header!F34</f>
+        <v>0</v>
+      </c>
+      <c r="G34" t="str">
+        <f>LoRa_Send_Header!G34</f>
+        <v>uint32_t</v>
+      </c>
+      <c r="H34" t="str">
+        <f>LoRa_Send_Header!H34</f>
+        <v>frequency;</v>
+      </c>
+      <c r="I34" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="J34">
+        <f>LoRa_Send_Header!J34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <f>LoRa_Reset!B35</f>
+        <v>0</v>
+      </c>
+      <c r="C35" t="str">
+        <f>LoRa_Send_Header!C35</f>
+        <v>IQInverted</v>
+      </c>
+      <c r="D35" s="10" t="str">
+        <f>I49</f>
+        <v>DISABLED</v>
+      </c>
+      <c r="E35">
+        <f>LoRa_Send_Header!E35</f>
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <f>LoRa_Send_Header!F35</f>
+        <v>0</v>
+      </c>
+      <c r="G35" t="str">
+        <f>LoRa_Send_Header!G35</f>
+        <v>uint32_t</v>
+      </c>
+      <c r="H35" t="str">
+        <f>LoRa_Send_Header!H35</f>
+        <v>frequencyDeviation;</v>
+      </c>
+      <c r="I35" s="2">
+        <f>LoRa_Send_Header!I35</f>
+        <v>25000</v>
+      </c>
+      <c r="J35">
+        <f>LoRa_Send_Header!J35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <f>LoRa_Reset!B36</f>
+        <v>0</v>
+      </c>
+      <c r="C36" t="str">
+        <f>LoRa_Send_Header!C36</f>
+        <v>HopPeriod</v>
+      </c>
+      <c r="D36" s="10" t="str">
+        <f>I48</f>
+        <v>DISABLED</v>
+      </c>
+      <c r="E36">
+        <f>LoRa_Send_Header!E36</f>
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <f>LoRa_Send_Header!F36</f>
+        <v>0</v>
+      </c>
+      <c r="G36" t="str">
+        <f>LoRa_Send_Header!G36</f>
+        <v>uint32_t</v>
+      </c>
+      <c r="H36" t="str">
+        <f>LoRa_Send_Header!H36</f>
+        <v>bitRate;</v>
+      </c>
+      <c r="I36" s="2">
+        <f>LoRa_Send_Header!I36</f>
+        <v>50000</v>
+      </c>
+      <c r="J36">
+        <f>LoRa_Send_Header!J36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <f>LoRa_Reset!B37</f>
+        <v>0</v>
+      </c>
+      <c r="C37" t="str">
+        <f>LoRa_Send_Header!C37</f>
+        <v>errorCodingRate</v>
+      </c>
+      <c r="D37" s="10" t="str">
+        <f>I50</f>
+        <v>CR_4_5</v>
+      </c>
+      <c r="E37">
+        <f>LoRa_Send_Header!E37</f>
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <f>LoRa_Send_Header!F37</f>
+        <v>0</v>
+      </c>
+      <c r="G37" t="str">
+        <f>LoRa_Send_Header!G37</f>
+        <v>uint16_t</v>
+      </c>
+      <c r="H37" t="str">
+        <f>LoRa_Send_Header!H37</f>
+        <v>preambleLen;</v>
+      </c>
+      <c r="I37" s="2">
+        <f>LoRa_Send_Header!I37</f>
+        <v>8</v>
+      </c>
+      <c r="J37">
+        <f>LoRa_Send_Header!J37</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <f>LoRa_Reset!B38</f>
+        <v>0</v>
+      </c>
+      <c r="C38" t="str">
+        <f>LoRa_Send_Header!C38</f>
+        <v>implicitHeaderMode</v>
+      </c>
+      <c r="D38" s="10" t="str">
+        <f>I51</f>
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <f>LoRa_Send_Header!E38</f>
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <f>LoRa_Send_Header!F38</f>
+        <v>0</v>
+      </c>
+      <c r="G38" t="str">
+        <f>LoRa_Send_Header!G38</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H38" t="str">
+        <f>LoRa_Send_Header!H38</f>
+        <v>syncWordLoRa;</v>
+      </c>
+      <c r="I38" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="J38">
+        <f>LoRa_Send_Header!J38</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <f>LoRa_Reset!B39</f>
+        <v>0</v>
+      </c>
+      <c r="C39" t="str">
+        <f>LoRa_Send_Header!C39</f>
+        <v>symbolTimeout</v>
+      </c>
+      <c r="D39" s="2">
+        <f>LoRa_Send_Header!D39</f>
+        <v>4</v>
+      </c>
+      <c r="E39">
+        <f>LoRa_Send_Header!E39</f>
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <f>LoRa_Send_Header!F39</f>
+        <v>0</v>
+      </c>
+      <c r="G39" t="str">
+        <f>LoRa_Send_Header!G39</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H39" t="str">
+        <f>LoRa_Send_Header!H39</f>
+        <v>syncWord[8];</v>
+      </c>
+      <c r="I39" s="2" t="str">
+        <f>LoRa_Send_Header!I39</f>
+        <v>0xc1 0x94 0xc1</v>
+      </c>
+      <c r="J39">
+        <f>LoRa_Send_Header!J39</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <f>LoRa_Reset!B40</f>
+        <v>0</v>
+      </c>
+      <c r="C40" t="str">
+        <f>LoRa_Send_Header!C40</f>
+        <v>FSKfreqDeviation</v>
+      </c>
+      <c r="D40" s="10">
+        <f>LoRa_Send_Header!D40</f>
+        <v>25000</v>
+      </c>
+      <c r="E40">
+        <f>LoRa_Send_Header!E40</f>
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <f>LoRa_Send_Header!F40</f>
+        <v>0</v>
+      </c>
+      <c r="G40" t="str">
+        <f>LoRa_Send_Header!G40</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H40" t="str">
+        <f>LoRa_Send_Header!H40</f>
+        <v>syncWordLen;</v>
+      </c>
+      <c r="I40" s="2">
+        <f>LoRa_Send_Header!I40</f>
+        <v>3</v>
+      </c>
+      <c r="J40">
+        <f>LoRa_Send_Header!J40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <f>LoRa_Reset!B41</f>
+        <v>0</v>
+      </c>
+      <c r="C41" t="str">
+        <f>LoRa_Send_Header!C41</f>
+        <v>FSKBitRate</v>
+      </c>
+      <c r="D41" s="10">
+        <f>LoRa_Send_Header!D41</f>
+        <v>50000</v>
+      </c>
+      <c r="E41">
+        <f>LoRa_Send_Header!E41</f>
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <f>LoRa_Send_Header!F41</f>
+        <v>0</v>
+      </c>
+      <c r="G41" t="str">
+        <f>LoRa_Send_Header!G41</f>
+        <v>RadioModulation_t</v>
+      </c>
+      <c r="H41" t="str">
+        <f>LoRa_Send_Header!H41</f>
+        <v>modulation;</v>
+      </c>
+      <c r="I41" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="J41">
+        <f>LoRa_Send_Header!J41</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <f>LoRa_Reset!B42</f>
+        <v>0</v>
+      </c>
+      <c r="C42" t="str">
+        <f>LoRa_Send_Header!C42</f>
+        <v>FSK_PREAMBLE</v>
+      </c>
+      <c r="D42" s="10">
+        <f>I37</f>
+        <v>8</v>
+      </c>
+      <c r="E42">
+        <f>LoRa_Send_Header!E42</f>
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <f>LoRa_Send_Header!F42</f>
+        <v>0</v>
+      </c>
+      <c r="G42" t="str">
+        <f>LoRa_Send_Header!G42</f>
+        <v>RadioDataRate_t</v>
+      </c>
+      <c r="H42" t="str">
+        <f>LoRa_Send_Header!H42</f>
+        <v>dataRate;</v>
+      </c>
+      <c r="I42" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="J42">
+        <f>LoRa_Send_Header!J42</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <f>LoRa_Reset!B43</f>
+        <v>0</v>
+      </c>
+      <c r="C43" t="str">
+        <f>LoRa_Send_Header!C43</f>
+        <v>fskDataShaping</v>
+      </c>
+      <c r="D43" s="10" t="str">
+        <f>LoRa_Send_Header!D43</f>
+        <v>FSK_SHAPING_GAUSS_BT_0_5</v>
+      </c>
+      <c r="E43">
+        <f>LoRa_Send_Header!E43</f>
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <f>LoRa_Send_Header!F43</f>
+        <v>0</v>
+      </c>
+      <c r="G43" t="str">
+        <f>LoRa_Send_Header!G43</f>
+        <v>RadioLoRaBandWidth_t</v>
+      </c>
+      <c r="H43" t="str">
+        <f>LoRa_Send_Header!H43</f>
+        <v>bandWidth;</v>
+      </c>
+      <c r="I43" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="J43">
+        <f>LoRa_Send_Header!J43</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <f>LoRa_Reset!B44</f>
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <f>LoRa_Send_Header!C44</f>
+        <v>0</v>
+      </c>
+      <c r="D44" s="2">
+        <f>LoRa_Send_Header!D44</f>
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <f>LoRa_Send_Header!E44</f>
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <f>LoRa_Send_Header!F44</f>
+        <v>0</v>
+      </c>
+      <c r="G44" t="str">
+        <f>LoRa_Send_Header!G44</f>
+        <v>int8_t</v>
+      </c>
+      <c r="H44" t="str">
+        <f>LoRa_Send_Header!H44</f>
+        <v>outputPower;</v>
+      </c>
+      <c r="I44" s="2" t="str">
+        <f>LoRa_Send_Header!I44</f>
+        <v>txPower868[LoRa_txPower]</v>
+      </c>
+      <c r="J44">
+        <f>LoRa_Send_Header!J44</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <f>LoRa_Reset!B45</f>
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <f>LoRa_Send_Header!C45</f>
+        <v>0</v>
+      </c>
+      <c r="D45" s="2">
+        <f>LoRa_Send_Header!D45</f>
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <f>LoRa_Send_Header!E45</f>
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <f>LoRa_Send_Header!F45</f>
+        <v>0</v>
+      </c>
+      <c r="G45" t="str">
+        <f>LoRa_Send_Header!G45</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H45" t="str">
+        <f>LoRa_Send_Header!H45</f>
+        <v>crcOn;</v>
+      </c>
+      <c r="I45" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="J45">
+        <f>LoRa_Send_Header!J45</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <f>LoRa_Reset!B46</f>
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <f>LoRa_Send_Header!C46</f>
+        <v>0</v>
+      </c>
+      <c r="D46" s="2">
+        <f>LoRa_Send_Header!D46</f>
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <f>LoRa_Send_Header!E46</f>
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <f>LoRa_Send_Header!F46</f>
+        <v>0</v>
+      </c>
+      <c r="G46" t="str">
+        <f>LoRa_Send_Header!G46</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H46" t="str">
+        <f>LoRa_Send_Header!H46</f>
+        <v>paBoost;</v>
+      </c>
+      <c r="I46" s="2" t="str">
+        <f>LoRa_Send_Header!I46</f>
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <f>LoRa_Send_Header!J46</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <f>LoRa_Reset!B47</f>
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <f>LoRa_Send_Header!C47</f>
+        <v>0</v>
+      </c>
+      <c r="D47" s="2">
+        <f>LoRa_Send_Header!D47</f>
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <f>LoRa_Send_Header!E47</f>
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <f>LoRa_Send_Header!F47</f>
+        <v>0</v>
+      </c>
+      <c r="G47" t="str">
+        <f>LoRa_Send_Header!G47</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H47" t="str">
+        <f>LoRa_Send_Header!H47</f>
+        <v>flags</v>
+      </c>
+      <c r="I47" s="2" t="str">
+        <f>LoRa_Send_Header!I47</f>
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <f>LoRa_Send_Header!J47</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <f>LoRa_Reset!B48</f>
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <f>LoRa_Send_Header!C48</f>
+        <v>0</v>
+      </c>
+      <c r="D48" s="2">
+        <f>LoRa_Send_Header!D48</f>
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <f>LoRa_Send_Header!E48</f>
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <f>LoRa_Send_Header!F48</f>
+        <v>0</v>
+      </c>
+      <c r="G48" t="str">
+        <f>LoRa_Send_Header!G48</f>
+        <v>uint16_t</v>
+      </c>
+      <c r="H48" t="str">
+        <f>LoRa_Send_Header!H48</f>
+        <v>frequencyHopPeriod;</v>
+      </c>
+      <c r="I48" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="J48">
+        <f>LoRa_Send_Header!J48</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <f>LoRa_Reset!B49</f>
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <f>LoRa_Send_Header!C49</f>
+        <v>0</v>
+      </c>
+      <c r="D49" s="2">
+        <f>LoRa_Send_Header!D49</f>
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <f>LoRa_Send_Header!E49</f>
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <f>LoRa_Send_Header!F49</f>
+        <v>0</v>
+      </c>
+      <c r="G49" t="str">
+        <f>LoRa_Send_Header!G49</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H49" t="str">
+        <f>LoRa_Send_Header!H49</f>
+        <v>iqInverted;</v>
+      </c>
+      <c r="I49" s="2" t="str">
+        <f>LoRa_Send_Header!I49</f>
+        <v>DISABLED</v>
+      </c>
+      <c r="J49">
+        <f>LoRa_Send_Header!J49</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <f>LoRa_Reset!B50</f>
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <f>LoRa_Send_Header!C50</f>
+        <v>0</v>
+      </c>
+      <c r="D50" s="2">
+        <f>LoRa_Send_Header!D50</f>
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <f>LoRa_Send_Header!E50</f>
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <f>LoRa_Send_Header!F50</f>
+        <v>0</v>
+      </c>
+      <c r="G50" t="str">
+        <f>LoRa_Send_Header!G50</f>
+        <v>RadioErrorCodingRate_t</v>
+      </c>
+      <c r="H50" t="str">
+        <f>LoRa_Send_Header!H50</f>
+        <v>errorCodingRate;</v>
+      </c>
+      <c r="I50" s="2" t="str">
+        <f>LoRa_Send_Header!I50</f>
+        <v>CR_4_5</v>
+      </c>
+      <c r="J50">
+        <f>LoRa_Send_Header!J50</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <f>LoRa_Reset!B51</f>
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <f>LoRa_Send_Header!C51</f>
+        <v>0</v>
+      </c>
+      <c r="D51" s="2">
+        <f>LoRa_Send_Header!D51</f>
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <f>LoRa_Send_Header!E51</f>
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <f>LoRa_Send_Header!F51</f>
+        <v>0</v>
+      </c>
+      <c r="G51" t="str">
+        <f>LoRa_Send_Header!G51</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H51" t="str">
+        <f>LoRa_Send_Header!H51</f>
+        <v>implicitHeaderMode;</v>
+      </c>
+      <c r="I51" s="2" t="str">
+        <f>LoRa_Send_Header!I51</f>
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <f>LoRa_Send_Header!J51</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <f>LoRa_Reset!B52</f>
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <f>LoRa_Send_Header!C52</f>
+        <v>0</v>
+      </c>
+      <c r="D52" s="2">
+        <f>LoRa_Send_Header!D52</f>
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <f>LoRa_Send_Header!E52</f>
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <f>LoRa_Send_Header!F52</f>
+        <v>0</v>
+      </c>
+      <c r="G52" t="str">
+        <f>LoRa_Send_Header!G52</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H52" t="str">
+        <f>LoRa_Send_Header!H52</f>
+        <v>flags;</v>
+      </c>
+      <c r="I52" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="J52">
+        <f>LoRa_Send_Header!J52</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <f>LoRa_Reset!B53</f>
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <f>LoRa_Send_Header!C53</f>
+        <v>0</v>
+      </c>
+      <c r="D53" s="2">
+        <f>LoRa_Send_Header!D53</f>
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <f>LoRa_Send_Header!E53</f>
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <f>LoRa_Send_Header!F53</f>
+        <v>0</v>
+      </c>
+      <c r="G53" t="str">
+        <f>LoRa_Send_Header!G53</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H53" t="str">
+        <f>LoRa_Send_Header!H53</f>
+        <v>dataBufferLen;</v>
+      </c>
+      <c r="I53" s="2" t="str">
+        <f>LoRa_Send_Header!I53</f>
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <f>LoRa_Send_Header!J53</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <f>LoRa_Reset!B54</f>
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <f>LoRa_Send_Header!C54</f>
+        <v>0</v>
+      </c>
+      <c r="D54" s="2">
+        <f>LoRa_Send_Header!D54</f>
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <f>LoRa_Send_Header!E54</f>
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <f>LoRa_Send_Header!F54</f>
+        <v>0</v>
+      </c>
+      <c r="G54" t="str">
+        <f>LoRa_Send_Header!G54</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H54" t="str">
+        <f>LoRa_Send_Header!H54</f>
+        <v>*dataBuffer;</v>
+      </c>
+      <c r="I54" s="2" t="str">
+        <f>LoRa_Send_Header!I54</f>
+        <v>LoRa_radioBuffer</v>
+      </c>
+      <c r="J54">
+        <f>LoRa_Send_Header!J54</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <f>LoRa_Reset!B55</f>
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <f>LoRa_Send_Header!C55</f>
+        <v>0</v>
+      </c>
+      <c r="D55" s="2">
+        <f>LoRa_Send_Header!D55</f>
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <f>LoRa_Send_Header!E55</f>
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <f>LoRa_Send_Header!F55</f>
+        <v>0</v>
+      </c>
+      <c r="G55" t="str">
+        <f>LoRa_Send_Header!G55</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H55" t="str">
+        <f>LoRa_Send_Header!H55</f>
+        <v>timeOnAirTimerId;</v>
+      </c>
+      <c r="I55" s="2" t="str">
+        <f>LoRa_Send_Header!I55</f>
+        <v>TIME_ON_AIR_LOAD_VALUE</v>
+      </c>
+      <c r="J55">
+        <f>LoRa_Send_Header!J55</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <f>LoRa_Reset!B56</f>
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <f>LoRa_Send_Header!C56</f>
+        <v>0</v>
+      </c>
+      <c r="D56" s="2">
+        <f>LoRa_Send_Header!D56</f>
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <f>LoRa_Send_Header!E56</f>
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <f>LoRa_Send_Header!F56</f>
+        <v>0</v>
+      </c>
+      <c r="G56" t="str">
+        <f>LoRa_Send_Header!G56</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H56" t="str">
+        <f>LoRa_Send_Header!H56</f>
+        <v>fskRxWindowTimerId;</v>
+      </c>
+      <c r="I56" s="2" t="str">
+        <f>LoRa_Send_Header!I56</f>
+        <v>0</v>
+      </c>
+      <c r="J56" t="str">
+        <f>LoRa_Send_Header!J56</f>
+        <v>RADIO_RxFSKTimeout</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <f>LoRa_Reset!B57</f>
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <f>LoRa_Send_Header!C57</f>
+        <v>0</v>
+      </c>
+      <c r="D57" s="2">
+        <f>LoRa_Send_Header!D57</f>
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <f>LoRa_Send_Header!E57</f>
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <f>LoRa_Send_Header!F57</f>
+        <v>0</v>
+      </c>
+      <c r="G57" t="str">
+        <f>LoRa_Send_Header!G57</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H57" t="str">
+        <f>LoRa_Send_Header!H57</f>
+        <v>watchdogTimerId;</v>
+      </c>
+      <c r="I57" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="J57" t="str">
+        <f>LoRa_Send_Header!J57</f>
+        <v>RADIO_WatchdogTimeout</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <f>LoRa_Reset!B58</f>
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <f>LoRa_Send_Header!C58</f>
+        <v>0</v>
+      </c>
+      <c r="D58" s="2">
+        <f>LoRa_Send_Header!D58</f>
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <f>LoRa_Send_Header!E58</f>
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <f>LoRa_Send_Header!F58</f>
+        <v>0</v>
+      </c>
+      <c r="G58" t="str">
+        <f>LoRa_Send_Header!G58</f>
+        <v>uint32_t</v>
+      </c>
+      <c r="H58" t="str">
+        <f>LoRa_Send_Header!H58</f>
+        <v>watchdogTimerTimeout;</v>
+      </c>
+      <c r="I58" s="2" t="str">
+        <f>LoRa_Send_Header!I58</f>
+        <v>watchdogTimerTimeout</v>
+      </c>
+      <c r="J58">
+        <f>LoRa_Send_Header!J58</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <f>LoRa_Reset!B59</f>
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <f>LoRa_Send_Header!C59</f>
+        <v>0</v>
+      </c>
+      <c r="D59" s="2">
+        <f>LoRa_Send_Header!D59</f>
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <f>LoRa_Send_Header!E59</f>
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <f>LoRa_Send_Header!F59</f>
+        <v>0</v>
+      </c>
+      <c r="G59" t="str">
+        <f>LoRa_Send_Header!G59</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H59" t="str">
+        <f>LoRa_Send_Header!H59</f>
+        <v>initialized;</v>
+      </c>
+      <c r="I59" s="2">
+        <f>LoRa_Send_Header!I59</f>
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <f>LoRa_Send_Header!J59</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <f>LoRa_Reset!B60</f>
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <f>LoRa_Send_Header!C60</f>
+        <v>0</v>
+      </c>
+      <c r="D60" s="2">
+        <f>LoRa_Send_Header!D60</f>
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <f>LoRa_Send_Header!E60</f>
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <f>LoRa_Send_Header!F60</f>
+        <v>0</v>
+      </c>
+      <c r="G60" t="str">
+        <f>LoRa_Send_Header!G60</f>
+        <v>uint32_t</v>
+      </c>
+      <c r="H60" t="str">
+        <f>LoRa_Send_Header!H60</f>
+        <v>(*fhssNextFrequency)(void);</v>
+      </c>
+      <c r="I60" s="2" t="str">
+        <f>LoRa_Send_Header!I60</f>
+        <v>NULL</v>
+      </c>
+      <c r="J60">
+        <f>LoRa_Send_Header!J60</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <f>LoRa_Reset!B61</f>
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <f>LoRa_Send_Header!C61</f>
+        <v>0</v>
+      </c>
+      <c r="D61" s="2">
+        <f>LoRa_Send_Header!D61</f>
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <f>LoRa_Send_Header!E61</f>
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <f>LoRa_Send_Header!F61</f>
+        <v>0</v>
+      </c>
+      <c r="G61" t="str">
+        <f>LoRa_Send_Header!G61</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H61" t="str">
+        <f>LoRa_Send_Header!H61</f>
+        <v>regVersion;</v>
+      </c>
+      <c r="I61" s="2" t="str">
+        <f>LoRa_Send_Header!I61</f>
+        <v>RADIO(REG_VERSION)</v>
+      </c>
+      <c r="J61">
+        <f>LoRa_Send_Header!J61</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <f>LoRa_Reset!B62</f>
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <f>LoRa_Send_Header!C62</f>
+        <v>0</v>
+      </c>
+      <c r="D62" s="2">
+        <f>LoRa_Send_Header!D62</f>
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <f>LoRa_Send_Header!E62</f>
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <f>LoRa_Send_Header!F62</f>
+        <v>0</v>
+      </c>
+      <c r="G62" t="str">
+        <f>LoRa_Send_Header!G62</f>
+        <v>int8_t</v>
+      </c>
+      <c r="H62" t="str">
+        <f>LoRa_Send_Header!H62</f>
+        <v>packetSNR;</v>
+      </c>
+      <c r="I62" s="2">
+        <f>LoRa_Send_Header!I62</f>
+        <v>-128</v>
+      </c>
+      <c r="J62">
+        <f>LoRa_Send_Header!J62</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <f>LoRa_Reset!B63</f>
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <f>LoRa_Send_Header!C63</f>
+        <v>0</v>
+      </c>
+      <c r="D63" s="2">
+        <f>LoRa_Send_Header!D63</f>
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <f>LoRa_Send_Header!E63</f>
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <f>LoRa_Send_Header!F63</f>
+        <v>0</v>
+      </c>
+      <c r="G63" t="str">
+        <f>LoRa_Send_Header!G63</f>
+        <v>RadioFSKShaping_t</v>
+      </c>
+      <c r="H63" t="str">
+        <f>LoRa_Send_Header!H63</f>
+        <v>fskDataShaping;</v>
+      </c>
+      <c r="I63" s="2" t="str">
+        <f>LoRa_Send_Header!I63</f>
+        <v>FSK_SHAPING_GAUSS_BT_0_5</v>
+      </c>
+      <c r="J63">
+        <f>LoRa_Send_Header!J63</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <f>LoRa_Reset!B64</f>
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <f>LoRa_Send_Header!C64</f>
+        <v>0</v>
+      </c>
+      <c r="D64" s="2">
+        <f>LoRa_Send_Header!D64</f>
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <f>LoRa_Send_Header!E64</f>
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <f>LoRa_Send_Header!F64</f>
+        <v>0</v>
+      </c>
+      <c r="G64" t="str">
+        <f>LoRa_Send_Header!G64</f>
+        <v>RadioFSKBandWidth_t</v>
+      </c>
+      <c r="H64" t="str">
+        <f>LoRa_Send_Header!H64</f>
+        <v>rxBw;</v>
+      </c>
+      <c r="I64" s="2" t="str">
+        <f>LoRa_Send_Header!I64</f>
+        <v>FSKBW_50_0KHZ</v>
+      </c>
+      <c r="J64">
+        <f>LoRa_Send_Header!J64</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <f>LoRa_Reset!B65</f>
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <f>LoRa_Send_Header!C65</f>
+        <v>0</v>
+      </c>
+      <c r="D65" s="2">
+        <f>LoRa_Send_Header!D65</f>
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <f>LoRa_Send_Header!E65</f>
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <f>LoRa_Send_Header!F65</f>
+        <v>0</v>
+      </c>
+      <c r="G65" t="str">
+        <f>LoRa_Send_Header!G65</f>
+        <v>RadioFSKBandWidth_t</v>
+      </c>
+      <c r="H65" t="str">
+        <f>LoRa_Send_Header!H65</f>
+        <v>afcBw;</v>
+      </c>
+      <c r="I65" s="2" t="str">
+        <f>LoRa_Send_Header!I65</f>
+        <v>FSKBW_83_3KHZ</v>
+      </c>
+      <c r="J65">
+        <f>LoRa_Send_Header!J65</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <f>LoRa_Reset!B66</f>
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <f>LoRa_Send_Header!C66</f>
+        <v>0</v>
+      </c>
+      <c r="D66" s="2">
+        <f>LoRa_Send_Header!D66</f>
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <f>LoRa_Send_Header!E66</f>
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <f>LoRa_Send_Header!F66</f>
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <f>LoRa_Send_Header!G66</f>
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <f>LoRa_Send_Header!H66</f>
+        <v>0</v>
+      </c>
+      <c r="I66" s="2">
+        <f>LoRa_Send_Header!I66</f>
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <f>LoRa_Send_Header!J66</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <f>LoRa_Reset!B67</f>
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <f>LoRa_Send_Header!C67</f>
+        <v>0</v>
+      </c>
+      <c r="D67" s="2">
+        <f>LoRa_Send_Header!D67</f>
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <f>LoRa_Send_Header!E67</f>
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <f>LoRa_Send_Header!F67</f>
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <f>LoRa_Send_Header!G67</f>
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <f>LoRa_Send_Header!H67</f>
+        <v>0</v>
+      </c>
+      <c r="I67" s="2">
+        <f>LoRa_Send_Header!I67</f>
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <f>LoRa_Send_Header!J67</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <f>LoRa_Reset!B68</f>
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <f>LoRa_Send_Header!C68</f>
+        <v>0</v>
+      </c>
+      <c r="D68" s="2">
+        <f>LoRa_Send_Header!D68</f>
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <f>LoRa_Send_Header!E68</f>
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <f>LoRa_Send_Header!F68</f>
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <f>LoRa_Send_Header!G68</f>
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <f>LoRa_Send_Header!H68</f>
+        <v>0</v>
+      </c>
+      <c r="I68" s="2">
+        <f>LoRa_Send_Header!I68</f>
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <f>LoRa_Send_Header!J68</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <f>LoRa_Reset!B69</f>
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <f>LoRa_Send_Header!C69</f>
+        <v>0</v>
+      </c>
+      <c r="D69" s="2">
+        <f>LoRa_Send_Header!D69</f>
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <f>LoRa_Send_Header!E69</f>
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <f>LoRa_Send_Header!F69</f>
+        <v>0</v>
+      </c>
+      <c r="G69" t="str">
+        <f>LoRa_Send_Header!G69</f>
+        <v>ChannelParams_t</v>
+      </c>
+      <c r="H69" t="str">
+        <f>LoRa_Send_Header!H69</f>
+        <v>Channels</v>
+      </c>
+      <c r="I69" s="2" t="str">
+        <f>LoRa_Send_Header!I69</f>
+        <v>DefaultChannels868</v>
+      </c>
+      <c r="J69">
+        <f>LoRa_Send_Header!J69</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B70">
+        <f>LoRa_Reset!B70</f>
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <f>LoRa_Send_Header!C70</f>
+        <v>0</v>
+      </c>
+      <c r="D70" s="2">
+        <f>LoRa_Send_Header!D70</f>
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <f>LoRa_Send_Header!E70</f>
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <f>LoRa_Send_Header!F70</f>
+        <v>0</v>
+      </c>
+      <c r="G70" t="str">
+        <f>LoRa_Send_Header!G70</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H70" t="str">
+        <f>LoRa_Send_Header!H70</f>
+        <v>maxPayloadSize[]</v>
+      </c>
+      <c r="I70" s="2" t="str">
+        <f>LoRa_Send_Header!I70</f>
+        <v>MAX_EU_SINGLE_BAND_CHANNELS</v>
+      </c>
+      <c r="J70">
+        <f>LoRa_Send_Header!J70</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <f>LoRa_Reset!B71</f>
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <f>LoRa_Send_Header!C71</f>
+        <v>0</v>
+      </c>
+      <c r="D71" s="2">
+        <f>LoRa_Send_Header!D71</f>
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <f>LoRa_Send_Header!E71</f>
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <f>LoRa_Send_Header!F71</f>
+        <v>0</v>
+      </c>
+      <c r="G71" t="str">
+        <f>LoRa_Send_Header!G71</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H71" t="str">
+        <f>LoRa_Send_Header!H71</f>
+        <v>modulation[]</v>
+      </c>
+      <c r="I71" s="2">
+        <f>LoRa_Send_Header!I71</f>
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <f>LoRa_Send_Header!J71</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <f>LoRa_Reset!B72</f>
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <f>LoRa_Send_Header!C72</f>
+        <v>0</v>
+      </c>
+      <c r="D72" s="2">
+        <f>LoRa_Send_Header!D72</f>
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <f>LoRa_Send_Header!E72</f>
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <f>LoRa_Send_Header!F72</f>
+        <v>0</v>
+      </c>
+      <c r="G72" t="str">
+        <f>LoRa_Send_Header!G72</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H72" t="str">
+        <f>LoRa_Send_Header!H72</f>
+        <v>spreadingFactor[]</v>
+      </c>
+      <c r="I72" s="2">
+        <f>LoRa_Send_Header!I72</f>
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <f>LoRa_Send_Header!J72</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B73">
+        <f>LoRa_Reset!B73</f>
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <f>LoRa_Send_Header!C73</f>
+        <v>0</v>
+      </c>
+      <c r="D73" s="2">
+        <f>LoRa_Send_Header!D73</f>
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <f>LoRa_Send_Header!E73</f>
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <f>LoRa_Send_Header!F73</f>
+        <v>0</v>
+      </c>
+      <c r="G73" t="str">
+        <f>LoRa_Send_Header!G73</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H73" t="str">
+        <f>LoRa_Send_Header!H73</f>
+        <v>bandwidth[]</v>
+      </c>
+      <c r="I73" s="2">
+        <f>LoRa_Send_Header!I73</f>
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <f>LoRa_Send_Header!J73</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <f>LoRa_Reset!B74</f>
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <f>LoRa_Send_Header!C74</f>
+        <v>0</v>
+      </c>
+      <c r="D74" s="2">
+        <f>LoRa_Send_Header!D74</f>
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <f>LoRa_Send_Header!E74</f>
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <f>LoRa_Send_Header!F74</f>
+        <v>0</v>
+      </c>
+      <c r="G74" t="str">
+        <f>LoRa_Send_Header!G74</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H74" t="str">
+        <f>LoRa_Send_Header!H74</f>
+        <v>txPower868[]</v>
+      </c>
+      <c r="I74" s="2">
+        <f>LoRa_Send_Header!I74</f>
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <f>LoRa_Send_Header!J74</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B75">
+        <f>LoRa_Reset!B75</f>
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <f>LoRa_Send_Header!C75</f>
+        <v>0</v>
+      </c>
+      <c r="D75" s="2">
+        <f>LoRa_Send_Header!D75</f>
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <f>LoRa_Send_Header!E75</f>
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <f>LoRa_Send_Header!F75</f>
+        <v>0</v>
+      </c>
+      <c r="G75" t="str">
+        <f>LoRa_Send_Header!G75</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H75" t="str">
+        <f>LoRa_Send_Header!H75</f>
+        <v>LoRa_radioBuffer[]</v>
+      </c>
+      <c r="I75" s="2" t="str">
+        <f>LoRa_Send_Header!I75</f>
+        <v>MAXIMUM_BUFFER_LENGTH</v>
+      </c>
+      <c r="J75">
+        <f>LoRa_Send_Header!J75</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B76">
+        <f>LoRa_Reset!B76</f>
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <f>LoRa_Send_Header!C76</f>
+        <v>0</v>
+      </c>
+      <c r="D76" s="2">
+        <f>LoRa_Send_Header!D76</f>
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <f>LoRa_Send_Header!E76</f>
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <f>LoRa_Send_Header!F76</f>
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <f>LoRa_Send_Header!G76</f>
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <f>LoRa_Send_Header!H76</f>
+        <v>0</v>
+      </c>
+      <c r="I76" s="2">
+        <f>LoRa_Send_Header!I76</f>
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <f>LoRa_Send_Header!J76</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B77">
+        <f>LoRa_Reset!B77</f>
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <f>LoRa_Send_Header!C77</f>
+        <v>0</v>
+      </c>
+      <c r="D77" s="2">
+        <f>LoRa_Send_Header!D77</f>
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <f>LoRa_Send_Header!E77</f>
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <f>LoRa_Send_Header!F77</f>
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <f>LoRa_Send_Header!G77</f>
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <f>LoRa_Send_Header!H77</f>
+        <v>0</v>
+      </c>
+      <c r="I77" s="2">
+        <f>LoRa_Send_Header!I77</f>
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <f>LoRa_Send_Header!J77</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B78">
+        <f>LoRa_Reset!B78</f>
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <f>LoRa_Send_Header!C78</f>
+        <v>0</v>
+      </c>
+      <c r="D78" s="2">
+        <f>LoRa_Send_Header!D78</f>
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <f>LoRa_Send_Header!E78</f>
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <f>LoRa_Send_Header!F78</f>
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <f>LoRa_Send_Header!G78</f>
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <f>LoRa_Send_Header!H78</f>
+        <v>0</v>
+      </c>
+      <c r="I78" s="2">
+        <f>LoRa_Send_Header!I78</f>
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <f>LoRa_Send_Header!J78</f>
+        <v>0</v>
+      </c>
+    </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G79">
-        <f>function!B48</f>
-        <v>0</v>
-      </c>
-      <c r="H79" t="str">
-        <f>function!C48</f>
+      <c r="E79"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5B1977D-58FF-40E0-AF53-E7DA1D58FDF8}">
+  <dimension ref="B1:J79"/>
+  <sheetViews>
+    <sheetView showZeros="0" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.25" customWidth="1"/>
+    <col min="3" max="3" width="44.875" customWidth="1"/>
+    <col min="4" max="5" width="24.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="5.75" customWidth="1"/>
+    <col min="7" max="7" width="27" customWidth="1"/>
+    <col min="8" max="8" width="27.5" customWidth="1"/>
+    <col min="9" max="9" width="31.875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="28.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <f>LoRa_Reset!B3</f>
+        <v>0</v>
+      </c>
+      <c r="C3" t="str">
+        <f>LoRa_Send_Header!C3</f>
+        <v>LoRa_transmitStatus</v>
+      </c>
+      <c r="D3" t="str">
+        <f>LoRa_Send_Header!D3</f>
+        <v>LoRa_Handshaking_TX</v>
+      </c>
+      <c r="E3">
+        <f>LoRa_Send_Header!E3</f>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f>LoRa_Send_Header!F3</f>
+        <v>0</v>
+      </c>
+      <c r="G3" t="str">
+        <f>LoRa_Send_Header!G3</f>
+        <v>LoRaMacState_t</v>
+      </c>
+      <c r="H3" t="str">
+        <f>LoRa_Send_Header!H3</f>
+        <v>LoRa_transmitStatus</v>
+      </c>
+      <c r="I3" t="str">
+        <f>LoRa_Send_Header!I3</f>
+        <v>LoRa_Idle</v>
+      </c>
+      <c r="J3">
+        <f>LoRa_Send_Header!J3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <f>LoRa_Reset!B4</f>
+        <v>0</v>
+      </c>
+      <c r="C4" t="str">
+        <f>LoRa_Send_Header!C4</f>
+        <v>LoRa_StatusDanych</v>
+      </c>
+      <c r="D4" t="str">
+        <f>LoRa_Send_Header!D4</f>
+        <v>LoRa_transmiting</v>
+      </c>
+      <c r="E4">
+        <f>LoRa_Send_Header!E4</f>
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f>LoRa_Send_Header!F4</f>
+        <v>0</v>
+      </c>
+      <c r="G4" t="str">
+        <f>LoRa_Send_Header!G4</f>
+        <v>LoRaStatus_t</v>
+      </c>
+      <c r="H4" t="str">
+        <f>LoRa_Send_Header!H4</f>
+        <v>LoRa_StatusDanych</v>
+      </c>
+      <c r="I4" t="str">
+        <f>LoRa_Send_Header!I4</f>
+        <v>LoRa_transmitIdle</v>
+      </c>
+      <c r="J4">
+        <f>LoRa_Send_Header!J4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <f>LoRa_Reset!B5</f>
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <f>LoRa_Send_Header!C5</f>
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <f>LoRa_Send_Header!D5</f>
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <f>LoRa_Send_Header!E5</f>
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f>LoRa_Send_Header!F5</f>
+        <v>0</v>
+      </c>
+      <c r="G5" t="str">
+        <f>LoRa_Send_Header!G5</f>
+        <v>bool</v>
+      </c>
+      <c r="H5" t="str">
+        <f>LoRa_Send_Header!H5</f>
+        <v>LoRa_initialised</v>
+      </c>
+      <c r="I5" t="str">
+        <f>LoRa_Send_Header!I5</f>
+        <v>ENABLED</v>
+      </c>
+      <c r="J5">
+        <f>LoRa_Send_Header!J5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <f>LoRa_Reset!B6</f>
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <f>LoRa_Send_Header!C6</f>
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <f>LoRa_Send_Header!D6</f>
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <f>LoRa_Send_Header!E6</f>
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <f>LoRa_Send_Header!F6</f>
+        <v>0</v>
+      </c>
+      <c r="G6" t="str">
+        <f>LoRa_Send_Header!G6</f>
+        <v>FCnt_t</v>
+      </c>
+      <c r="H6" t="str">
+        <f>LoRa_Send_Header!H6</f>
+        <v>LoRa_Counnter</v>
+      </c>
+      <c r="I6" t="str">
+        <f>LoRa_Send_Header!I6</f>
+        <v>++</v>
+      </c>
+      <c r="J6">
+        <f>LoRa_Send_Header!J6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <f>LoRa_Reset!B7</f>
+        <v>0</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="18"/>
+      <c r="F7">
+        <f>LoRa_Send_Header!F7</f>
+        <v>0</v>
+      </c>
+      <c r="G7" t="str">
+        <f>LoRa_Send_Header!G7</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H7" t="str">
+        <f>LoRa_Send_Header!H7</f>
+        <v>LoRa_Addres</v>
+      </c>
+      <c r="I7" t="str">
+        <f>LoRa_Send_Header!I7</f>
+        <v>LoRaDeviceAddress</v>
+      </c>
+      <c r="J7">
+        <f>LoRa_Send_Header!J7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <f>LoRa_Reset!B8</f>
+        <v>0</v>
+      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="21"/>
+      <c r="F8">
+        <f>LoRa_Send_Header!F8</f>
+        <v>0</v>
+      </c>
+      <c r="G8" t="str">
+        <f>LoRa_Send_Header!G8</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H8" t="str">
+        <f>LoRa_Send_Header!H8</f>
+        <v>LoRa_TimerHandshaking</v>
+      </c>
+      <c r="I8" t="str">
+        <f>LoRa_Send_Header!I8</f>
+        <v>LoRa_Handshaking_timeout</v>
+      </c>
+      <c r="J8" t="str">
+        <f>LoRa_Send_Header!J8</f>
+        <v>LoRa_TimerHandshakingCallback</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <f>LoRa_Reset!B9</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="21"/>
+      <c r="F9">
+        <f>LoRa_Send_Header!F9</f>
+        <v>0</v>
+      </c>
+      <c r="G9" t="str">
+        <f>LoRa_Send_Header!G9</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H9" t="str">
+        <f>LoRa_Send_Header!H9</f>
+        <v>LoRa_TimerReconnect</v>
+      </c>
+      <c r="I9" t="str">
+        <f>LoRa_Send_Header!I9</f>
+        <v>0</v>
+      </c>
+      <c r="J9" t="str">
+        <f>LoRa_Send_Header!J9</f>
+        <v>LoRa_TimerReconnectCallback</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <f>LoRa_Reset!B10</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="19"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="21"/>
+      <c r="F10">
+        <f>LoRa_Send_Header!F10</f>
+        <v>0</v>
+      </c>
+      <c r="G10" t="str">
+        <f>LoRa_Send_Header!G10</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H10" t="str">
+        <f>LoRa_Send_Header!H10</f>
+        <v>LoRa_TimerWaitAck</v>
+      </c>
+      <c r="I10" t="str">
+        <f>LoRa_Send_Header!I10</f>
+        <v>0</v>
+      </c>
+      <c r="J10" t="str">
+        <f>LoRa_Send_Header!J10</f>
+        <v>LoRa_TimerWaitAckCallback</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <f>LoRa_Reset!B11</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="19"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="21"/>
+      <c r="F11">
+        <f>LoRa_Send_Header!F11</f>
+        <v>0</v>
+      </c>
+      <c r="G11" t="str">
+        <f>LoRa_Send_Header!G11</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H11" t="str">
+        <f>LoRa_Send_Header!H11</f>
+        <v>LoRa_HeaderBufor</v>
+      </c>
+      <c r="I11" t="str">
+        <f>LoRa_Send_Header!I11</f>
+        <v>LoRa_Addres, nxt_channel</v>
+      </c>
+      <c r="J11">
+        <f>LoRa_Send_Header!J11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <f>LoRa_Reset!B12</f>
+        <v>0</v>
+      </c>
+      <c r="C12" s="19"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="21"/>
+      <c r="F12">
+        <f>LoRa_Send_Header!F12</f>
+        <v>0</v>
+      </c>
+      <c r="G12" t="str">
+        <f>LoRa_Send_Header!G12</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H12" t="str">
+        <f>LoRa_Send_Header!H12</f>
+        <v>LoRa_HeaderLength</v>
+      </c>
+      <c r="I12" t="str">
+        <f>LoRa_Send_Header!I12</f>
+        <v>bufferHeadIndex</v>
+      </c>
+      <c r="J12">
+        <f>LoRa_Send_Header!J12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <f>LoRa_Reset!B13</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="19"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="21"/>
+      <c r="F13">
+        <f>LoRa_Send_Header!F13</f>
+        <v>0</v>
+      </c>
+      <c r="G13" t="str">
+        <f>LoRa_Send_Header!G13</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H13" t="str">
+        <f>LoRa_Send_Header!H13</f>
+        <v>LoRa_Bufor</v>
+      </c>
+      <c r="I13" t="str">
+        <f>LoRa_Send_Header!I13</f>
+        <v>bufferIndex, nxt_channel, data, CRC</v>
+      </c>
+      <c r="J13">
+        <f>LoRa_Send_Header!J13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <f>LoRa_Reset!B14</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="19"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="21"/>
+      <c r="F14">
+        <f>LoRa_Send_Header!F14</f>
+        <v>0</v>
+      </c>
+      <c r="G14" t="str">
+        <f>LoRa_Send_Header!G14</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H14" t="str">
+        <f>LoRa_Send_Header!H14</f>
+        <v>LoRa_BuforLength</v>
+      </c>
+      <c r="I14" t="str">
+        <f>LoRa_Send_Header!I14</f>
+        <v>bufferIndex</v>
+      </c>
+      <c r="J14">
+        <f>LoRa_Send_Header!J14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <f>LoRa_Reset!B15</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="21"/>
+      <c r="F15">
+        <f>LoRa_Send_Header!F15</f>
+        <v>0</v>
+      </c>
+      <c r="G15" t="str">
+        <f>LoRa_Send_Header!G15</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H15" t="str">
+        <f>LoRa_Send_Header!H15</f>
+        <v>LoRa_Command</v>
+      </c>
+      <c r="I15">
+        <f>LoRa_Send_Header!I15</f>
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <f>LoRa_Send_Header!J15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <f>LoRa_Reset!B16</f>
+        <v>0</v>
+      </c>
+      <c r="C16" s="19"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="21"/>
+      <c r="F16">
+        <f>LoRa_Send_Header!F16</f>
+        <v>0</v>
+      </c>
+      <c r="G16" t="str">
+        <f>LoRa_Send_Header!G16</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H16" t="str">
+        <f>LoRa_Send_Header!H16</f>
+        <v>LoRa_maxChannels</v>
+      </c>
+      <c r="I16" t="str">
+        <f>LoRa_Send_Header!I16</f>
+        <v>MAX_EU_SINGLE_BAND_CHANNELS</v>
+      </c>
+      <c r="J16">
+        <f>LoRa_Send_Header!J16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <f>LoRa_Reset!B17</f>
+        <v>0</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="21"/>
+      <c r="F17">
+        <f>LoRa_Send_Header!F17</f>
+        <v>0</v>
+      </c>
+      <c r="G17" t="str">
+        <f>LoRa_Send_Header!G17</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H17" t="str">
+        <f>LoRa_Send_Header!H17</f>
+        <v>LoRa_lastUsedChannelIndex</v>
+      </c>
+      <c r="I17" t="str">
+        <f>LoRa_Send_Header!I17</f>
+        <v>CH_nr</v>
+      </c>
+      <c r="J17">
+        <f>LoRa_Send_Header!J17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <f>LoRa_Reset!B18</f>
+        <v>0</v>
+      </c>
+      <c r="C18" s="19"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="21"/>
+      <c r="F18">
+        <f>LoRa_Send_Header!F18</f>
+        <v>0</v>
+      </c>
+      <c r="G18" t="str">
+        <f>LoRa_Send_Header!G18</f>
+        <v>ReceiveWindowParameters_t</v>
+      </c>
+      <c r="H18" t="str">
+        <f>LoRa_Send_Header!H18</f>
+        <v>LoRa_ch0_params.frequency</v>
+      </c>
+      <c r="I18" t="str">
+        <f>LoRa_Send_Header!I18</f>
+        <v>LoRa_CH0_frequency</v>
+      </c>
+      <c r="J18">
+        <f>LoRa_Send_Header!J18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <f>LoRa_Reset!B19</f>
+        <v>0</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="21"/>
+      <c r="F19">
+        <f>LoRa_Send_Header!F19</f>
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <f>LoRa_Send_Header!G19</f>
+        <v>0</v>
+      </c>
+      <c r="H19" t="str">
+        <f>LoRa_Send_Header!H19</f>
+        <v>LoRa_ch0_params.datarate</v>
+      </c>
+      <c r="I19" t="str">
+        <f>LoRa_Send_Header!I19</f>
+        <v>LoRa_CH0_datarate</v>
+      </c>
+      <c r="J19">
+        <f>LoRa_Send_Header!J19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <f>LoRa_Reset!B20</f>
+        <v>0</v>
+      </c>
+      <c r="C20" s="19"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="21"/>
+      <c r="F20">
+        <f>LoRa_Send_Header!F20</f>
+        <v>0</v>
+      </c>
+      <c r="G20" t="str">
+        <f>LoRa_Send_Header!G20</f>
+        <v>ReceiveWindowParameters_t</v>
+      </c>
+      <c r="H20" t="str">
+        <f>LoRa_Send_Header!H20</f>
+        <v>LoRa_receiveChannelParameters.frequency</v>
+      </c>
+      <c r="I20" t="str">
+        <f>LoRa_Send_Header!I20</f>
+        <v>Channels[CH_nr].frequency</v>
+      </c>
+      <c r="J20">
+        <f>LoRa_Send_Header!J20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <f>LoRa_Reset!B21</f>
+        <v>0</v>
+      </c>
+      <c r="C21" s="19"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="21"/>
+      <c r="F21">
+        <f>LoRa_Send_Header!F21</f>
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <f>LoRa_Send_Header!G21</f>
+        <v>0</v>
+      </c>
+      <c r="H21" t="str">
+        <f>LoRa_Send_Header!H21</f>
+        <v>LoRa_receiveChannelParameters.dataRate</v>
+      </c>
+      <c r="I21" t="str">
+        <f>LoRa_Send_Header!I21</f>
+        <v>LoRa_currentDataRate</v>
+      </c>
+      <c r="J21">
+        <f>LoRa_Send_Header!J21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <f>LoRa_Reset!B22</f>
+        <v>0</v>
+      </c>
+      <c r="C22" s="19"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="21"/>
+      <c r="F22">
+        <f>LoRa_Send_Header!F22</f>
+        <v>0</v>
+      </c>
+      <c r="G22" t="str">
+        <f>LoRa_Send_Header!G22</f>
+        <v>ReceiveWindowParameters_t</v>
+      </c>
+      <c r="H22" t="str">
+        <f>LoRa_Send_Header!H22</f>
+        <v>LoRa_sendChannelParameters.frequency</v>
+      </c>
+      <c r="I22" t="str">
+        <f>LoRa_Send_Header!I22</f>
+        <v>Channels[CH_nr].frequency</v>
+      </c>
+      <c r="J22">
+        <f>LoRa_Send_Header!J22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <f>LoRa_Reset!B23</f>
+        <v>0</v>
+      </c>
+      <c r="C23" s="19"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="21"/>
+      <c r="F23">
+        <f>LoRa_Send_Header!F23</f>
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <f>LoRa_Send_Header!G23</f>
+        <v>0</v>
+      </c>
+      <c r="H23" t="str">
+        <f>LoRa_Send_Header!H23</f>
+        <v>LoRa_sendChannelParameters.dataRate</v>
+      </c>
+      <c r="I23" t="str">
+        <f>LoRa_Send_Header!I23</f>
+        <v>LoRa_currentDataRate</v>
+      </c>
+      <c r="J23">
+        <f>LoRa_Send_Header!J23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <f>LoRa_Reset!B24</f>
+        <v>0</v>
+      </c>
+      <c r="C24" s="25"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="27"/>
+      <c r="F24">
+        <f>LoRa_Send_Header!F24</f>
+        <v>0</v>
+      </c>
+      <c r="G24" t="str">
+        <f>LoRa_Send_Header!G24</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H24" t="str">
+        <f>LoRa_Send_Header!H24</f>
+        <v>LoRa_txPower</v>
+      </c>
+      <c r="I24">
+        <f>LoRa_Send_Header!I24</f>
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <f>LoRa_Send_Header!J24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <f>LoRa_Reset!B25</f>
+        <v>0</v>
+      </c>
+      <c r="C25" t="str">
+        <f>LoRa_Send_Header!C25</f>
         <v>DATA</v>
       </c>
-      <c r="I79" s="2">
-        <f>LoRa_System_Init!I79</f>
-        <v>0</v>
-      </c>
-      <c r="J79">
-        <f>function!E48</f>
-        <v>0</v>
-      </c>
+      <c r="D25" t="str">
+        <f>LoRa_Send_Header!D25</f>
+        <v>LoRa_HeaderBufor</v>
+      </c>
+      <c r="E25">
+        <f>LoRa_Send_Header!E25</f>
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <f>LoRa_Send_Header!F25</f>
+        <v>0</v>
+      </c>
+      <c r="G25" t="str">
+        <f>LoRa_Send_Header!G25</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H25" t="str">
+        <f>LoRa_Send_Header!H25</f>
+        <v>LoRa_syncWord</v>
+      </c>
+      <c r="I25" t="str">
+        <f>LoRa_Send_Header!I25</f>
+        <v>0x34</v>
+      </c>
+      <c r="J25">
+        <f>LoRa_Send_Header!J25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" t="str">
+        <f>LoRa_Reset!B26</f>
+        <v>RADIO</v>
+      </c>
+      <c r="C26" t="str">
+        <f>LoRa_Send_Header!C26</f>
+        <v>mode</v>
+      </c>
+      <c r="D26" t="str">
+        <f>LoRa_Send_Header!D26</f>
+        <v>MODE_TX</v>
+      </c>
+      <c r="E26">
+        <f>LoRa_Send_Header!E26</f>
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <f>LoRa_Send_Header!F26</f>
+        <v>0</v>
+      </c>
+      <c r="G26" t="str">
+        <f>LoRa_Send_Header!G26</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H26" t="str">
+        <f>LoRa_Send_Header!H26</f>
+        <v>LoRa_batteryLevel</v>
+      </c>
+      <c r="I26" t="str">
+        <f>LoRa_Send_Header!I26</f>
+        <v>BATTERY_LEVEL_INVALID</v>
+      </c>
+      <c r="J26">
+        <f>LoRa_Send_Header!J26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <f>LoRa_Reset!B27</f>
+        <v>0</v>
+      </c>
+      <c r="C27" t="str">
+        <f>LoRa_Send_Header!C27</f>
+        <v>modulation</v>
+      </c>
+      <c r="D27" t="str">
+        <f>LoRa_Send_Header!D27</f>
+        <v>modulation[dataRate]</v>
+      </c>
+      <c r="E27">
+        <f>LoRa_Send_Header!E27</f>
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <f>LoRa_Send_Header!F27</f>
+        <v>0</v>
+      </c>
+      <c r="G27" t="str">
+        <f>LoRa_Send_Header!G27</f>
+        <v>IsmBand_t</v>
+      </c>
+      <c r="H27" t="str">
+        <f>LoRa_Send_Header!H27</f>
+        <v>LoRa_ismBand</v>
+      </c>
+      <c r="I27" t="str">
+        <f>LoRa_Send_Header!I27</f>
+        <v>ISM_EU868</v>
+      </c>
+      <c r="J27">
+        <f>LoRa_Send_Header!J27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <f>LoRa_Reset!B28</f>
+        <v>0</v>
+      </c>
+      <c r="C28" t="str">
+        <f>LoRa_Send_Header!C28</f>
+        <v>frequency</v>
+      </c>
+      <c r="D28" t="str">
+        <f>LoRa_Send_Header!D28</f>
+        <v>freq</v>
+      </c>
+      <c r="E28">
+        <f>LoRa_Send_Header!E28</f>
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <f>LoRa_Send_Header!F28</f>
+        <v>0</v>
+      </c>
+      <c r="G28" t="str">
+        <f>LoRa_Send_Header!G28</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H28" t="str">
+        <f>LoRa_Send_Header!H28</f>
+        <v>LoRa_currentDataRate</v>
+      </c>
+      <c r="I28" t="str">
+        <f>LoRa_Send_Header!I28</f>
+        <v>DR0</v>
+      </c>
+      <c r="J28">
+        <f>LoRa_Send_Header!J28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <f>LoRa_Reset!B29</f>
+        <v>0</v>
+      </c>
+      <c r="C29" t="str">
+        <f>LoRa_Send_Header!C29</f>
+        <v>payload</v>
+      </c>
+      <c r="D29" t="str">
+        <f>LoRa_Send_Header!D29</f>
+        <v>bufferHeadIndex</v>
+      </c>
+      <c r="E29">
+        <f>LoRa_Send_Header!E29</f>
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <f>LoRa_Send_Header!F29</f>
+        <v>0</v>
+      </c>
+      <c r="G29" t="str">
+        <f>LoRa_Send_Header!G29</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H29" t="str">
+        <f>LoRa_Send_Header!H29</f>
+        <v>LoRa_minDataRate</v>
+      </c>
+      <c r="I29" t="str">
+        <f>LoRa_Send_Header!I29</f>
+        <v>DR0</v>
+      </c>
+      <c r="J29">
+        <f>LoRa_Send_Header!J29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <f>LoRa_Reset!B30</f>
+        <v>0</v>
+      </c>
+      <c r="C30" t="str">
+        <f>LoRa_Send_Header!C30</f>
+        <v>power</v>
+      </c>
+      <c r="D30" t="str">
+        <f>LoRa_Send_Header!D30</f>
+        <v>txPower868[LoRa_txPower]</v>
+      </c>
+      <c r="E30">
+        <f>LoRa_Send_Header!E30</f>
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <f>LoRa_Send_Header!F30</f>
+        <v>0</v>
+      </c>
+      <c r="G30" t="str">
+        <f>LoRa_Send_Header!G30</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H30" t="str">
+        <f>LoRa_Send_Header!H30</f>
+        <v>LoRa_maxDataRate</v>
+      </c>
+      <c r="I30" t="str">
+        <f>LoRa_Send_Header!I30</f>
+        <v>DR7</v>
+      </c>
+      <c r="J30">
+        <f>LoRa_Send_Header!J30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <f>LoRa_Reset!B31</f>
+        <v>0</v>
+      </c>
+      <c r="C31" t="str">
+        <f>LoRa_Send_Header!C31</f>
+        <v>SpreadingFactor</v>
+      </c>
+      <c r="D31" t="str">
+        <f>LoRa_Send_Header!D31</f>
+        <v>spreadingFactor[dataRate]</v>
+      </c>
+      <c r="E31">
+        <f>LoRa_Send_Header!E31</f>
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <f>LoRa_Send_Header!F31</f>
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <f>LoRa_Send_Header!G31</f>
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <f>LoRa_Send_Header!H31</f>
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <f>LoRa_Send_Header!I31</f>
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <f>LoRa_Send_Header!J31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <f>LoRa_Reset!B32</f>
+        <v>0</v>
+      </c>
+      <c r="C32" t="str">
+        <f>LoRa_Send_Header!C32</f>
+        <v>Bandwidth</v>
+      </c>
+      <c r="D32" t="str">
+        <f>LoRa_Send_Header!D32</f>
+        <v>bandwidth[dataRate]</v>
+      </c>
+      <c r="E32">
+        <f>LoRa_Send_Header!E32</f>
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <f>LoRa_Send_Header!F32</f>
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <f>LoRa_Send_Header!G32</f>
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <f>LoRa_Send_Header!H32</f>
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <f>LoRa_Send_Header!I32</f>
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <f>LoRa_Send_Header!J32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <f>LoRa_Reset!B33</f>
+        <v>0</v>
+      </c>
+      <c r="C33" t="str">
+        <f>LoRa_Send_Header!C33</f>
+        <v>SyncWord</v>
+      </c>
+      <c r="D33" t="str">
+        <f>LoRa_Send_Header!D33</f>
+        <v>LoRa_syncWord</v>
+      </c>
+      <c r="E33">
+        <f>LoRa_Send_Header!E33</f>
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <f>LoRa_Send_Header!F33</f>
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <f>LoRa_Send_Header!G33</f>
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <f>LoRa_Send_Header!H33</f>
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <f>LoRa_Send_Header!I33</f>
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <f>LoRa_Send_Header!J33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <f>LoRa_Reset!B34</f>
+        <v>0</v>
+      </c>
+      <c r="C34" t="str">
+        <f>LoRa_Send_Header!C34</f>
+        <v>CRC</v>
+      </c>
+      <c r="D34" t="str">
+        <f>LoRa_Send_Header!D34</f>
+        <v>ENABLED</v>
+      </c>
+      <c r="E34">
+        <f>LoRa_Send_Header!E34</f>
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <f>LoRa_Send_Header!F34</f>
+        <v>0</v>
+      </c>
+      <c r="G34" t="str">
+        <f>LoRa_Send_Header!G34</f>
+        <v>uint32_t</v>
+      </c>
+      <c r="H34" t="str">
+        <f>LoRa_Send_Header!H34</f>
+        <v>frequency;</v>
+      </c>
+      <c r="I34" t="str">
+        <f>LoRa_Send_Header!I34</f>
+        <v>freq</v>
+      </c>
+      <c r="J34">
+        <f>LoRa_Send_Header!J34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <f>LoRa_Reset!B35</f>
+        <v>0</v>
+      </c>
+      <c r="C35" t="str">
+        <f>LoRa_Send_Header!C35</f>
+        <v>IQInverted</v>
+      </c>
+      <c r="D35" t="str">
+        <f>LoRa_Send_Header!D35</f>
+        <v>DISABLED</v>
+      </c>
+      <c r="E35">
+        <f>LoRa_Send_Header!E35</f>
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <f>LoRa_Send_Header!F35</f>
+        <v>0</v>
+      </c>
+      <c r="G35" t="str">
+        <f>LoRa_Send_Header!G35</f>
+        <v>uint32_t</v>
+      </c>
+      <c r="H35" t="str">
+        <f>LoRa_Send_Header!H35</f>
+        <v>frequencyDeviation;</v>
+      </c>
+      <c r="I35">
+        <f>LoRa_Send_Header!I35</f>
+        <v>25000</v>
+      </c>
+      <c r="J35">
+        <f>LoRa_Send_Header!J35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <f>LoRa_Reset!B36</f>
+        <v>0</v>
+      </c>
+      <c r="C36" t="str">
+        <f>LoRa_Send_Header!C36</f>
+        <v>HopPeriod</v>
+      </c>
+      <c r="D36" t="str">
+        <f>LoRa_Send_Header!D36</f>
+        <v>DISABLED</v>
+      </c>
+      <c r="E36">
+        <f>LoRa_Send_Header!E36</f>
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <f>LoRa_Send_Header!F36</f>
+        <v>0</v>
+      </c>
+      <c r="G36" t="str">
+        <f>LoRa_Send_Header!G36</f>
+        <v>uint32_t</v>
+      </c>
+      <c r="H36" t="str">
+        <f>LoRa_Send_Header!H36</f>
+        <v>bitRate;</v>
+      </c>
+      <c r="I36">
+        <f>LoRa_Send_Header!I36</f>
+        <v>50000</v>
+      </c>
+      <c r="J36">
+        <f>LoRa_Send_Header!J36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <f>LoRa_Reset!B37</f>
+        <v>0</v>
+      </c>
+      <c r="C37" t="str">
+        <f>LoRa_Send_Header!C37</f>
+        <v>errorCodingRate</v>
+      </c>
+      <c r="D37" t="str">
+        <f>LoRa_Send_Header!D37</f>
+        <v>CR_4_5</v>
+      </c>
+      <c r="E37">
+        <f>LoRa_Send_Header!E37</f>
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <f>LoRa_Send_Header!F37</f>
+        <v>0</v>
+      </c>
+      <c r="G37" t="str">
+        <f>LoRa_Send_Header!G37</f>
+        <v>uint16_t</v>
+      </c>
+      <c r="H37" t="str">
+        <f>LoRa_Send_Header!H37</f>
+        <v>preambleLen;</v>
+      </c>
+      <c r="I37">
+        <f>LoRa_Send_Header!I37</f>
+        <v>8</v>
+      </c>
+      <c r="J37">
+        <f>LoRa_Send_Header!J37</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <f>LoRa_Reset!B38</f>
+        <v>0</v>
+      </c>
+      <c r="C38" t="str">
+        <f>LoRa_Send_Header!C38</f>
+        <v>implicitHeaderMode</v>
+      </c>
+      <c r="D38" t="str">
+        <f>LoRa_Send_Header!D38</f>
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <f>LoRa_Send_Header!E38</f>
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <f>LoRa_Send_Header!F38</f>
+        <v>0</v>
+      </c>
+      <c r="G38" t="str">
+        <f>LoRa_Send_Header!G38</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H38" t="str">
+        <f>LoRa_Send_Header!H38</f>
+        <v>syncWordLoRa;</v>
+      </c>
+      <c r="I38" t="str">
+        <f>LoRa_Send_Header!I38</f>
+        <v>LoRa_syncWord</v>
+      </c>
+      <c r="J38">
+        <f>LoRa_Send_Header!J38</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <f>LoRa_Reset!B39</f>
+        <v>0</v>
+      </c>
+      <c r="C39" t="str">
+        <f>LoRa_Send_Header!C39</f>
+        <v>symbolTimeout</v>
+      </c>
+      <c r="D39">
+        <f>LoRa_Send_Header!D39</f>
+        <v>4</v>
+      </c>
+      <c r="E39">
+        <f>LoRa_Send_Header!E39</f>
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <f>LoRa_Send_Header!F39</f>
+        <v>0</v>
+      </c>
+      <c r="G39" t="str">
+        <f>LoRa_Send_Header!G39</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H39" t="str">
+        <f>LoRa_Send_Header!H39</f>
+        <v>syncWord[8];</v>
+      </c>
+      <c r="I39" t="str">
+        <f>LoRa_Send_Header!I39</f>
+        <v>0xc1 0x94 0xc1</v>
+      </c>
+      <c r="J39">
+        <f>LoRa_Send_Header!J39</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <f>LoRa_Reset!B40</f>
+        <v>0</v>
+      </c>
+      <c r="C40" t="str">
+        <f>LoRa_Send_Header!C40</f>
+        <v>FSKfreqDeviation</v>
+      </c>
+      <c r="D40">
+        <f>LoRa_Send_Header!D40</f>
+        <v>25000</v>
+      </c>
+      <c r="E40">
+        <f>LoRa_Send_Header!E40</f>
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <f>LoRa_Send_Header!F40</f>
+        <v>0</v>
+      </c>
+      <c r="G40" t="str">
+        <f>LoRa_Send_Header!G40</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H40" t="str">
+        <f>LoRa_Send_Header!H40</f>
+        <v>syncWordLen;</v>
+      </c>
+      <c r="I40">
+        <f>LoRa_Send_Header!I40</f>
+        <v>3</v>
+      </c>
+      <c r="J40">
+        <f>LoRa_Send_Header!J40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <f>LoRa_Reset!B41</f>
+        <v>0</v>
+      </c>
+      <c r="C41" t="str">
+        <f>LoRa_Send_Header!C41</f>
+        <v>FSKBitRate</v>
+      </c>
+      <c r="D41">
+        <f>LoRa_Send_Header!D41</f>
+        <v>50000</v>
+      </c>
+      <c r="E41">
+        <f>LoRa_Send_Header!E41</f>
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <f>LoRa_Send_Header!F41</f>
+        <v>0</v>
+      </c>
+      <c r="G41" t="str">
+        <f>LoRa_Send_Header!G41</f>
+        <v>RadioModulation_t</v>
+      </c>
+      <c r="H41" t="str">
+        <f>LoRa_Send_Header!H41</f>
+        <v>modulation;</v>
+      </c>
+      <c r="I41" t="str">
+        <f>LoRa_Send_Header!I41</f>
+        <v>modulation[dataRate]</v>
+      </c>
+      <c r="J41">
+        <f>LoRa_Send_Header!J41</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <f>LoRa_Reset!B42</f>
+        <v>0</v>
+      </c>
+      <c r="C42" t="str">
+        <f>LoRa_Send_Header!C42</f>
+        <v>FSK_PREAMBLE</v>
+      </c>
+      <c r="D42">
+        <f>LoRa_Send_Header!D42</f>
+        <v>8</v>
+      </c>
+      <c r="E42">
+        <f>LoRa_Send_Header!E42</f>
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <f>LoRa_Send_Header!F42</f>
+        <v>0</v>
+      </c>
+      <c r="G42" t="str">
+        <f>LoRa_Send_Header!G42</f>
+        <v>RadioDataRate_t</v>
+      </c>
+      <c r="H42" t="str">
+        <f>LoRa_Send_Header!H42</f>
+        <v>dataRate;</v>
+      </c>
+      <c r="I42" t="str">
+        <f>LoRa_Send_Header!I42</f>
+        <v>spreadingFactor[dataRate]</v>
+      </c>
+      <c r="J42">
+        <f>LoRa_Send_Header!J42</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <f>LoRa_Reset!B43</f>
+        <v>0</v>
+      </c>
+      <c r="C43" t="str">
+        <f>LoRa_Send_Header!C43</f>
+        <v>fskDataShaping</v>
+      </c>
+      <c r="D43" t="str">
+        <f>LoRa_Send_Header!D43</f>
+        <v>FSK_SHAPING_GAUSS_BT_0_5</v>
+      </c>
+      <c r="E43">
+        <f>LoRa_Send_Header!E43</f>
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <f>LoRa_Send_Header!F43</f>
+        <v>0</v>
+      </c>
+      <c r="G43" t="str">
+        <f>LoRa_Send_Header!G43</f>
+        <v>RadioLoRaBandWidth_t</v>
+      </c>
+      <c r="H43" t="str">
+        <f>LoRa_Send_Header!H43</f>
+        <v>bandWidth;</v>
+      </c>
+      <c r="I43" t="str">
+        <f>LoRa_Send_Header!I43</f>
+        <v>bandwidth[dataRate]</v>
+      </c>
+      <c r="J43">
+        <f>LoRa_Send_Header!J43</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <f>LoRa_Reset!B44</f>
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <f>LoRa_Send_Header!C44</f>
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <f>LoRa_Send_Header!D44</f>
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <f>LoRa_Send_Header!E44</f>
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <f>LoRa_Send_Header!F44</f>
+        <v>0</v>
+      </c>
+      <c r="G44" t="str">
+        <f>LoRa_Send_Header!G44</f>
+        <v>int8_t</v>
+      </c>
+      <c r="H44" t="str">
+        <f>LoRa_Send_Header!H44</f>
+        <v>outputPower;</v>
+      </c>
+      <c r="I44" t="str">
+        <f>LoRa_Send_Header!I44</f>
+        <v>txPower868[LoRa_txPower]</v>
+      </c>
+      <c r="J44">
+        <f>LoRa_Send_Header!J44</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <f>LoRa_Reset!B45</f>
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <f>LoRa_Send_Header!C45</f>
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <f>LoRa_Send_Header!D45</f>
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <f>LoRa_Send_Header!E45</f>
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <f>LoRa_Send_Header!F45</f>
+        <v>0</v>
+      </c>
+      <c r="G45" t="str">
+        <f>LoRa_Send_Header!G45</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H45" t="str">
+        <f>LoRa_Send_Header!H45</f>
+        <v>crcOn;</v>
+      </c>
+      <c r="I45" t="str">
+        <f>LoRa_Send_Header!I45</f>
+        <v>ENABLED</v>
+      </c>
+      <c r="J45">
+        <f>LoRa_Send_Header!J45</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <f>LoRa_Reset!B46</f>
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <f>LoRa_Send_Header!C46</f>
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <f>LoRa_Send_Header!D46</f>
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <f>LoRa_Send_Header!E46</f>
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <f>LoRa_Send_Header!F46</f>
+        <v>0</v>
+      </c>
+      <c r="G46" t="str">
+        <f>LoRa_Send_Header!G46</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H46" t="str">
+        <f>LoRa_Send_Header!H46</f>
+        <v>paBoost;</v>
+      </c>
+      <c r="I46" t="str">
+        <f>LoRa_Send_Header!I46</f>
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <f>LoRa_Send_Header!J46</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <f>LoRa_Reset!B47</f>
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <f>LoRa_Send_Header!C47</f>
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <f>LoRa_Send_Header!D47</f>
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <f>LoRa_Send_Header!E47</f>
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <f>LoRa_Send_Header!F47</f>
+        <v>0</v>
+      </c>
+      <c r="G47" t="str">
+        <f>LoRa_Send_Header!G47</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H47" t="str">
+        <f>LoRa_Send_Header!H47</f>
+        <v>flags</v>
+      </c>
+      <c r="I47" t="str">
+        <f>LoRa_Send_Header!I47</f>
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <f>LoRa_Send_Header!J47</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <f>LoRa_Reset!B48</f>
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <f>LoRa_Send_Header!C48</f>
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <f>LoRa_Send_Header!D48</f>
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <f>LoRa_Send_Header!E48</f>
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <f>LoRa_Send_Header!F48</f>
+        <v>0</v>
+      </c>
+      <c r="G48" t="str">
+        <f>LoRa_Send_Header!G48</f>
+        <v>uint16_t</v>
+      </c>
+      <c r="H48" t="str">
+        <f>LoRa_Send_Header!H48</f>
+        <v>frequencyHopPeriod;</v>
+      </c>
+      <c r="I48" t="str">
+        <f>LoRa_Send_Header!I48</f>
+        <v>DISABLED</v>
+      </c>
+      <c r="J48">
+        <f>LoRa_Send_Header!J48</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <f>LoRa_Reset!B49</f>
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <f>LoRa_Send_Header!C49</f>
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <f>LoRa_Send_Header!D49</f>
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <f>LoRa_Send_Header!E49</f>
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <f>LoRa_Send_Header!F49</f>
+        <v>0</v>
+      </c>
+      <c r="G49" t="str">
+        <f>LoRa_Send_Header!G49</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H49" t="str">
+        <f>LoRa_Send_Header!H49</f>
+        <v>iqInverted;</v>
+      </c>
+      <c r="I49" t="str">
+        <f>LoRa_Send_Header!I49</f>
+        <v>DISABLED</v>
+      </c>
+      <c r="J49">
+        <f>LoRa_Send_Header!J49</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <f>LoRa_Reset!B50</f>
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <f>LoRa_Send_Header!C50</f>
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <f>LoRa_Send_Header!D50</f>
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <f>LoRa_Send_Header!E50</f>
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <f>LoRa_Send_Header!F50</f>
+        <v>0</v>
+      </c>
+      <c r="G50" t="str">
+        <f>LoRa_Send_Header!G50</f>
+        <v>RadioErrorCodingRate_t</v>
+      </c>
+      <c r="H50" t="str">
+        <f>LoRa_Send_Header!H50</f>
+        <v>errorCodingRate;</v>
+      </c>
+      <c r="I50" t="str">
+        <f>LoRa_Send_Header!I50</f>
+        <v>CR_4_5</v>
+      </c>
+      <c r="J50">
+        <f>LoRa_Send_Header!J50</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <f>LoRa_Reset!B51</f>
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <f>LoRa_Send_Header!C51</f>
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <f>LoRa_Send_Header!D51</f>
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <f>LoRa_Send_Header!E51</f>
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <f>LoRa_Send_Header!F51</f>
+        <v>0</v>
+      </c>
+      <c r="G51" t="str">
+        <f>LoRa_Send_Header!G51</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H51" t="str">
+        <f>LoRa_Send_Header!H51</f>
+        <v>implicitHeaderMode;</v>
+      </c>
+      <c r="I51" t="str">
+        <f>LoRa_Send_Header!I51</f>
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <f>LoRa_Send_Header!J51</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <f>LoRa_Reset!B52</f>
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <f>LoRa_Send_Header!C52</f>
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <f>LoRa_Send_Header!D52</f>
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <f>LoRa_Send_Header!E52</f>
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <f>LoRa_Send_Header!F52</f>
+        <v>0</v>
+      </c>
+      <c r="G52" t="str">
+        <f>LoRa_Send_Header!G52</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H52" t="str">
+        <f>LoRa_Send_Header!H52</f>
+        <v>flags;</v>
+      </c>
+      <c r="I52" t="str">
+        <f>LoRa_Send_Header!I52</f>
+        <v>RADIO_FLAG_TRANSMITTING</v>
+      </c>
+      <c r="J52">
+        <f>LoRa_Send_Header!J52</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <f>LoRa_Reset!B53</f>
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <f>LoRa_Send_Header!C53</f>
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <f>LoRa_Send_Header!D53</f>
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <f>LoRa_Send_Header!E53</f>
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <f>LoRa_Send_Header!F53</f>
+        <v>0</v>
+      </c>
+      <c r="G53" t="str">
+        <f>LoRa_Send_Header!G53</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H53" t="str">
+        <f>LoRa_Send_Header!H53</f>
+        <v>dataBufferLen;</v>
+      </c>
+      <c r="I53" t="str">
+        <f>LoRa_Send_Header!I53</f>
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <f>LoRa_Send_Header!J53</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <f>LoRa_Reset!B54</f>
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <f>LoRa_Send_Header!C54</f>
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <f>LoRa_Send_Header!D54</f>
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <f>LoRa_Send_Header!E54</f>
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <f>LoRa_Send_Header!F54</f>
+        <v>0</v>
+      </c>
+      <c r="G54" t="str">
+        <f>LoRa_Send_Header!G54</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H54" t="str">
+        <f>LoRa_Send_Header!H54</f>
+        <v>*dataBuffer;</v>
+      </c>
+      <c r="I54" t="str">
+        <f>LoRa_Send_Header!I54</f>
+        <v>LoRa_radioBuffer</v>
+      </c>
+      <c r="J54">
+        <f>LoRa_Send_Header!J54</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <f>LoRa_Reset!B55</f>
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <f>LoRa_Send_Header!C55</f>
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <f>LoRa_Send_Header!D55</f>
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <f>LoRa_Send_Header!E55</f>
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <f>LoRa_Send_Header!F55</f>
+        <v>0</v>
+      </c>
+      <c r="G55" t="str">
+        <f>LoRa_Send_Header!G55</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H55" t="str">
+        <f>LoRa_Send_Header!H55</f>
+        <v>timeOnAirTimerId;</v>
+      </c>
+      <c r="I55" t="str">
+        <f>LoRa_Send_Header!I55</f>
+        <v>TIME_ON_AIR_LOAD_VALUE</v>
+      </c>
+      <c r="J55">
+        <f>LoRa_Send_Header!J55</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <f>LoRa_Reset!B56</f>
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <f>LoRa_Send_Header!C56</f>
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <f>LoRa_Send_Header!D56</f>
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <f>LoRa_Send_Header!E56</f>
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <f>LoRa_Send_Header!F56</f>
+        <v>0</v>
+      </c>
+      <c r="G56" t="str">
+        <f>LoRa_Send_Header!G56</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H56" t="str">
+        <f>LoRa_Send_Header!H56</f>
+        <v>fskRxWindowTimerId;</v>
+      </c>
+      <c r="I56" t="str">
+        <f>LoRa_Send_Header!I56</f>
+        <v>0</v>
+      </c>
+      <c r="J56" t="str">
+        <f>LoRa_Send_Header!J56</f>
+        <v>RADIO_RxFSKTimeout</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <f>LoRa_Reset!B57</f>
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <f>LoRa_Send_Header!C57</f>
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <f>LoRa_Send_Header!D57</f>
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <f>LoRa_Send_Header!E57</f>
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <f>LoRa_Send_Header!F57</f>
+        <v>0</v>
+      </c>
+      <c r="G57" t="str">
+        <f>LoRa_Send_Header!G57</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H57" t="str">
+        <f>LoRa_Send_Header!H57</f>
+        <v>watchdogTimerId;</v>
+      </c>
+      <c r="I57" t="str">
+        <f>LoRa_Send_Header!I57</f>
+        <v>0</v>
+      </c>
+      <c r="J57" t="str">
+        <f>LoRa_Send_Header!J57</f>
+        <v>RADIO_WatchdogTimeout</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <f>LoRa_Reset!B58</f>
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <f>LoRa_Send_Header!C58</f>
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <f>LoRa_Send_Header!D58</f>
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <f>LoRa_Send_Header!E58</f>
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <f>LoRa_Send_Header!F58</f>
+        <v>0</v>
+      </c>
+      <c r="G58" t="str">
+        <f>LoRa_Send_Header!G58</f>
+        <v>uint32_t</v>
+      </c>
+      <c r="H58" t="str">
+        <f>LoRa_Send_Header!H58</f>
+        <v>watchdogTimerTimeout;</v>
+      </c>
+      <c r="I58" t="str">
+        <f>LoRa_Send_Header!I58</f>
+        <v>watchdogTimerTimeout</v>
+      </c>
+      <c r="J58">
+        <f>LoRa_Send_Header!J58</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <f>LoRa_Reset!B59</f>
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <f>LoRa_Send_Header!C59</f>
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <f>LoRa_Send_Header!D59</f>
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <f>LoRa_Send_Header!E59</f>
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <f>LoRa_Send_Header!F59</f>
+        <v>0</v>
+      </c>
+      <c r="G59" t="str">
+        <f>LoRa_Send_Header!G59</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H59" t="str">
+        <f>LoRa_Send_Header!H59</f>
+        <v>initialized;</v>
+      </c>
+      <c r="I59">
+        <f>LoRa_Send_Header!I59</f>
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <f>LoRa_Send_Header!J59</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <f>LoRa_Reset!B60</f>
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <f>LoRa_Send_Header!C60</f>
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <f>LoRa_Send_Header!D60</f>
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <f>LoRa_Send_Header!E60</f>
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <f>LoRa_Send_Header!F60</f>
+        <v>0</v>
+      </c>
+      <c r="G60" t="str">
+        <f>LoRa_Send_Header!G60</f>
+        <v>uint32_t</v>
+      </c>
+      <c r="H60" t="str">
+        <f>LoRa_Send_Header!H60</f>
+        <v>(*fhssNextFrequency)(void);</v>
+      </c>
+      <c r="I60" t="str">
+        <f>LoRa_Send_Header!I60</f>
+        <v>NULL</v>
+      </c>
+      <c r="J60">
+        <f>LoRa_Send_Header!J60</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <f>LoRa_Reset!B61</f>
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <f>LoRa_Send_Header!C61</f>
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <f>LoRa_Send_Header!D61</f>
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <f>LoRa_Send_Header!E61</f>
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <f>LoRa_Send_Header!F61</f>
+        <v>0</v>
+      </c>
+      <c r="G61" t="str">
+        <f>LoRa_Send_Header!G61</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H61" t="str">
+        <f>LoRa_Send_Header!H61</f>
+        <v>regVersion;</v>
+      </c>
+      <c r="I61" t="str">
+        <f>LoRa_Send_Header!I61</f>
+        <v>RADIO(REG_VERSION)</v>
+      </c>
+      <c r="J61">
+        <f>LoRa_Send_Header!J61</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <f>LoRa_Reset!B62</f>
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <f>LoRa_Send_Header!C62</f>
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <f>LoRa_Send_Header!D62</f>
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <f>LoRa_Send_Header!E62</f>
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <f>LoRa_Send_Header!F62</f>
+        <v>0</v>
+      </c>
+      <c r="G62" t="str">
+        <f>LoRa_Send_Header!G62</f>
+        <v>int8_t</v>
+      </c>
+      <c r="H62" t="str">
+        <f>LoRa_Send_Header!H62</f>
+        <v>packetSNR;</v>
+      </c>
+      <c r="I62">
+        <f>LoRa_Send_Header!I62</f>
+        <v>-128</v>
+      </c>
+      <c r="J62">
+        <f>LoRa_Send_Header!J62</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <f>LoRa_Reset!B63</f>
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <f>LoRa_Send_Header!C63</f>
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <f>LoRa_Send_Header!D63</f>
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <f>LoRa_Send_Header!E63</f>
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <f>LoRa_Send_Header!F63</f>
+        <v>0</v>
+      </c>
+      <c r="G63" t="str">
+        <f>LoRa_Send_Header!G63</f>
+        <v>RadioFSKShaping_t</v>
+      </c>
+      <c r="H63" t="str">
+        <f>LoRa_Send_Header!H63</f>
+        <v>fskDataShaping;</v>
+      </c>
+      <c r="I63" t="str">
+        <f>LoRa_Send_Header!I63</f>
+        <v>FSK_SHAPING_GAUSS_BT_0_5</v>
+      </c>
+      <c r="J63">
+        <f>LoRa_Send_Header!J63</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <f>LoRa_Reset!B64</f>
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <f>LoRa_Send_Header!C64</f>
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <f>LoRa_Send_Header!D64</f>
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <f>LoRa_Send_Header!E64</f>
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <f>LoRa_Send_Header!F64</f>
+        <v>0</v>
+      </c>
+      <c r="G64" t="str">
+        <f>LoRa_Send_Header!G64</f>
+        <v>RadioFSKBandWidth_t</v>
+      </c>
+      <c r="H64" t="str">
+        <f>LoRa_Send_Header!H64</f>
+        <v>rxBw;</v>
+      </c>
+      <c r="I64" t="str">
+        <f>LoRa_Send_Header!I64</f>
+        <v>FSKBW_50_0KHZ</v>
+      </c>
+      <c r="J64">
+        <f>LoRa_Send_Header!J64</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <f>LoRa_Reset!B65</f>
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <f>LoRa_Send_Header!C65</f>
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <f>LoRa_Send_Header!D65</f>
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <f>LoRa_Send_Header!E65</f>
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <f>LoRa_Send_Header!F65</f>
+        <v>0</v>
+      </c>
+      <c r="G65" t="str">
+        <f>LoRa_Send_Header!G65</f>
+        <v>RadioFSKBandWidth_t</v>
+      </c>
+      <c r="H65" t="str">
+        <f>LoRa_Send_Header!H65</f>
+        <v>afcBw;</v>
+      </c>
+      <c r="I65" t="str">
+        <f>LoRa_Send_Header!I65</f>
+        <v>FSKBW_83_3KHZ</v>
+      </c>
+      <c r="J65">
+        <f>LoRa_Send_Header!J65</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <f>LoRa_Reset!B66</f>
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <f>LoRa_Send_Header!C66</f>
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <f>LoRa_Send_Header!D66</f>
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <f>LoRa_Send_Header!E66</f>
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <f>LoRa_Send_Header!F66</f>
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <f>LoRa_Send_Header!G66</f>
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <f>LoRa_Send_Header!H66</f>
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <f>LoRa_Send_Header!I66</f>
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <f>LoRa_Send_Header!J66</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <f>LoRa_Reset!B67</f>
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <f>LoRa_Send_Header!C67</f>
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <f>LoRa_Send_Header!D67</f>
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <f>LoRa_Send_Header!E67</f>
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <f>LoRa_Send_Header!F67</f>
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <f>LoRa_Send_Header!G67</f>
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <f>LoRa_Send_Header!H67</f>
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <f>LoRa_Send_Header!I67</f>
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <f>LoRa_Send_Header!J67</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <f>LoRa_Reset!B68</f>
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <f>LoRa_Send_Header!C68</f>
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <f>LoRa_Send_Header!D68</f>
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <f>LoRa_Send_Header!E68</f>
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <f>LoRa_Send_Header!F68</f>
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <f>LoRa_Send_Header!G68</f>
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <f>LoRa_Send_Header!H68</f>
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <f>LoRa_Send_Header!I68</f>
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <f>LoRa_Send_Header!J68</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <f>LoRa_Reset!B69</f>
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <f>LoRa_Send_Header!C69</f>
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <f>LoRa_Send_Header!D69</f>
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <f>LoRa_Send_Header!E69</f>
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <f>LoRa_Send_Header!F69</f>
+        <v>0</v>
+      </c>
+      <c r="G69" t="str">
+        <f>LoRa_Send_Header!G69</f>
+        <v>ChannelParams_t</v>
+      </c>
+      <c r="H69" t="str">
+        <f>LoRa_Send_Header!H69</f>
+        <v>Channels</v>
+      </c>
+      <c r="I69" t="str">
+        <f>LoRa_Send_Header!I69</f>
+        <v>DefaultChannels868</v>
+      </c>
+      <c r="J69">
+        <f>LoRa_Send_Header!J69</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B70">
+        <f>LoRa_Reset!B70</f>
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <f>LoRa_Send_Header!C70</f>
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <f>LoRa_Send_Header!D70</f>
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <f>LoRa_Send_Header!E70</f>
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <f>LoRa_Send_Header!F70</f>
+        <v>0</v>
+      </c>
+      <c r="G70" t="str">
+        <f>LoRa_Send_Header!G70</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H70" t="str">
+        <f>LoRa_Send_Header!H70</f>
+        <v>maxPayloadSize[]</v>
+      </c>
+      <c r="I70" t="str">
+        <f>LoRa_Send_Header!I70</f>
+        <v>MAX_EU_SINGLE_BAND_CHANNELS</v>
+      </c>
+      <c r="J70">
+        <f>LoRa_Send_Header!J70</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <f>LoRa_Reset!B71</f>
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <f>LoRa_Send_Header!C71</f>
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <f>LoRa_Send_Header!D71</f>
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <f>LoRa_Send_Header!E71</f>
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <f>LoRa_Send_Header!F71</f>
+        <v>0</v>
+      </c>
+      <c r="G71" t="str">
+        <f>LoRa_Send_Header!G71</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H71" t="str">
+        <f>LoRa_Send_Header!H71</f>
+        <v>modulation[]</v>
+      </c>
+      <c r="I71">
+        <f>LoRa_Send_Header!I71</f>
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <f>LoRa_Send_Header!J71</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <f>LoRa_Reset!B72</f>
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <f>LoRa_Send_Header!C72</f>
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <f>LoRa_Send_Header!D72</f>
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <f>LoRa_Send_Header!E72</f>
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <f>LoRa_Send_Header!F72</f>
+        <v>0</v>
+      </c>
+      <c r="G72" t="str">
+        <f>LoRa_Send_Header!G72</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H72" t="str">
+        <f>LoRa_Send_Header!H72</f>
+        <v>spreadingFactor[]</v>
+      </c>
+      <c r="I72">
+        <f>LoRa_Send_Header!I72</f>
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <f>LoRa_Send_Header!J72</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B73">
+        <f>LoRa_Reset!B73</f>
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <f>LoRa_Send_Header!C73</f>
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <f>LoRa_Send_Header!D73</f>
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <f>LoRa_Send_Header!E73</f>
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <f>LoRa_Send_Header!F73</f>
+        <v>0</v>
+      </c>
+      <c r="G73" t="str">
+        <f>LoRa_Send_Header!G73</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H73" t="str">
+        <f>LoRa_Send_Header!H73</f>
+        <v>bandwidth[]</v>
+      </c>
+      <c r="I73">
+        <f>LoRa_Send_Header!I73</f>
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <f>LoRa_Send_Header!J73</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <f>LoRa_Reset!B74</f>
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <f>LoRa_Send_Header!C74</f>
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <f>LoRa_Send_Header!D74</f>
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <f>LoRa_Send_Header!E74</f>
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <f>LoRa_Send_Header!F74</f>
+        <v>0</v>
+      </c>
+      <c r="G74" t="str">
+        <f>LoRa_Send_Header!G74</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H74" t="str">
+        <f>LoRa_Send_Header!H74</f>
+        <v>txPower868[]</v>
+      </c>
+      <c r="I74">
+        <f>LoRa_Send_Header!I74</f>
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <f>LoRa_Send_Header!J74</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B75">
+        <f>LoRa_Reset!B75</f>
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <f>LoRa_Send_Header!C75</f>
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <f>LoRa_Send_Header!D75</f>
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <f>LoRa_Send_Header!E75</f>
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <f>LoRa_Send_Header!F75</f>
+        <v>0</v>
+      </c>
+      <c r="G75" t="str">
+        <f>LoRa_Send_Header!G75</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H75" t="str">
+        <f>LoRa_Send_Header!H75</f>
+        <v>LoRa_radioBuffer[]</v>
+      </c>
+      <c r="I75" t="str">
+        <f>LoRa_Send_Header!I75</f>
+        <v>MAXIMUM_BUFFER_LENGTH</v>
+      </c>
+      <c r="J75">
+        <f>LoRa_Send_Header!J75</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B76">
+        <f>LoRa_Reset!B76</f>
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <f>LoRa_Send_Header!C76</f>
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <f>LoRa_Send_Header!D76</f>
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <f>LoRa_Send_Header!E76</f>
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <f>LoRa_Send_Header!F76</f>
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <f>LoRa_Send_Header!G76</f>
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <f>LoRa_Send_Header!H76</f>
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <f>LoRa_Send_Header!I76</f>
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <f>LoRa_Send_Header!J76</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B77">
+        <f>LoRa_Reset!B77</f>
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <f>LoRa_Send_Header!C77</f>
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <f>LoRa_Send_Header!D77</f>
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <f>LoRa_Send_Header!E77</f>
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <f>LoRa_Send_Header!F77</f>
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <f>LoRa_Send_Header!G77</f>
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <f>LoRa_Send_Header!H77</f>
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <f>LoRa_Send_Header!I77</f>
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <f>LoRa_Send_Header!J77</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B78">
+        <f>LoRa_Reset!B78</f>
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <f>LoRa_Send_Header!C78</f>
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <f>LoRa_Send_Header!D78</f>
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <f>LoRa_Send_Header!E78</f>
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <f>LoRa_Send_Header!F78</f>
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <f>LoRa_Send_Header!G78</f>
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <f>LoRa_Send_Header!H78</f>
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <f>LoRa_Send_Header!I78</f>
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <f>LoRa_Send_Header!J78</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D79"/>
+      <c r="E79"/>
+      <c r="I79"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Lora 2019v2.xlsx
+++ b/Lora 2019v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\elektr_2019\LoRa_2019\LoRa_2019.X\Lora2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E8500BA-CCFC-48AE-B203-F3D2CAA34031}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF505129-2713-424D-A578-613007537E15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="47656" yWindow="4347" windowWidth="21084" windowHeight="13925" firstSheet="9" activeTab="12" xr2:uid="{CF74FFB2-BF4B-47C5-93C8-DE55957A940B}"/>
   </bookViews>

--- a/Lora 2019v2.xlsx
+++ b/Lora 2019v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\elektr_2019\LoRa_2019\LoRa_2019.X\Lora2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF505129-2713-424D-A578-613007537E15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{489839AE-38A4-4D51-B87A-EC4E7DBF2F1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47656" yWindow="4347" windowWidth="21084" windowHeight="13925" firstSheet="9" activeTab="12" xr2:uid="{CF74FFB2-BF4B-47C5-93C8-DE55957A940B}"/>
+    <workbookView xWindow="47656" yWindow="4347" windowWidth="21084" windowHeight="13925" firstSheet="2" activeTab="6" xr2:uid="{CF74FFB2-BF4B-47C5-93C8-DE55957A940B}"/>
   </bookViews>
   <sheets>
     <sheet name="function" sheetId="9" r:id="rId1"/>
@@ -19,17 +19,18 @@
     <sheet name="LoRa_Send" sheetId="24" r:id="rId4"/>
     <sheet name="LoRa_Send_Header" sheetId="25" r:id="rId5"/>
     <sheet name="LoRa_TimerHandshaking_HTX" sheetId="35" r:id="rId6"/>
-    <sheet name="LoRa_TxDone" sheetId="26" r:id="rId7"/>
-    <sheet name="LoRa_TimerHandshaking_HRX" sheetId="36" r:id="rId8"/>
-    <sheet name="RADIO_RxDone" sheetId="28" r:id="rId9"/>
-    <sheet name="LoRa_RxDone_OK" sheetId="29" r:id="rId10"/>
-    <sheet name="LoRa_TimerHandshaking_HRX_OK" sheetId="37" r:id="rId11"/>
-    <sheet name="LoRa_RxDone_Fail" sheetId="30" r:id="rId12"/>
-    <sheet name="LoRa_TimerHandshaking_HRX_fail" sheetId="38" r:id="rId13"/>
-    <sheet name="LoRa_TxDone_DATA" sheetId="31" r:id="rId14"/>
-    <sheet name="RADIO_RxDone_DATA" sheetId="32" r:id="rId15"/>
-    <sheet name="RADIO_RxDone_DATA_OK" sheetId="33" r:id="rId16"/>
-    <sheet name="RADIO_RxDone_DATA_Fail" sheetId="34" r:id="rId17"/>
+    <sheet name="LoRa_TimerRetransmitCallback" sheetId="39" r:id="rId7"/>
+    <sheet name="LoRa_TxDone" sheetId="26" r:id="rId8"/>
+    <sheet name="LoRa_TimerHandshaking_HRX" sheetId="36" r:id="rId9"/>
+    <sheet name="RADIO_RxDone" sheetId="28" r:id="rId10"/>
+    <sheet name="LoRa_RxDone_OK" sheetId="29" r:id="rId11"/>
+    <sheet name="LoRa_TimerHandshaking_HRX_OK" sheetId="37" r:id="rId12"/>
+    <sheet name="LoRa_RxDone_Fail" sheetId="30" r:id="rId13"/>
+    <sheet name="LoRa_TimerHandshaking_HRX_fail" sheetId="38" r:id="rId14"/>
+    <sheet name="LoRa_TxDone_DATA" sheetId="31" r:id="rId15"/>
+    <sheet name="RADIO_RxDone_DATA" sheetId="32" r:id="rId16"/>
+    <sheet name="RADIO_RxDone_DATA_OK" sheetId="33" r:id="rId17"/>
+    <sheet name="RADIO_RxDone_DATA_Fail" sheetId="34" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="226">
   <si>
     <t>RADIO_Transmit</t>
   </si>
@@ -725,6 +726,9 @@
   <si>
     <t>LoRa_Retransmit_timeout</t>
   </si>
+  <si>
+    <t>LoRa_Send_Header();</t>
+  </si>
 </sst>
 </file>
 
@@ -2003,6 +2007,2717 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89F31521-E8A8-4E11-8C69-3DA81310C770}">
+  <dimension ref="B1:J79"/>
+  <sheetViews>
+    <sheetView showZeros="0" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.25" customWidth="1"/>
+    <col min="3" max="3" width="44.875" customWidth="1"/>
+    <col min="4" max="5" width="24.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="5.75" customWidth="1"/>
+    <col min="7" max="7" width="27" customWidth="1"/>
+    <col min="8" max="8" width="27.5" customWidth="1"/>
+    <col min="9" max="9" width="31.875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="28.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <f>LoRa_Reset!B3</f>
+        <v>0</v>
+      </c>
+      <c r="C3" t="str">
+        <f>LoRa_TxDone!C3</f>
+        <v>LoRa_transmitStatus</v>
+      </c>
+      <c r="D3" s="2" t="str">
+        <f>LoRa_TxDone!D3</f>
+        <v>LoRa_Handshaking_RX</v>
+      </c>
+      <c r="E3">
+        <f>LoRa_TxDone!E3</f>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f>LoRa_TxDone!F3</f>
+        <v>0</v>
+      </c>
+      <c r="G3" t="str">
+        <f>LoRa_TxDone!G3</f>
+        <v>LoRaMacState_t</v>
+      </c>
+      <c r="H3" t="str">
+        <f>LoRa_TxDone!H3</f>
+        <v>LoRa_transmitStatus</v>
+      </c>
+      <c r="I3" s="2" t="str">
+        <f>LoRa_TxDone!I3</f>
+        <v>LoRa_Idle</v>
+      </c>
+      <c r="J3">
+        <f>LoRa_TxDone!J3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <f>LoRa_Reset!B4</f>
+        <v>0</v>
+      </c>
+      <c r="C4" t="str">
+        <f>LoRa_TxDone!C4</f>
+        <v>LoRa_StatusDanych</v>
+      </c>
+      <c r="D4" s="2" t="str">
+        <f>LoRa_TxDone!D4</f>
+        <v>LoRa_transmiting</v>
+      </c>
+      <c r="E4">
+        <f>LoRa_TxDone!E4</f>
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f>LoRa_TxDone!F4</f>
+        <v>0</v>
+      </c>
+      <c r="G4" t="str">
+        <f>LoRa_TxDone!G4</f>
+        <v>LoRaStatus_t</v>
+      </c>
+      <c r="H4" t="str">
+        <f>LoRa_TxDone!H4</f>
+        <v>LoRa_StatusDanych</v>
+      </c>
+      <c r="I4" s="2" t="str">
+        <f>LoRa_TxDone!I4</f>
+        <v>LoRa_transmitIdle</v>
+      </c>
+      <c r="J4">
+        <f>LoRa_TxDone!J4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <f>LoRa_Reset!B5</f>
+        <v>0</v>
+      </c>
+      <c r="C5" t="str">
+        <f>LoRa_TxDone!C5</f>
+        <v>flags</v>
+      </c>
+      <c r="D5" s="2" t="str">
+        <f>I47</f>
+        <v>0</v>
+      </c>
+      <c r="E5"/>
+      <c r="F5">
+        <f>LoRa_TxDone!F5</f>
+        <v>0</v>
+      </c>
+      <c r="G5" t="str">
+        <f>LoRa_TxDone!G5</f>
+        <v>bool</v>
+      </c>
+      <c r="H5" t="str">
+        <f>LoRa_TxDone!H5</f>
+        <v>LoRa_initialised</v>
+      </c>
+      <c r="I5" s="2" t="str">
+        <f>LoRa_TxDone!I5</f>
+        <v>ENABLED</v>
+      </c>
+      <c r="J5">
+        <f>LoRa_TxDone!J5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <f>LoRa_Reset!B6</f>
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <f>LoRa_TxDone!C6</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <f>LoRa_TxDone!D6</f>
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <f>J47</f>
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <f>LoRa_TxDone!F6</f>
+        <v>0</v>
+      </c>
+      <c r="G6" t="str">
+        <f>LoRa_TxDone!G6</f>
+        <v>FCnt_t</v>
+      </c>
+      <c r="H6" t="str">
+        <f>LoRa_TxDone!H6</f>
+        <v>LoRa_Counnter</v>
+      </c>
+      <c r="I6" s="2" t="str">
+        <f>LoRa_TxDone!I6</f>
+        <v>++</v>
+      </c>
+      <c r="J6">
+        <f>LoRa_TxDone!J6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <f>LoRa_Reset!B7</f>
+        <v>0</v>
+      </c>
+      <c r="C7" s="34"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="20"/>
+      <c r="G7" t="str">
+        <f>LoRa_TxDone!G7</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H7" t="str">
+        <f>LoRa_TxDone!H7</f>
+        <v>LoRa_Addres</v>
+      </c>
+      <c r="I7" s="2" t="str">
+        <f>LoRa_TxDone!I7</f>
+        <v>LoRaDeviceAddress</v>
+      </c>
+      <c r="J7">
+        <f>LoRa_TxDone!J7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <f>LoRa_Reset!B8</f>
+        <v>0</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="G8" t="str">
+        <f>LoRa_TxDone!G8</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H8" t="str">
+        <f>LoRa_TxDone!H8</f>
+        <v>LoRa_TimerHandshaking</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="J8" t="str">
+        <f>LoRa_TxDone!J8</f>
+        <v>LoRa_TimerHandshakingCallback</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="21"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="23"/>
+      <c r="G9" t="str">
+        <f>LoRa_TxDone!G9</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H9" t="str">
+        <f>LoRa_TxDone!H9</f>
+        <v>LoRa_TimerRetransmit</v>
+      </c>
+      <c r="I9" s="2" t="str">
+        <f>LoRa_TxDone!I9</f>
+        <v>0</v>
+      </c>
+      <c r="J9" t="str">
+        <f>LoRa_TxDone!J9</f>
+        <v>LoRa_TimerRetransmitCallback</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <f>LoRa_Reset!B10</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="21"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="23"/>
+      <c r="G10" t="str">
+        <f>LoRa_TxDone!G10</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H10" t="str">
+        <f>LoRa_TxDone!H10</f>
+        <v>LoRa_TimerWaitAck</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="J10" t="str">
+        <f>LoRa_TxDone!J10</f>
+        <v>LoRa_TimerWaitAckCallback</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <f>LoRa_Reset!B11</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="21"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="23"/>
+      <c r="G11" t="str">
+        <f>LoRa_TxDone!G11</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H11" t="str">
+        <f>LoRa_TxDone!H11</f>
+        <v>LoRa_HeaderBufor</v>
+      </c>
+      <c r="I11" s="2" t="str">
+        <f>LoRa_TxDone!I11</f>
+        <v>LoRa_Addres, nxt_channel</v>
+      </c>
+      <c r="J11">
+        <f>LoRa_TxDone!J11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <f>LoRa_Reset!B12</f>
+        <v>0</v>
+      </c>
+      <c r="C12" s="21"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="23"/>
+      <c r="G12" t="str">
+        <f>LoRa_TxDone!G12</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H12" t="str">
+        <f>LoRa_TxDone!H12</f>
+        <v>LoRa_HeaderLength</v>
+      </c>
+      <c r="I12" s="2" t="str">
+        <f>LoRa_TxDone!I12</f>
+        <v>bufferHeadIndex</v>
+      </c>
+      <c r="J12">
+        <f>LoRa_TxDone!J12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <f>LoRa_Reset!B13</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="21"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="23"/>
+      <c r="G13" t="str">
+        <f>LoRa_TxDone!G13</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H13" t="str">
+        <f>LoRa_TxDone!H13</f>
+        <v>LoRa_Bufor</v>
+      </c>
+      <c r="I13" s="2" t="str">
+        <f>LoRa_TxDone!I13</f>
+        <v>bufferIndex, nxt_channel, data, CRC</v>
+      </c>
+      <c r="J13">
+        <f>LoRa_TxDone!J13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <f>LoRa_Reset!B14</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="21"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="23"/>
+      <c r="G14" t="str">
+        <f>LoRa_TxDone!G14</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H14" t="str">
+        <f>LoRa_TxDone!H14</f>
+        <v>LoRa_BuforLength</v>
+      </c>
+      <c r="I14" s="2" t="str">
+        <f>LoRa_TxDone!I14</f>
+        <v>bufferIndex</v>
+      </c>
+      <c r="J14">
+        <f>LoRa_TxDone!J14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <f>LoRa_Reset!B15</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="21"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="23"/>
+      <c r="G15" t="str">
+        <f>LoRa_TxDone!G15</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H15" t="str">
+        <f>LoRa_TxDone!H15</f>
+        <v>LoRa_Command</v>
+      </c>
+      <c r="I15" s="2">
+        <f>LoRa_TxDone!I15</f>
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <f>LoRa_TxDone!J15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <f>LoRa_Reset!B16</f>
+        <v>0</v>
+      </c>
+      <c r="C16" s="21"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="23"/>
+      <c r="G16" t="str">
+        <f>LoRa_TxDone!G16</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H16" t="str">
+        <f>LoRa_TxDone!H16</f>
+        <v>LoRa_maxChannels</v>
+      </c>
+      <c r="I16" s="2" t="str">
+        <f>LoRa_TxDone!I16</f>
+        <v>MAX_EU_SINGLE_BAND_CHANNELS</v>
+      </c>
+      <c r="J16">
+        <f>LoRa_TxDone!J16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <f>LoRa_Reset!B17</f>
+        <v>0</v>
+      </c>
+      <c r="C17" s="21"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="23"/>
+      <c r="G17" t="str">
+        <f>LoRa_TxDone!G17</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H17" t="str">
+        <f>LoRa_TxDone!H17</f>
+        <v>LoRa_lastUsedChannelIndex</v>
+      </c>
+      <c r="I17" s="2" t="str">
+        <f>LoRa_TxDone!I17</f>
+        <v>CH_nr</v>
+      </c>
+      <c r="J17">
+        <f>LoRa_TxDone!J17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <f>LoRa_Reset!B18</f>
+        <v>0</v>
+      </c>
+      <c r="C18" s="21"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="23"/>
+      <c r="G18" t="str">
+        <f>LoRa_TxDone!G18</f>
+        <v>ReceiveWindowParameters_t</v>
+      </c>
+      <c r="H18" t="str">
+        <f>LoRa_TxDone!H18</f>
+        <v>LoRa_ch0_params.frequency</v>
+      </c>
+      <c r="I18" s="2" t="str">
+        <f>LoRa_TxDone!I18</f>
+        <v>LoRa_CH0_frequency</v>
+      </c>
+      <c r="J18">
+        <f>LoRa_TxDone!J18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <f>LoRa_Reset!B19</f>
+        <v>0</v>
+      </c>
+      <c r="C19" s="21"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="23"/>
+      <c r="G19">
+        <f>LoRa_TxDone!G19</f>
+        <v>0</v>
+      </c>
+      <c r="H19" t="str">
+        <f>LoRa_TxDone!H19</f>
+        <v>LoRa_ch0_params.datarate</v>
+      </c>
+      <c r="I19" s="2" t="str">
+        <f>LoRa_TxDone!I19</f>
+        <v>LoRa_CH0_datarate</v>
+      </c>
+      <c r="J19">
+        <f>LoRa_TxDone!J19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <f>LoRa_Reset!B20</f>
+        <v>0</v>
+      </c>
+      <c r="C20" s="21"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="23"/>
+      <c r="G20" t="str">
+        <f>LoRa_TxDone!G20</f>
+        <v>ReceiveWindowParameters_t</v>
+      </c>
+      <c r="H20" t="str">
+        <f>LoRa_TxDone!H20</f>
+        <v>LoRa_receiveChannelParameters.frequency</v>
+      </c>
+      <c r="I20" s="2" t="str">
+        <f>LoRa_TxDone!I20</f>
+        <v>Channels[CH_nr].frequency</v>
+      </c>
+      <c r="J20">
+        <f>LoRa_TxDone!J20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <f>LoRa_Reset!B21</f>
+        <v>0</v>
+      </c>
+      <c r="C21" s="21"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="23"/>
+      <c r="G21">
+        <f>LoRa_TxDone!G21</f>
+        <v>0</v>
+      </c>
+      <c r="H21" t="str">
+        <f>LoRa_TxDone!H21</f>
+        <v>LoRa_receiveChannelParameters.dataRate</v>
+      </c>
+      <c r="I21" s="2" t="str">
+        <f>LoRa_TxDone!I21</f>
+        <v>LoRa_currentDataRate</v>
+      </c>
+      <c r="J21">
+        <f>LoRa_TxDone!J21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <f>LoRa_Reset!B22</f>
+        <v>0</v>
+      </c>
+      <c r="C22" s="39" t="s">
+        <v>207</v>
+      </c>
+      <c r="D22" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="23"/>
+      <c r="G22" t="str">
+        <f>LoRa_TxDone!G22</f>
+        <v>ReceiveWindowParameters_t</v>
+      </c>
+      <c r="H22" t="str">
+        <f>LoRa_TxDone!H22</f>
+        <v>LoRa_sendChannelParameters.frequency</v>
+      </c>
+      <c r="I22" s="2" t="str">
+        <f>LoRa_TxDone!I22</f>
+        <v>Channels[CH_nr].frequency</v>
+      </c>
+      <c r="J22">
+        <f>LoRa_TxDone!J22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <f>LoRa_Reset!B23</f>
+        <v>0</v>
+      </c>
+      <c r="C23" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="D23" s="31">
+        <f>J47</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="22"/>
+      <c r="F23" s="23"/>
+      <c r="G23">
+        <f>LoRa_TxDone!G23</f>
+        <v>0</v>
+      </c>
+      <c r="H23" t="str">
+        <f>LoRa_TxDone!H23</f>
+        <v>LoRa_sendChannelParameters.dataRate</v>
+      </c>
+      <c r="I23" s="2" t="str">
+        <f>LoRa_TxDone!I23</f>
+        <v>LoRa_currentDataRate</v>
+      </c>
+      <c r="J23">
+        <f>LoRa_TxDone!J23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <f>LoRa_Reset!B24</f>
+        <v>0</v>
+      </c>
+      <c r="C24" s="26"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="28"/>
+      <c r="G24" t="str">
+        <f>LoRa_TxDone!G24</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H24" t="str">
+        <f>LoRa_TxDone!H24</f>
+        <v>LoRa_txPower</v>
+      </c>
+      <c r="I24" s="2">
+        <f>LoRa_TxDone!I24</f>
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <f>LoRa_TxDone!J24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <f>LoRa_Reset!B25</f>
+        <v>0</v>
+      </c>
+      <c r="C25" t="str">
+        <f>LoRa_TxDone!C25</f>
+        <v>DATA</v>
+      </c>
+      <c r="D25" s="2" t="str">
+        <f>LoRa_TxDone!D25</f>
+        <v>LoRa_HeaderBufor</v>
+      </c>
+      <c r="E25">
+        <f>LoRa_TxDone!E25</f>
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <f>LoRa_TxDone!F25</f>
+        <v>0</v>
+      </c>
+      <c r="G25" t="str">
+        <f>LoRa_TxDone!G25</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H25" t="str">
+        <f>LoRa_TxDone!H25</f>
+        <v>LoRa_syncWord</v>
+      </c>
+      <c r="I25" s="2" t="str">
+        <f>LoRa_TxDone!I25</f>
+        <v>0x34</v>
+      </c>
+      <c r="J25">
+        <f>LoRa_TxDone!J25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" t="str">
+        <f>LoRa_Reset!B26</f>
+        <v>RADIO</v>
+      </c>
+      <c r="C26" t="str">
+        <f>LoRa_TxDone!C26</f>
+        <v>mode</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="E26">
+        <f>LoRa_TxDone!E26</f>
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <f>LoRa_TxDone!F26</f>
+        <v>0</v>
+      </c>
+      <c r="G26" t="str">
+        <f>LoRa_TxDone!G26</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H26" t="str">
+        <f>LoRa_TxDone!H26</f>
+        <v>LoRa_batteryLevel</v>
+      </c>
+      <c r="I26" s="2" t="str">
+        <f>LoRa_TxDone!I26</f>
+        <v>BATTERY_LEVEL_INVALID</v>
+      </c>
+      <c r="J26">
+        <f>LoRa_TxDone!J26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <f>LoRa_Reset!B27</f>
+        <v>0</v>
+      </c>
+      <c r="C27" t="str">
+        <f>LoRa_TxDone!C27</f>
+        <v>modulation</v>
+      </c>
+      <c r="D27" s="2" t="str">
+        <f>LoRa_TxDone!D27</f>
+        <v>modulation[dataRate]</v>
+      </c>
+      <c r="E27">
+        <f>LoRa_TxDone!E27</f>
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <f>LoRa_TxDone!F27</f>
+        <v>0</v>
+      </c>
+      <c r="G27" t="str">
+        <f>LoRa_TxDone!G27</f>
+        <v>IsmBand_t</v>
+      </c>
+      <c r="H27" t="str">
+        <f>LoRa_TxDone!H27</f>
+        <v>LoRa_ismBand</v>
+      </c>
+      <c r="I27" s="2" t="str">
+        <f>LoRa_TxDone!I27</f>
+        <v>ISM_EU868</v>
+      </c>
+      <c r="J27">
+        <f>LoRa_TxDone!J27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <f>LoRa_Reset!B28</f>
+        <v>0</v>
+      </c>
+      <c r="C28" t="str">
+        <f>LoRa_TxDone!C28</f>
+        <v>frequency</v>
+      </c>
+      <c r="D28" s="2" t="str">
+        <f>LoRa_TxDone!D28</f>
+        <v>freq</v>
+      </c>
+      <c r="E28">
+        <f>LoRa_TxDone!E28</f>
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <f>LoRa_TxDone!F28</f>
+        <v>0</v>
+      </c>
+      <c r="G28" t="str">
+        <f>LoRa_TxDone!G28</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H28" t="str">
+        <f>LoRa_TxDone!H28</f>
+        <v>LoRa_currentDataRate</v>
+      </c>
+      <c r="I28" s="2" t="str">
+        <f>LoRa_TxDone!I28</f>
+        <v>DR0</v>
+      </c>
+      <c r="J28">
+        <f>LoRa_TxDone!J28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <f>LoRa_Reset!B29</f>
+        <v>0</v>
+      </c>
+      <c r="C29" t="str">
+        <f>LoRa_TxDone!C29</f>
+        <v>payload</v>
+      </c>
+      <c r="D29" s="2">
+        <f>LoRa_TxDone!D29</f>
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <f>LoRa_TxDone!E29</f>
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <f>LoRa_TxDone!F29</f>
+        <v>0</v>
+      </c>
+      <c r="G29" t="str">
+        <f>LoRa_TxDone!G29</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H29" t="str">
+        <f>LoRa_TxDone!H29</f>
+        <v>LoRa_minDataRate</v>
+      </c>
+      <c r="I29" s="2" t="str">
+        <f>LoRa_TxDone!I29</f>
+        <v>DR0</v>
+      </c>
+      <c r="J29">
+        <f>LoRa_TxDone!J29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <f>LoRa_Reset!B30</f>
+        <v>0</v>
+      </c>
+      <c r="C30" t="str">
+        <f>LoRa_TxDone!C30</f>
+        <v>power</v>
+      </c>
+      <c r="D30" s="2" t="str">
+        <f>LoRa_TxDone!D30</f>
+        <v>txPower868[LoRa_txPower]</v>
+      </c>
+      <c r="E30">
+        <f>LoRa_TxDone!E30</f>
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <f>LoRa_TxDone!F30</f>
+        <v>0</v>
+      </c>
+      <c r="G30" t="str">
+        <f>LoRa_TxDone!G30</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H30" t="str">
+        <f>LoRa_TxDone!H30</f>
+        <v>LoRa_maxDataRate</v>
+      </c>
+      <c r="I30" s="2" t="str">
+        <f>LoRa_TxDone!I30</f>
+        <v>DR7</v>
+      </c>
+      <c r="J30">
+        <f>LoRa_TxDone!J30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <f>LoRa_Reset!B31</f>
+        <v>0</v>
+      </c>
+      <c r="C31" t="str">
+        <f>LoRa_TxDone!C31</f>
+        <v>SpreadingFactor</v>
+      </c>
+      <c r="D31" s="2" t="str">
+        <f>LoRa_TxDone!D31</f>
+        <v>spreadingFactor[dataRate]</v>
+      </c>
+      <c r="E31">
+        <f>LoRa_TxDone!E31</f>
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <f>LoRa_TxDone!F31</f>
+        <v>0</v>
+      </c>
+      <c r="G31" t="str">
+        <f>LoRa_TxDone!G31</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H31" t="str">
+        <f>LoRa_TxDone!H31</f>
+        <v>LoRa_nextUsedChannel</v>
+      </c>
+      <c r="I31" s="2">
+        <f>LoRa_TxDone!I31</f>
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <f>LoRa_TxDone!J31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <f>LoRa_Reset!B32</f>
+        <v>0</v>
+      </c>
+      <c r="C32" t="str">
+        <f>LoRa_TxDone!C32</f>
+        <v>Bandwidth</v>
+      </c>
+      <c r="D32" s="2" t="str">
+        <f>LoRa_TxDone!D32</f>
+        <v>bandwidth[dataRate]</v>
+      </c>
+      <c r="E32">
+        <f>LoRa_TxDone!E32</f>
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <f>LoRa_TxDone!F32</f>
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <f>LoRa_TxDone!G32</f>
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <f>LoRa_TxDone!H32</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="2">
+        <f>LoRa_TxDone!I32</f>
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <f>LoRa_TxDone!J32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <f>LoRa_Reset!B33</f>
+        <v>0</v>
+      </c>
+      <c r="C33" t="str">
+        <f>LoRa_TxDone!C33</f>
+        <v>SyncWord</v>
+      </c>
+      <c r="D33" s="2" t="str">
+        <f>LoRa_TxDone!D33</f>
+        <v>LoRa_syncWord</v>
+      </c>
+      <c r="E33">
+        <f>LoRa_TxDone!E33</f>
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <f>LoRa_TxDone!F33</f>
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <f>LoRa_TxDone!G33</f>
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <f>LoRa_TxDone!H33</f>
+        <v>0</v>
+      </c>
+      <c r="I33" s="2">
+        <f>LoRa_TxDone!I33</f>
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <f>LoRa_TxDone!J33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <f>LoRa_Reset!B34</f>
+        <v>0</v>
+      </c>
+      <c r="C34" t="str">
+        <f>LoRa_TxDone!C34</f>
+        <v>CRC</v>
+      </c>
+      <c r="D34" s="2" t="str">
+        <f>LoRa_TxDone!D34</f>
+        <v>DISABLED</v>
+      </c>
+      <c r="E34">
+        <f>LoRa_TxDone!E34</f>
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <f>LoRa_TxDone!F34</f>
+        <v>0</v>
+      </c>
+      <c r="G34" t="str">
+        <f>LoRa_TxDone!G34</f>
+        <v>uint32_t</v>
+      </c>
+      <c r="H34" t="str">
+        <f>LoRa_TxDone!H34</f>
+        <v>frequency;</v>
+      </c>
+      <c r="I34" s="2" t="str">
+        <f>LoRa_TxDone!I34</f>
+        <v>freq</v>
+      </c>
+      <c r="J34">
+        <f>LoRa_TxDone!J34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <f>LoRa_Reset!B35</f>
+        <v>0</v>
+      </c>
+      <c r="C35" t="str">
+        <f>LoRa_TxDone!C35</f>
+        <v>IQInverted</v>
+      </c>
+      <c r="D35" s="2" t="str">
+        <f>LoRa_TxDone!D35</f>
+        <v>DISABLED</v>
+      </c>
+      <c r="E35">
+        <f>LoRa_TxDone!E35</f>
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <f>LoRa_TxDone!F35</f>
+        <v>0</v>
+      </c>
+      <c r="G35" t="str">
+        <f>LoRa_TxDone!G35</f>
+        <v>uint32_t</v>
+      </c>
+      <c r="H35" t="str">
+        <f>LoRa_TxDone!H35</f>
+        <v>frequencyDeviation;</v>
+      </c>
+      <c r="I35" s="2">
+        <f>LoRa_TxDone!I35</f>
+        <v>25000</v>
+      </c>
+      <c r="J35">
+        <f>LoRa_TxDone!J35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <f>LoRa_Reset!B36</f>
+        <v>0</v>
+      </c>
+      <c r="C36" t="str">
+        <f>LoRa_TxDone!C36</f>
+        <v>HopPeriod</v>
+      </c>
+      <c r="D36" s="2" t="str">
+        <f>LoRa_TxDone!D36</f>
+        <v>DISABLED</v>
+      </c>
+      <c r="E36">
+        <f>LoRa_TxDone!E36</f>
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <f>LoRa_TxDone!F36</f>
+        <v>0</v>
+      </c>
+      <c r="G36" t="str">
+        <f>LoRa_TxDone!G36</f>
+        <v>uint32_t</v>
+      </c>
+      <c r="H36" t="str">
+        <f>LoRa_TxDone!H36</f>
+        <v>bitRate;</v>
+      </c>
+      <c r="I36" s="2">
+        <f>LoRa_TxDone!I36</f>
+        <v>50000</v>
+      </c>
+      <c r="J36">
+        <f>LoRa_TxDone!J36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <f>LoRa_Reset!B37</f>
+        <v>0</v>
+      </c>
+      <c r="C37" t="str">
+        <f>LoRa_TxDone!C37</f>
+        <v>errorCodingRate</v>
+      </c>
+      <c r="D37" s="2" t="str">
+        <f>LoRa_TxDone!D37</f>
+        <v>CR_4_5</v>
+      </c>
+      <c r="E37">
+        <f>LoRa_TxDone!E37</f>
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <f>LoRa_TxDone!F37</f>
+        <v>0</v>
+      </c>
+      <c r="G37" t="str">
+        <f>LoRa_TxDone!G37</f>
+        <v>uint16_t</v>
+      </c>
+      <c r="H37" t="str">
+        <f>LoRa_TxDone!H37</f>
+        <v>preambleLen;</v>
+      </c>
+      <c r="I37" s="2">
+        <f>LoRa_TxDone!I37</f>
+        <v>8</v>
+      </c>
+      <c r="J37">
+        <f>LoRa_TxDone!J37</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <f>LoRa_Reset!B38</f>
+        <v>0</v>
+      </c>
+      <c r="C38" t="str">
+        <f>LoRa_TxDone!C38</f>
+        <v>implicitHeaderMode</v>
+      </c>
+      <c r="D38" s="2" t="str">
+        <f>LoRa_TxDone!D38</f>
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <f>LoRa_TxDone!E38</f>
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <f>LoRa_TxDone!F38</f>
+        <v>0</v>
+      </c>
+      <c r="G38" t="str">
+        <f>LoRa_TxDone!G38</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H38" t="str">
+        <f>LoRa_TxDone!H38</f>
+        <v>syncWordLoRa;</v>
+      </c>
+      <c r="I38" s="2" t="str">
+        <f>LoRa_TxDone!I38</f>
+        <v>LoRa_syncWord</v>
+      </c>
+      <c r="J38">
+        <f>LoRa_TxDone!J38</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <f>LoRa_Reset!B39</f>
+        <v>0</v>
+      </c>
+      <c r="C39" t="str">
+        <f>LoRa_TxDone!C39</f>
+        <v>symbolTimeout</v>
+      </c>
+      <c r="D39" s="2">
+        <f>LoRa_TxDone!D39</f>
+        <v>4</v>
+      </c>
+      <c r="E39">
+        <f>LoRa_TxDone!E39</f>
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <f>LoRa_TxDone!F39</f>
+        <v>0</v>
+      </c>
+      <c r="G39" t="str">
+        <f>LoRa_TxDone!G39</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H39" t="str">
+        <f>LoRa_TxDone!H39</f>
+        <v>syncWord[8];</v>
+      </c>
+      <c r="I39" s="2" t="str">
+        <f>LoRa_TxDone!I39</f>
+        <v>0xc1 0x94 0xc1</v>
+      </c>
+      <c r="J39">
+        <f>LoRa_TxDone!J39</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <f>LoRa_Reset!B40</f>
+        <v>0</v>
+      </c>
+      <c r="C40" t="str">
+        <f>LoRa_TxDone!C40</f>
+        <v>FSKfreqDeviation</v>
+      </c>
+      <c r="D40" s="2">
+        <f>LoRa_TxDone!D40</f>
+        <v>25000</v>
+      </c>
+      <c r="E40">
+        <f>LoRa_TxDone!E40</f>
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <f>LoRa_TxDone!F40</f>
+        <v>0</v>
+      </c>
+      <c r="G40" t="str">
+        <f>LoRa_TxDone!G40</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H40" t="str">
+        <f>LoRa_TxDone!H40</f>
+        <v>syncWordLen;</v>
+      </c>
+      <c r="I40" s="2">
+        <f>LoRa_TxDone!I40</f>
+        <v>3</v>
+      </c>
+      <c r="J40">
+        <f>LoRa_TxDone!J40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <f>LoRa_Reset!B41</f>
+        <v>0</v>
+      </c>
+      <c r="C41" t="str">
+        <f>LoRa_TxDone!C41</f>
+        <v>FSKBitRate</v>
+      </c>
+      <c r="D41" s="2">
+        <f>LoRa_TxDone!D41</f>
+        <v>50000</v>
+      </c>
+      <c r="E41">
+        <f>LoRa_TxDone!E41</f>
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <f>LoRa_TxDone!F41</f>
+        <v>0</v>
+      </c>
+      <c r="G41" t="str">
+        <f>LoRa_TxDone!G41</f>
+        <v>RadioModulation_t</v>
+      </c>
+      <c r="H41" t="str">
+        <f>LoRa_TxDone!H41</f>
+        <v>modulation;</v>
+      </c>
+      <c r="I41" s="2" t="str">
+        <f>LoRa_TxDone!I41</f>
+        <v>modulation[dataRate]</v>
+      </c>
+      <c r="J41">
+        <f>LoRa_TxDone!J41</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <f>LoRa_Reset!B42</f>
+        <v>0</v>
+      </c>
+      <c r="C42" t="str">
+        <f>LoRa_TxDone!C42</f>
+        <v>FSK_PREAMBLE</v>
+      </c>
+      <c r="D42" s="2">
+        <f>LoRa_TxDone!D42</f>
+        <v>8</v>
+      </c>
+      <c r="E42">
+        <f>LoRa_TxDone!E42</f>
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <f>LoRa_TxDone!F42</f>
+        <v>0</v>
+      </c>
+      <c r="G42" t="str">
+        <f>LoRa_TxDone!G42</f>
+        <v>RadioDataRate_t</v>
+      </c>
+      <c r="H42" t="str">
+        <f>LoRa_TxDone!H42</f>
+        <v>dataRate;</v>
+      </c>
+      <c r="I42" s="2" t="str">
+        <f>LoRa_TxDone!I42</f>
+        <v>spreadingFactor[dataRate]</v>
+      </c>
+      <c r="J42">
+        <f>LoRa_TxDone!J42</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <f>LoRa_Reset!B43</f>
+        <v>0</v>
+      </c>
+      <c r="C43" t="str">
+        <f>LoRa_TxDone!C43</f>
+        <v>fskDataShaping</v>
+      </c>
+      <c r="D43" s="2" t="str">
+        <f>LoRa_TxDone!D43</f>
+        <v>FSK_SHAPING_GAUSS_BT_0_5</v>
+      </c>
+      <c r="E43">
+        <f>LoRa_TxDone!E43</f>
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <f>LoRa_TxDone!F43</f>
+        <v>0</v>
+      </c>
+      <c r="G43" t="str">
+        <f>LoRa_TxDone!G43</f>
+        <v>RadioLoRaBandWidth_t</v>
+      </c>
+      <c r="H43" t="str">
+        <f>LoRa_TxDone!H43</f>
+        <v>bandWidth;</v>
+      </c>
+      <c r="I43" s="2" t="str">
+        <f>LoRa_TxDone!I43</f>
+        <v>bandwidth[dataRate]</v>
+      </c>
+      <c r="J43">
+        <f>LoRa_TxDone!J43</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <f>LoRa_Reset!B44</f>
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <f>LoRa_TxDone!C44</f>
+        <v>0</v>
+      </c>
+      <c r="D44" s="2">
+        <f>LoRa_TxDone!D44</f>
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <f>LoRa_TxDone!E44</f>
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <f>LoRa_TxDone!F44</f>
+        <v>0</v>
+      </c>
+      <c r="G44" t="str">
+        <f>LoRa_TxDone!G44</f>
+        <v>int8_t</v>
+      </c>
+      <c r="H44" t="str">
+        <f>LoRa_TxDone!H44</f>
+        <v>outputPower;</v>
+      </c>
+      <c r="I44" s="2" t="str">
+        <f>LoRa_TxDone!I44</f>
+        <v>txPower868[LoRa_txPower]</v>
+      </c>
+      <c r="J44">
+        <f>LoRa_TxDone!J44</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <f>LoRa_Reset!B45</f>
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <f>LoRa_TxDone!C45</f>
+        <v>0</v>
+      </c>
+      <c r="D45" s="2">
+        <f>LoRa_TxDone!D45</f>
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <f>LoRa_TxDone!E45</f>
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <f>LoRa_TxDone!F45</f>
+        <v>0</v>
+      </c>
+      <c r="G45" t="str">
+        <f>LoRa_TxDone!G45</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H45" t="str">
+        <f>LoRa_TxDone!H45</f>
+        <v>crcOn;</v>
+      </c>
+      <c r="I45" s="2" t="str">
+        <f>LoRa_TxDone!I45</f>
+        <v>DISABLED</v>
+      </c>
+      <c r="J45">
+        <f>LoRa_TxDone!J45</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <f>LoRa_Reset!B46</f>
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <f>LoRa_TxDone!C46</f>
+        <v>0</v>
+      </c>
+      <c r="D46" s="2">
+        <f>LoRa_TxDone!D46</f>
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <f>LoRa_TxDone!E46</f>
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <f>LoRa_TxDone!F46</f>
+        <v>0</v>
+      </c>
+      <c r="G46" t="str">
+        <f>LoRa_TxDone!G46</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H46" t="str">
+        <f>LoRa_TxDone!H46</f>
+        <v>paBoost;</v>
+      </c>
+      <c r="I46" s="2" t="str">
+        <f>LoRa_TxDone!I46</f>
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <f>LoRa_TxDone!J46</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <f>LoRa_Reset!B47</f>
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <f>LoRa_TxDone!C47</f>
+        <v>0</v>
+      </c>
+      <c r="D47" s="2">
+        <f>LoRa_TxDone!D47</f>
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <f>LoRa_TxDone!E47</f>
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <f>LoRa_TxDone!F47</f>
+        <v>0</v>
+      </c>
+      <c r="G47" t="str">
+        <f>LoRa_TxDone!G47</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H47" t="str">
+        <f>LoRa_TxDone!H47</f>
+        <v>flags</v>
+      </c>
+      <c r="I47" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="J47" s="5"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <f>LoRa_Reset!B48</f>
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <f>LoRa_TxDone!C48</f>
+        <v>0</v>
+      </c>
+      <c r="D48" s="2">
+        <f>LoRa_TxDone!D48</f>
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <f>LoRa_TxDone!E48</f>
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <f>LoRa_TxDone!F48</f>
+        <v>0</v>
+      </c>
+      <c r="G48" t="str">
+        <f>LoRa_TxDone!G48</f>
+        <v>uint16_t</v>
+      </c>
+      <c r="H48" t="str">
+        <f>LoRa_TxDone!H48</f>
+        <v>frequencyHopPeriod;</v>
+      </c>
+      <c r="I48" s="2" t="str">
+        <f>LoRa_TxDone!I48</f>
+        <v>DISABLED</v>
+      </c>
+      <c r="J48">
+        <f>LoRa_TxDone!J48</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <f>LoRa_Reset!B49</f>
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <f>LoRa_TxDone!C49</f>
+        <v>0</v>
+      </c>
+      <c r="D49" s="2">
+        <f>LoRa_TxDone!D49</f>
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <f>LoRa_TxDone!E49</f>
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <f>LoRa_TxDone!F49</f>
+        <v>0</v>
+      </c>
+      <c r="G49" t="str">
+        <f>LoRa_TxDone!G49</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H49" t="str">
+        <f>LoRa_TxDone!H49</f>
+        <v>iqInverted;</v>
+      </c>
+      <c r="I49" s="2" t="str">
+        <f>LoRa_TxDone!I49</f>
+        <v>DISABLED</v>
+      </c>
+      <c r="J49">
+        <f>LoRa_TxDone!J49</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <f>LoRa_Reset!B50</f>
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <f>LoRa_TxDone!C50</f>
+        <v>0</v>
+      </c>
+      <c r="D50" s="2">
+        <f>LoRa_TxDone!D50</f>
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <f>LoRa_TxDone!E50</f>
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <f>LoRa_TxDone!F50</f>
+        <v>0</v>
+      </c>
+      <c r="G50" t="str">
+        <f>LoRa_TxDone!G50</f>
+        <v>RadioErrorCodingRate_t</v>
+      </c>
+      <c r="H50" t="str">
+        <f>LoRa_TxDone!H50</f>
+        <v>errorCodingRate;</v>
+      </c>
+      <c r="I50" s="2" t="str">
+        <f>LoRa_TxDone!I50</f>
+        <v>CR_4_5</v>
+      </c>
+      <c r="J50">
+        <f>LoRa_TxDone!J50</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <f>LoRa_Reset!B51</f>
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <f>LoRa_TxDone!C51</f>
+        <v>0</v>
+      </c>
+      <c r="D51" s="2">
+        <f>LoRa_TxDone!D51</f>
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <f>LoRa_TxDone!E51</f>
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <f>LoRa_TxDone!F51</f>
+        <v>0</v>
+      </c>
+      <c r="G51" t="str">
+        <f>LoRa_TxDone!G51</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H51" t="str">
+        <f>LoRa_TxDone!H51</f>
+        <v>implicitHeaderMode;</v>
+      </c>
+      <c r="I51" s="2" t="str">
+        <f>LoRa_TxDone!I51</f>
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <f>LoRa_TxDone!J51</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <f>LoRa_Reset!B52</f>
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <f>LoRa_TxDone!C52</f>
+        <v>0</v>
+      </c>
+      <c r="D52" s="2">
+        <f>LoRa_TxDone!D52</f>
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <f>LoRa_TxDone!E52</f>
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <f>LoRa_TxDone!F52</f>
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <f>LoRa_TxDone!G52</f>
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <f>LoRa_TxDone!H52</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <f>LoRa_Reset!B53</f>
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <f>LoRa_TxDone!C53</f>
+        <v>0</v>
+      </c>
+      <c r="D53" s="2">
+        <f>LoRa_TxDone!D53</f>
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <f>LoRa_TxDone!E53</f>
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <f>LoRa_TxDone!F53</f>
+        <v>0</v>
+      </c>
+      <c r="G53" t="str">
+        <f>LoRa_TxDone!G53</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H53" t="str">
+        <f>LoRa_TxDone!H53</f>
+        <v>dataBufferLen;</v>
+      </c>
+      <c r="I53" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="J53">
+        <f>LoRa_TxDone!J53</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <f>LoRa_Reset!B54</f>
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <f>LoRa_TxDone!C54</f>
+        <v>0</v>
+      </c>
+      <c r="D54" s="2">
+        <f>LoRa_TxDone!D54</f>
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <f>LoRa_TxDone!E54</f>
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <f>LoRa_TxDone!F54</f>
+        <v>0</v>
+      </c>
+      <c r="G54" t="str">
+        <f>LoRa_TxDone!G54</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H54" t="str">
+        <f>LoRa_TxDone!H54</f>
+        <v>*dataBuffer;</v>
+      </c>
+      <c r="I54" s="6" t="str">
+        <f>LoRa_TxDone!I54</f>
+        <v>LoRa_radioBuffer</v>
+      </c>
+      <c r="J54">
+        <f>LoRa_TxDone!J54</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <f>LoRa_Reset!B55</f>
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <f>LoRa_TxDone!C55</f>
+        <v>0</v>
+      </c>
+      <c r="D55" s="2">
+        <f>LoRa_TxDone!D55</f>
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <f>LoRa_TxDone!E55</f>
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <f>LoRa_TxDone!F55</f>
+        <v>0</v>
+      </c>
+      <c r="G55" t="str">
+        <f>LoRa_TxDone!G55</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H55" t="str">
+        <f>LoRa_TxDone!H55</f>
+        <v>timeOnAirTimerId;</v>
+      </c>
+      <c r="I55" s="2" t="str">
+        <f>LoRa_TxDone!I55</f>
+        <v>TIME_ON_AIR_LOAD_VALUE</v>
+      </c>
+      <c r="J55">
+        <f>LoRa_TxDone!J55</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <f>LoRa_Reset!B56</f>
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <f>LoRa_TxDone!C56</f>
+        <v>0</v>
+      </c>
+      <c r="D56" s="2">
+        <f>LoRa_TxDone!D56</f>
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <f>LoRa_TxDone!E56</f>
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <f>LoRa_TxDone!F56</f>
+        <v>0</v>
+      </c>
+      <c r="G56" t="str">
+        <f>LoRa_TxDone!G56</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H56" t="str">
+        <f>LoRa_TxDone!H56</f>
+        <v>fskRxWindowTimerId;</v>
+      </c>
+      <c r="I56" s="2" t="str">
+        <f>LoRa_TxDone!I56</f>
+        <v>0</v>
+      </c>
+      <c r="J56" t="str">
+        <f>LoRa_TxDone!J56</f>
+        <v>RADIO_RxFSKTimeout</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <f>LoRa_Reset!B57</f>
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <f>LoRa_TxDone!C57</f>
+        <v>0</v>
+      </c>
+      <c r="D57" s="2">
+        <f>LoRa_TxDone!D57</f>
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <f>LoRa_TxDone!E57</f>
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <f>LoRa_TxDone!F57</f>
+        <v>0</v>
+      </c>
+      <c r="G57" t="str">
+        <f>LoRa_TxDone!G57</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H57" t="str">
+        <f>LoRa_TxDone!H57</f>
+        <v>watchdogTimerId;</v>
+      </c>
+      <c r="I57" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="J57" t="str">
+        <f>LoRa_TxDone!J57</f>
+        <v>RADIO_WatchdogTimeout</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <f>LoRa_Reset!B58</f>
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <f>LoRa_TxDone!C58</f>
+        <v>0</v>
+      </c>
+      <c r="D58" s="2">
+        <f>LoRa_TxDone!D58</f>
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <f>LoRa_TxDone!E58</f>
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <f>LoRa_TxDone!F58</f>
+        <v>0</v>
+      </c>
+      <c r="G58" t="str">
+        <f>LoRa_TxDone!G58</f>
+        <v>uint32_t</v>
+      </c>
+      <c r="H58" t="str">
+        <f>LoRa_TxDone!H58</f>
+        <v>watchdogTimerTimeout;</v>
+      </c>
+      <c r="I58" s="2" t="str">
+        <f>LoRa_TxDone!I58</f>
+        <v>watchdogTimerTimeout</v>
+      </c>
+      <c r="J58">
+        <f>LoRa_TxDone!J58</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <f>LoRa_Reset!B59</f>
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <f>LoRa_TxDone!C59</f>
+        <v>0</v>
+      </c>
+      <c r="D59" s="2">
+        <f>LoRa_TxDone!D59</f>
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <f>LoRa_TxDone!E59</f>
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <f>LoRa_TxDone!F59</f>
+        <v>0</v>
+      </c>
+      <c r="G59" t="str">
+        <f>LoRa_TxDone!G59</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H59" t="str">
+        <f>LoRa_TxDone!H59</f>
+        <v>initialized;</v>
+      </c>
+      <c r="I59" s="2">
+        <f>LoRa_TxDone!I59</f>
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <f>LoRa_TxDone!J59</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <f>LoRa_Reset!B60</f>
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <f>LoRa_TxDone!C60</f>
+        <v>0</v>
+      </c>
+      <c r="D60" s="2">
+        <f>LoRa_TxDone!D60</f>
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <f>LoRa_TxDone!E60</f>
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <f>LoRa_TxDone!F60</f>
+        <v>0</v>
+      </c>
+      <c r="G60" t="str">
+        <f>LoRa_TxDone!G60</f>
+        <v>uint32_t</v>
+      </c>
+      <c r="H60" t="str">
+        <f>LoRa_TxDone!H60</f>
+        <v>(*fhssNextFrequency)(void);</v>
+      </c>
+      <c r="I60" s="2" t="str">
+        <f>LoRa_TxDone!I60</f>
+        <v>NULL</v>
+      </c>
+      <c r="J60">
+        <f>LoRa_TxDone!J60</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <f>LoRa_Reset!B61</f>
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <f>LoRa_TxDone!C61</f>
+        <v>0</v>
+      </c>
+      <c r="D61" s="2">
+        <f>LoRa_TxDone!D61</f>
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <f>LoRa_TxDone!E61</f>
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <f>LoRa_TxDone!F61</f>
+        <v>0</v>
+      </c>
+      <c r="G61" t="str">
+        <f>LoRa_TxDone!G61</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H61" t="str">
+        <f>LoRa_TxDone!H61</f>
+        <v>regVersion;</v>
+      </c>
+      <c r="I61" s="2" t="str">
+        <f>LoRa_TxDone!I61</f>
+        <v>RADIO(REG_VERSION)</v>
+      </c>
+      <c r="J61">
+        <f>LoRa_TxDone!J61</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <f>LoRa_Reset!B62</f>
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <f>LoRa_TxDone!C62</f>
+        <v>0</v>
+      </c>
+      <c r="D62" s="2">
+        <f>LoRa_TxDone!D62</f>
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <f>LoRa_TxDone!E62</f>
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <f>LoRa_TxDone!F62</f>
+        <v>0</v>
+      </c>
+      <c r="G62" t="str">
+        <f>LoRa_TxDone!G62</f>
+        <v>int8_t</v>
+      </c>
+      <c r="H62" t="str">
+        <f>LoRa_TxDone!H62</f>
+        <v>packetSNR;</v>
+      </c>
+      <c r="I62" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="J62">
+        <f>LoRa_TxDone!J62</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <f>LoRa_Reset!B63</f>
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <f>LoRa_TxDone!C63</f>
+        <v>0</v>
+      </c>
+      <c r="D63" s="2">
+        <f>LoRa_TxDone!D63</f>
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <f>LoRa_TxDone!E63</f>
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <f>LoRa_TxDone!F63</f>
+        <v>0</v>
+      </c>
+      <c r="G63" t="str">
+        <f>LoRa_TxDone!G63</f>
+        <v>RadioFSKShaping_t</v>
+      </c>
+      <c r="H63" t="str">
+        <f>LoRa_TxDone!H63</f>
+        <v>fskDataShaping;</v>
+      </c>
+      <c r="I63" s="2" t="str">
+        <f>LoRa_TxDone!I63</f>
+        <v>FSK_SHAPING_GAUSS_BT_0_5</v>
+      </c>
+      <c r="J63">
+        <f>LoRa_TxDone!J63</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <f>LoRa_Reset!B64</f>
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <f>LoRa_TxDone!C64</f>
+        <v>0</v>
+      </c>
+      <c r="D64" s="2">
+        <f>LoRa_TxDone!D64</f>
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <f>LoRa_TxDone!E64</f>
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <f>LoRa_TxDone!F64</f>
+        <v>0</v>
+      </c>
+      <c r="G64" t="str">
+        <f>LoRa_TxDone!G64</f>
+        <v>RadioFSKBandWidth_t</v>
+      </c>
+      <c r="H64" t="str">
+        <f>LoRa_TxDone!H64</f>
+        <v>rxBw;</v>
+      </c>
+      <c r="I64" s="2" t="str">
+        <f>LoRa_TxDone!I64</f>
+        <v>FSKBW_50_0KHZ</v>
+      </c>
+      <c r="J64">
+        <f>LoRa_TxDone!J64</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <f>LoRa_Reset!B65</f>
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <f>LoRa_TxDone!C65</f>
+        <v>0</v>
+      </c>
+      <c r="D65" s="2">
+        <f>LoRa_TxDone!D65</f>
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <f>LoRa_TxDone!E65</f>
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <f>LoRa_TxDone!F65</f>
+        <v>0</v>
+      </c>
+      <c r="G65" t="str">
+        <f>LoRa_TxDone!G65</f>
+        <v>RadioFSKBandWidth_t</v>
+      </c>
+      <c r="H65" t="str">
+        <f>LoRa_TxDone!H65</f>
+        <v>afcBw;</v>
+      </c>
+      <c r="I65" s="2" t="str">
+        <f>LoRa_TxDone!I65</f>
+        <v>FSKBW_83_3KHZ</v>
+      </c>
+      <c r="J65">
+        <f>LoRa_TxDone!J65</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <f>LoRa_Reset!B66</f>
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <f>LoRa_TxDone!C66</f>
+        <v>0</v>
+      </c>
+      <c r="D66" s="2">
+        <f>LoRa_TxDone!D66</f>
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <f>LoRa_TxDone!E66</f>
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <f>LoRa_TxDone!F66</f>
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <f>LoRa_TxDone!G66</f>
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <f>LoRa_TxDone!H66</f>
+        <v>0</v>
+      </c>
+      <c r="I66" s="2">
+        <f>LoRa_TxDone!I66</f>
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <f>LoRa_TxDone!J66</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <f>LoRa_Reset!B67</f>
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <f>LoRa_TxDone!C67</f>
+        <v>0</v>
+      </c>
+      <c r="D67" s="2">
+        <f>LoRa_TxDone!D67</f>
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <f>LoRa_TxDone!E67</f>
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <f>LoRa_TxDone!F67</f>
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <f>LoRa_TxDone!G67</f>
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <f>LoRa_TxDone!H67</f>
+        <v>0</v>
+      </c>
+      <c r="I67" s="2">
+        <f>LoRa_TxDone!I67</f>
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <f>LoRa_TxDone!J67</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <f>LoRa_Reset!B68</f>
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <f>LoRa_TxDone!C68</f>
+        <v>0</v>
+      </c>
+      <c r="D68" s="2">
+        <f>LoRa_TxDone!D68</f>
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <f>LoRa_TxDone!E68</f>
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <f>LoRa_TxDone!F68</f>
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <f>LoRa_TxDone!G68</f>
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <f>LoRa_TxDone!H68</f>
+        <v>0</v>
+      </c>
+      <c r="I68" s="2">
+        <f>LoRa_TxDone!I68</f>
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <f>LoRa_TxDone!J68</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <f>LoRa_Reset!B69</f>
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <f>LoRa_TxDone!C69</f>
+        <v>0</v>
+      </c>
+      <c r="D69" s="2">
+        <f>LoRa_TxDone!D69</f>
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <f>LoRa_TxDone!E69</f>
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <f>LoRa_TxDone!F69</f>
+        <v>0</v>
+      </c>
+      <c r="G69" t="str">
+        <f>LoRa_TxDone!G69</f>
+        <v>ChannelParams_t</v>
+      </c>
+      <c r="H69" t="str">
+        <f>LoRa_TxDone!H69</f>
+        <v>Channels</v>
+      </c>
+      <c r="I69" s="2" t="str">
+        <f>LoRa_TxDone!I69</f>
+        <v>DefaultChannels868</v>
+      </c>
+      <c r="J69">
+        <f>LoRa_TxDone!J69</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B70">
+        <f>LoRa_Reset!B70</f>
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <f>LoRa_TxDone!C70</f>
+        <v>0</v>
+      </c>
+      <c r="D70" s="2">
+        <f>LoRa_TxDone!D70</f>
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <f>LoRa_TxDone!E70</f>
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <f>LoRa_TxDone!F70</f>
+        <v>0</v>
+      </c>
+      <c r="G70" t="str">
+        <f>LoRa_TxDone!G70</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H70" t="str">
+        <f>LoRa_TxDone!H70</f>
+        <v>maxPayloadSize[]</v>
+      </c>
+      <c r="I70" s="2" t="str">
+        <f>LoRa_TxDone!I70</f>
+        <v>MAX_EU_SINGLE_BAND_CHANNELS</v>
+      </c>
+      <c r="J70">
+        <f>LoRa_TxDone!J70</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <f>LoRa_Reset!B71</f>
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <f>LoRa_TxDone!C71</f>
+        <v>0</v>
+      </c>
+      <c r="D71" s="2">
+        <f>LoRa_TxDone!D71</f>
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <f>LoRa_TxDone!E71</f>
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <f>LoRa_TxDone!F71</f>
+        <v>0</v>
+      </c>
+      <c r="G71" t="str">
+        <f>LoRa_TxDone!G71</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H71" t="str">
+        <f>LoRa_TxDone!H71</f>
+        <v>modulation[]</v>
+      </c>
+      <c r="I71" s="2">
+        <f>LoRa_TxDone!I71</f>
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <f>LoRa_TxDone!J71</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <f>LoRa_Reset!B72</f>
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <f>LoRa_TxDone!C72</f>
+        <v>0</v>
+      </c>
+      <c r="D72" s="2">
+        <f>LoRa_TxDone!D72</f>
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <f>LoRa_TxDone!E72</f>
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <f>LoRa_TxDone!F72</f>
+        <v>0</v>
+      </c>
+      <c r="G72" t="str">
+        <f>LoRa_TxDone!G72</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H72" t="str">
+        <f>LoRa_TxDone!H72</f>
+        <v>spreadingFactor[]</v>
+      </c>
+      <c r="I72" s="2">
+        <f>LoRa_TxDone!I72</f>
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <f>LoRa_TxDone!J72</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B73">
+        <f>LoRa_Reset!B73</f>
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <f>LoRa_TxDone!C73</f>
+        <v>0</v>
+      </c>
+      <c r="D73" s="2">
+        <f>LoRa_TxDone!D73</f>
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <f>LoRa_TxDone!E73</f>
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <f>LoRa_TxDone!F73</f>
+        <v>0</v>
+      </c>
+      <c r="G73" t="str">
+        <f>LoRa_TxDone!G73</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H73" t="str">
+        <f>LoRa_TxDone!H73</f>
+        <v>bandwidth[]</v>
+      </c>
+      <c r="I73" s="2">
+        <f>LoRa_TxDone!I73</f>
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <f>LoRa_TxDone!J73</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <f>LoRa_Reset!B74</f>
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <f>LoRa_TxDone!C74</f>
+        <v>0</v>
+      </c>
+      <c r="D74" s="2">
+        <f>LoRa_TxDone!D74</f>
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <f>LoRa_TxDone!E74</f>
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <f>LoRa_TxDone!F74</f>
+        <v>0</v>
+      </c>
+      <c r="G74" t="str">
+        <f>LoRa_TxDone!G74</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H74" t="str">
+        <f>LoRa_TxDone!H74</f>
+        <v>txPower868[]</v>
+      </c>
+      <c r="I74" s="2">
+        <f>LoRa_TxDone!I74</f>
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <f>LoRa_TxDone!J74</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B75">
+        <f>LoRa_Reset!B75</f>
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <f>LoRa_TxDone!C75</f>
+        <v>0</v>
+      </c>
+      <c r="D75" s="2">
+        <f>LoRa_TxDone!D75</f>
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <f>LoRa_TxDone!E75</f>
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <f>LoRa_TxDone!F75</f>
+        <v>0</v>
+      </c>
+      <c r="G75" t="str">
+        <f>LoRa_TxDone!G75</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H75" t="str">
+        <f>LoRa_TxDone!H75</f>
+        <v>LoRa_radioBuffer[]</v>
+      </c>
+      <c r="I75" s="2" t="str">
+        <f>LoRa_TxDone!I75</f>
+        <v>MAXIMUM_BUFFER_LENGTH</v>
+      </c>
+      <c r="J75">
+        <f>LoRa_TxDone!J75</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B76">
+        <f>LoRa_Reset!B76</f>
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <f>LoRa_TxDone!C76</f>
+        <v>0</v>
+      </c>
+      <c r="D76" s="2">
+        <f>LoRa_TxDone!D76</f>
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <f>LoRa_TxDone!E76</f>
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <f>LoRa_TxDone!F76</f>
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <f>LoRa_TxDone!G76</f>
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <f>LoRa_TxDone!H76</f>
+        <v>0</v>
+      </c>
+      <c r="I76" s="2">
+        <f>LoRa_TxDone!I76</f>
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <f>LoRa_TxDone!J76</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B77">
+        <f>LoRa_Reset!B77</f>
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <f>LoRa_TxDone!C77</f>
+        <v>0</v>
+      </c>
+      <c r="D77" s="2">
+        <f>LoRa_TxDone!D77</f>
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <f>LoRa_TxDone!E77</f>
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <f>LoRa_TxDone!F77</f>
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <f>LoRa_TxDone!G77</f>
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <f>LoRa_TxDone!H77</f>
+        <v>0</v>
+      </c>
+      <c r="I77" s="2">
+        <f>LoRa_TxDone!I77</f>
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <f>LoRa_TxDone!J77</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B78">
+        <f>LoRa_Reset!B78</f>
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <f>LoRa_Send_Header!C78</f>
+        <v>0</v>
+      </c>
+      <c r="D78" s="2">
+        <f>LoRa_Send_Header!D78</f>
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <f>LoRa_Send_Header!E78</f>
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <f>LoRa_Send_Header!F78</f>
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <f>LoRa_Send_Header!G78</f>
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <f>LoRa_Send_Header!H78</f>
+        <v>0</v>
+      </c>
+      <c r="I78" s="2">
+        <f>LoRa_Send_Header!I78</f>
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <f>LoRa_Send_Header!J78</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E79"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B9" location="LoRa_TxDone!C1" display="LoRa_TxDone" xr:uid="{31D92A3E-65EA-4796-A27A-F611CA5D7333}"/>
+    <hyperlink ref="C23" location="LoRa_RxDone_Fail!C1" display="LoRa_RxDone_Fail" xr:uid="{86A4D7CA-4AFC-49D0-96DE-6296433511C9}"/>
+    <hyperlink ref="C22" location="LoRa_RxDone_OK!C1" display="LoRa_RxDone_OK" xr:uid="{FF9C85BB-3BBD-4DAE-9DE6-606593DE6EC2}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{030D4F84-97D6-4E32-8597-4214AE57024E}">
   <dimension ref="B1:J79"/>
   <sheetViews>
@@ -4717,7 +7432,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC943B5C-503A-48D0-8570-A47927044E37}">
   <dimension ref="B1:J79"/>
   <sheetViews>
@@ -7419,7 +10134,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DBA7EBB-340E-41FF-9170-9AF91455FE10}">
   <dimension ref="B1:J79"/>
   <sheetViews>
@@ -10136,11 +12851,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09324BC1-4AD6-47CC-A10A-1F0A48DC9E9A}">
   <dimension ref="B1:J79"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
+    <sheetView showZeros="0" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
@@ -12845,7 +15560,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{383CE30C-7C07-4037-B756-81F326DBACCC}">
   <dimension ref="B1:J79"/>
   <sheetViews>
@@ -15561,7 +18276,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF7B8A4F-F405-4110-AC11-0FF696CD3E47}">
   <dimension ref="B1:J79"/>
   <sheetViews>
@@ -18280,7 +20995,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BCF829F-8798-4417-A16D-2CD551197317}">
   <dimension ref="B1:J79"/>
   <sheetViews>
@@ -20986,7 +23701,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5AC47E0-EC6C-4126-95C0-3111564577BE}">
   <dimension ref="B1:J79"/>
   <sheetViews>
@@ -32518,8 +35233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E72B457A-F78B-4A5B-ADFE-11D9EFECE114}">
   <dimension ref="B1:J78"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I55" sqref="I55"/>
+    <sheetView showZeros="0" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -33057,7 +35772,6 @@
         <f>LoRa_Reset!B21</f>
         <v>0</v>
       </c>
-      <c r="C21" s="21"/>
       <c r="D21" s="22"/>
       <c r="E21" s="22"/>
       <c r="F21" s="23"/>
@@ -33083,7 +35797,9 @@
         <f>LoRa_Reset!B22</f>
         <v>0</v>
       </c>
-      <c r="C22" s="21"/>
+      <c r="C22" s="21" t="s">
+        <v>24</v>
+      </c>
       <c r="D22" s="22"/>
       <c r="E22" s="22"/>
       <c r="F22" s="23"/>
@@ -35214,6 +37930,2928 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AA898FA-7659-4B78-92E6-AD8ECED85987}">
+  <dimension ref="B1:J78"/>
+  <sheetViews>
+    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.25" customWidth="1"/>
+    <col min="3" max="3" width="44.875" customWidth="1"/>
+    <col min="4" max="5" width="24.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="5.75" customWidth="1"/>
+    <col min="7" max="7" width="27" customWidth="1"/>
+    <col min="8" max="8" width="27.5" customWidth="1"/>
+    <col min="9" max="9" width="31.875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="28.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C1" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <f>LoRa_Reset!B3</f>
+        <v>0</v>
+      </c>
+      <c r="C3" t="str">
+        <f>LoRa_TimerHandshaking_HTX!C3</f>
+        <v>LoRa_transmitStatus</v>
+      </c>
+      <c r="D3" s="2" t="str">
+        <f>LoRa_TimerHandshaking_HTX!D3</f>
+        <v>LoRa_transmit_Error</v>
+      </c>
+      <c r="E3">
+        <f>LoRa_TimerHandshaking_HTX!E3</f>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f>LoRa_TimerHandshaking_HTX!F3</f>
+        <v>0</v>
+      </c>
+      <c r="G3" t="str">
+        <f>LoRa_TimerHandshaking_HTX!G3</f>
+        <v>LoRaMacState_t</v>
+      </c>
+      <c r="H3" t="str">
+        <f>LoRa_TimerHandshaking_HTX!H3</f>
+        <v>LoRa_transmitStatus</v>
+      </c>
+      <c r="I3" s="2" t="str">
+        <f>LoRa_TimerHandshaking_HTX!I3</f>
+        <v>LoRa_transmit_Error</v>
+      </c>
+      <c r="J3">
+        <f>LoRa_TimerHandshaking_HTX!J3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <f>LoRa_Reset!B4</f>
+        <v>0</v>
+      </c>
+      <c r="C4" t="str">
+        <f>LoRa_TimerHandshaking_HTX!C4</f>
+        <v>LoRa_StatusDanych</v>
+      </c>
+      <c r="D4" s="2" t="str">
+        <f>LoRa_TimerHandshaking_HTX!D4</f>
+        <v>LoRa_transmiting</v>
+      </c>
+      <c r="E4">
+        <f>LoRa_TimerHandshaking_HTX!E4</f>
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f>LoRa_TimerHandshaking_HTX!F4</f>
+        <v>0</v>
+      </c>
+      <c r="G4" t="str">
+        <f>LoRa_TimerHandshaking_HTX!G4</f>
+        <v>LoRaStatus_t</v>
+      </c>
+      <c r="H4" t="str">
+        <f>LoRa_TimerHandshaking_HTX!H4</f>
+        <v>LoRa_StatusDanych</v>
+      </c>
+      <c r="I4" s="2" t="str">
+        <f>LoRa_TimerHandshaking_HTX!I4</f>
+        <v>LoRa_transmitIdle</v>
+      </c>
+      <c r="J4">
+        <f>LoRa_TimerHandshaking_HTX!J4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <f>LoRa_Reset!B5</f>
+        <v>0</v>
+      </c>
+      <c r="C5" t="str">
+        <f>LoRa_TimerHandshaking_HTX!C5</f>
+        <v>flags</v>
+      </c>
+      <c r="D5" s="2" t="str">
+        <f>LoRa_TimerHandshaking_HTX!D5</f>
+        <v>0</v>
+      </c>
+      <c r="E5" t="str">
+        <f>LoRa_TimerHandshaking_HTX!E5</f>
+        <v>RADIO_FLAG_TRANSMITTING</v>
+      </c>
+      <c r="F5">
+        <f>LoRa_TimerHandshaking_HTX!F5</f>
+        <v>0</v>
+      </c>
+      <c r="G5" t="str">
+        <f>LoRa_TimerHandshaking_HTX!G5</f>
+        <v>bool</v>
+      </c>
+      <c r="H5" t="str">
+        <f>LoRa_TimerHandshaking_HTX!H5</f>
+        <v>LoRa_initialised</v>
+      </c>
+      <c r="I5" s="2" t="str">
+        <f>LoRa_TimerHandshaking_HTX!I5</f>
+        <v>ENABLED</v>
+      </c>
+      <c r="J5">
+        <f>LoRa_TimerHandshaking_HTX!J5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <f>LoRa_Reset!B6</f>
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <f>LoRa_TimerHandshaking_HTX!C6</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <f>LoRa_TimerHandshaking_HTX!D6</f>
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <f>LoRa_TimerHandshaking_HTX!E6</f>
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <f>LoRa_TimerHandshaking_HTX!F6</f>
+        <v>0</v>
+      </c>
+      <c r="G6" t="str">
+        <f>LoRa_TimerHandshaking_HTX!G6</f>
+        <v>FCnt_t</v>
+      </c>
+      <c r="H6" t="str">
+        <f>LoRa_TimerHandshaking_HTX!H6</f>
+        <v>LoRa_Counnter</v>
+      </c>
+      <c r="I6" s="2" t="str">
+        <f>LoRa_TimerHandshaking_HTX!I6</f>
+        <v>++</v>
+      </c>
+      <c r="J6">
+        <f>LoRa_TimerHandshaking_HTX!J6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <f>LoRa_Reset!B7</f>
+        <v>0</v>
+      </c>
+      <c r="C7" s="18">
+        <f>LoRa_TimerHandshaking_HTX!C7</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="30">
+        <f>LoRa_TimerHandshaking_HTX!D7</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="19">
+        <f>LoRa_TimerHandshaking_HTX!E7</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="20">
+        <f>LoRa_TimerHandshaking_HTX!F7</f>
+        <v>0</v>
+      </c>
+      <c r="G7" t="str">
+        <f>LoRa_TimerHandshaking_HTX!G7</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H7" t="str">
+        <f>LoRa_TimerHandshaking_HTX!H7</f>
+        <v>LoRa_Addres</v>
+      </c>
+      <c r="I7" s="2" t="str">
+        <f>LoRa_TimerHandshaking_HTX!I7</f>
+        <v>LoRaDeviceAddress</v>
+      </c>
+      <c r="J7">
+        <f>LoRa_TimerHandshaking_HTX!J7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <f>LoRa_Reset!B8</f>
+        <v>0</v>
+      </c>
+      <c r="C8" s="21">
+        <f>LoRa_TimerHandshaking_HTX!C8</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="31">
+        <f>LoRa_TimerHandshaking_HTX!D8</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="22">
+        <f>LoRa_TimerHandshaking_HTX!E8</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="23">
+        <f>LoRa_TimerHandshaking_HTX!F8</f>
+        <v>0</v>
+      </c>
+      <c r="G8" t="str">
+        <f>LoRa_TimerHandshaking_HTX!G8</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H8" t="str">
+        <f>LoRa_TimerHandshaking_HTX!H8</f>
+        <v>LoRa_TimerHandshaking</v>
+      </c>
+      <c r="I8" s="2" t="str">
+        <f>LoRa_TimerHandshaking_HTX!I8</f>
+        <v>0</v>
+      </c>
+      <c r="J8" t="str">
+        <f>LoRa_TimerHandshaking_HTX!J8</f>
+        <v>LoRa_TimerHandshakingCallback</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="21">
+        <f>LoRa_TimerHandshaking_HTX!C9</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="31">
+        <f>LoRa_TimerHandshaking_HTX!D9</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="22">
+        <f>LoRa_TimerHandshaking_HTX!E9</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="23">
+        <f>LoRa_TimerHandshaking_HTX!F9</f>
+        <v>0</v>
+      </c>
+      <c r="G9" t="str">
+        <f>LoRa_TimerHandshaking_HTX!G9</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H9" t="str">
+        <f>LoRa_TimerHandshaking_HTX!H9</f>
+        <v>LoRa_TimerRetransmit</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="J9" t="str">
+        <f>LoRa_TimerHandshaking_HTX!J9</f>
+        <v>LoRa_TimerRetransmitCallback</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <f>LoRa_Reset!B10</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="21">
+        <f>LoRa_TimerHandshaking_HTX!C10</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="31">
+        <f>LoRa_TimerHandshaking_HTX!D10</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="22">
+        <f>LoRa_TimerHandshaking_HTX!E10</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="23">
+        <f>LoRa_TimerHandshaking_HTX!F10</f>
+        <v>0</v>
+      </c>
+      <c r="G10" t="str">
+        <f>LoRa_TimerHandshaking_HTX!G10</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H10" t="str">
+        <f>LoRa_TimerHandshaking_HTX!H10</f>
+        <v>LoRa_TimerWaitAck</v>
+      </c>
+      <c r="I10" s="2" t="str">
+        <f>LoRa_TimerHandshaking_HTX!I10</f>
+        <v>0</v>
+      </c>
+      <c r="J10" t="str">
+        <f>LoRa_TimerHandshaking_HTX!J10</f>
+        <v>LoRa_TimerWaitAckCallback</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <f>LoRa_Reset!B11</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="21">
+        <f>LoRa_TimerHandshaking_HTX!C11</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="31">
+        <f>LoRa_TimerHandshaking_HTX!D11</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="22">
+        <f>LoRa_TimerHandshaking_HTX!E11</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="23">
+        <f>LoRa_TimerHandshaking_HTX!F11</f>
+        <v>0</v>
+      </c>
+      <c r="G11" t="str">
+        <f>LoRa_TimerHandshaking_HTX!G11</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H11" t="str">
+        <f>LoRa_TimerHandshaking_HTX!H11</f>
+        <v>LoRa_HeaderBufor</v>
+      </c>
+      <c r="I11" s="2" t="str">
+        <f>LoRa_TimerHandshaking_HTX!I11</f>
+        <v>LoRa_Addres, nxt_channel</v>
+      </c>
+      <c r="J11">
+        <f>LoRa_TimerHandshaking_HTX!J11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <f>LoRa_Reset!B12</f>
+        <v>0</v>
+      </c>
+      <c r="C12" s="21">
+        <f>LoRa_TimerHandshaking_HTX!C12</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="31">
+        <f>LoRa_TimerHandshaking_HTX!D12</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="22">
+        <f>LoRa_TimerHandshaking_HTX!E12</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="23">
+        <f>LoRa_TimerHandshaking_HTX!F12</f>
+        <v>0</v>
+      </c>
+      <c r="G12" t="str">
+        <f>LoRa_TimerHandshaking_HTX!G12</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H12" t="str">
+        <f>LoRa_TimerHandshaking_HTX!H12</f>
+        <v>LoRa_HeaderLength</v>
+      </c>
+      <c r="I12" s="2" t="str">
+        <f>LoRa_TimerHandshaking_HTX!I12</f>
+        <v>bufferHeadIndex</v>
+      </c>
+      <c r="J12">
+        <f>LoRa_TimerHandshaking_HTX!J12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <f>LoRa_Reset!B13</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="21">
+        <f>LoRa_TimerHandshaking_HTX!C13</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="31">
+        <f>LoRa_TimerHandshaking_HTX!D13</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="22">
+        <f>LoRa_TimerHandshaking_HTX!E13</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="23">
+        <f>LoRa_TimerHandshaking_HTX!F13</f>
+        <v>0</v>
+      </c>
+      <c r="G13" t="str">
+        <f>LoRa_TimerHandshaking_HTX!G13</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H13" t="str">
+        <f>LoRa_TimerHandshaking_HTX!H13</f>
+        <v>LoRa_Bufor</v>
+      </c>
+      <c r="I13" s="2" t="str">
+        <f>LoRa_TimerHandshaking_HTX!I13</f>
+        <v>bufferIndex, nxt_channel, data, CRC</v>
+      </c>
+      <c r="J13">
+        <f>LoRa_TimerHandshaking_HTX!J13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <f>LoRa_Reset!B14</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="21">
+        <f>LoRa_TimerHandshaking_HTX!C14</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="31">
+        <f>LoRa_TimerHandshaking_HTX!D14</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="22">
+        <f>LoRa_TimerHandshaking_HTX!E14</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="23">
+        <f>LoRa_TimerHandshaking_HTX!F14</f>
+        <v>0</v>
+      </c>
+      <c r="G14" t="str">
+        <f>LoRa_TimerHandshaking_HTX!G14</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H14" t="str">
+        <f>LoRa_TimerHandshaking_HTX!H14</f>
+        <v>LoRa_BuforLength</v>
+      </c>
+      <c r="I14" s="2" t="str">
+        <f>LoRa_TimerHandshaking_HTX!I14</f>
+        <v>bufferIndex</v>
+      </c>
+      <c r="J14">
+        <f>LoRa_TimerHandshaking_HTX!J14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <f>LoRa_Reset!B15</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="21">
+        <f>LoRa_TimerHandshaking_HTX!C15</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="31">
+        <f>LoRa_TimerHandshaking_HTX!D15</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="22">
+        <f>LoRa_TimerHandshaking_HTX!E15</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="23">
+        <f>LoRa_TimerHandshaking_HTX!F15</f>
+        <v>0</v>
+      </c>
+      <c r="G15" t="str">
+        <f>LoRa_TimerHandshaking_HTX!G15</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H15" t="str">
+        <f>LoRa_TimerHandshaking_HTX!H15</f>
+        <v>LoRa_Command</v>
+      </c>
+      <c r="I15" s="2">
+        <f>LoRa_TimerHandshaking_HTX!I15</f>
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <f>LoRa_TimerHandshaking_HTX!J15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <f>LoRa_Reset!B16</f>
+        <v>0</v>
+      </c>
+      <c r="C16" s="21">
+        <f>LoRa_TimerHandshaking_HTX!C16</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="31">
+        <f>LoRa_TimerHandshaking_HTX!D16</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="22">
+        <f>LoRa_TimerHandshaking_HTX!E16</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="23">
+        <f>LoRa_TimerHandshaking_HTX!F16</f>
+        <v>0</v>
+      </c>
+      <c r="G16" t="str">
+        <f>LoRa_TimerHandshaking_HTX!G16</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H16" t="str">
+        <f>LoRa_TimerHandshaking_HTX!H16</f>
+        <v>LoRa_maxChannels</v>
+      </c>
+      <c r="I16" s="2" t="str">
+        <f>LoRa_TimerHandshaking_HTX!I16</f>
+        <v>MAX_EU_SINGLE_BAND_CHANNELS</v>
+      </c>
+      <c r="J16">
+        <f>LoRa_TimerHandshaking_HTX!J16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <f>LoRa_Reset!B17</f>
+        <v>0</v>
+      </c>
+      <c r="C17" s="21">
+        <f>LoRa_TimerHandshaking_HTX!C17</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="31">
+        <f>LoRa_TimerHandshaking_HTX!D17</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="22">
+        <f>LoRa_TimerHandshaking_HTX!E17</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="23">
+        <f>LoRa_TimerHandshaking_HTX!F17</f>
+        <v>0</v>
+      </c>
+      <c r="G17" t="str">
+        <f>LoRa_TimerHandshaking_HTX!G17</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H17" t="str">
+        <f>LoRa_TimerHandshaking_HTX!H17</f>
+        <v>LoRa_lastUsedChannelIndex</v>
+      </c>
+      <c r="I17" s="2" t="str">
+        <f>LoRa_TimerHandshaking_HTX!I17</f>
+        <v>CH_nr</v>
+      </c>
+      <c r="J17">
+        <f>LoRa_TimerHandshaking_HTX!J17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <f>LoRa_Reset!B18</f>
+        <v>0</v>
+      </c>
+      <c r="C18" s="21">
+        <f>LoRa_TimerHandshaking_HTX!C18</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="31">
+        <f>LoRa_TimerHandshaking_HTX!D18</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="22">
+        <f>LoRa_TimerHandshaking_HTX!E18</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="23">
+        <f>LoRa_TimerHandshaking_HTX!F18</f>
+        <v>0</v>
+      </c>
+      <c r="G18" t="str">
+        <f>LoRa_TimerHandshaking_HTX!G18</f>
+        <v>ReceiveWindowParameters_t</v>
+      </c>
+      <c r="H18" t="str">
+        <f>LoRa_TimerHandshaking_HTX!H18</f>
+        <v>LoRa_ch0_params.frequency</v>
+      </c>
+      <c r="I18" s="2" t="str">
+        <f>LoRa_TimerHandshaking_HTX!I18</f>
+        <v>LoRa_CH0_frequency</v>
+      </c>
+      <c r="J18">
+        <f>LoRa_TimerHandshaking_HTX!J18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <f>LoRa_Reset!B19</f>
+        <v>0</v>
+      </c>
+      <c r="C19" s="21">
+        <f>LoRa_TimerHandshaking_HTX!C19</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="31">
+        <f>LoRa_TimerHandshaking_HTX!D19</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="22">
+        <f>LoRa_TimerHandshaking_HTX!E19</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="23">
+        <f>LoRa_TimerHandshaking_HTX!F19</f>
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <f>LoRa_TimerHandshaking_HTX!G19</f>
+        <v>0</v>
+      </c>
+      <c r="H19" t="str">
+        <f>LoRa_TimerHandshaking_HTX!H19</f>
+        <v>LoRa_ch0_params.datarate</v>
+      </c>
+      <c r="I19" s="2" t="str">
+        <f>LoRa_TimerHandshaking_HTX!I19</f>
+        <v>LoRa_CH0_datarate</v>
+      </c>
+      <c r="J19">
+        <f>LoRa_TimerHandshaking_HTX!J19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <f>LoRa_Reset!B20</f>
+        <v>0</v>
+      </c>
+      <c r="C20" s="21">
+        <f>LoRa_TimerHandshaking_HTX!C20</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="31">
+        <f>LoRa_TimerHandshaking_HTX!D20</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="22">
+        <f>LoRa_TimerHandshaking_HTX!E20</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="23">
+        <f>LoRa_TimerHandshaking_HTX!F20</f>
+        <v>0</v>
+      </c>
+      <c r="G20" t="str">
+        <f>LoRa_TimerHandshaking_HTX!G20</f>
+        <v>ReceiveWindowParameters_t</v>
+      </c>
+      <c r="H20" t="str">
+        <f>LoRa_TimerHandshaking_HTX!H20</f>
+        <v>LoRa_receiveChannelParameters.frequency</v>
+      </c>
+      <c r="I20" s="2" t="str">
+        <f>LoRa_TimerHandshaking_HTX!I20</f>
+        <v>Channels[CH_nr].frequency</v>
+      </c>
+      <c r="J20">
+        <f>LoRa_TimerHandshaking_HTX!J20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <f>LoRa_Reset!B21</f>
+        <v>0</v>
+      </c>
+      <c r="C21" s="21">
+        <f>LoRa_TimerHandshaking_HTX!C21</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="31">
+        <f>LoRa_TimerHandshaking_HTX!D21</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="22">
+        <f>LoRa_TimerHandshaking_HTX!E21</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="23">
+        <f>LoRa_TimerHandshaking_HTX!F21</f>
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <f>LoRa_TimerHandshaking_HTX!G21</f>
+        <v>0</v>
+      </c>
+      <c r="H21" t="str">
+        <f>LoRa_TimerHandshaking_HTX!H21</f>
+        <v>LoRa_receiveChannelParameters.dataRate</v>
+      </c>
+      <c r="I21" s="2" t="str">
+        <f>LoRa_TimerHandshaking_HTX!I21</f>
+        <v>LoRa_currentDataRate</v>
+      </c>
+      <c r="J21">
+        <f>LoRa_TimerHandshaking_HTX!J21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <f>LoRa_Reset!B22</f>
+        <v>0</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="D22" s="31">
+        <f>LoRa_TimerHandshaking_HTX!D22</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="22">
+        <f>LoRa_TimerHandshaking_HTX!E22</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="23">
+        <f>LoRa_TimerHandshaking_HTX!F22</f>
+        <v>0</v>
+      </c>
+      <c r="G22" t="str">
+        <f>LoRa_TimerHandshaking_HTX!G22</f>
+        <v>ReceiveWindowParameters_t</v>
+      </c>
+      <c r="H22" t="str">
+        <f>LoRa_TimerHandshaking_HTX!H22</f>
+        <v>LoRa_sendChannelParameters.frequency</v>
+      </c>
+      <c r="I22" s="2" t="str">
+        <f>LoRa_TimerHandshaking_HTX!I22</f>
+        <v>Channels[CH_nr].frequency</v>
+      </c>
+      <c r="J22">
+        <f>LoRa_TimerHandshaking_HTX!J22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <f>LoRa_Reset!B23</f>
+        <v>0</v>
+      </c>
+      <c r="C23" s="21">
+        <f>LoRa_TimerHandshaking_HTX!C23</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="31">
+        <f>LoRa_TimerHandshaking_HTX!D23</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="22">
+        <f>LoRa_TimerHandshaking_HTX!E23</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="23">
+        <f>LoRa_TimerHandshaking_HTX!F23</f>
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <f>LoRa_TimerHandshaking_HTX!G23</f>
+        <v>0</v>
+      </c>
+      <c r="H23" t="str">
+        <f>LoRa_TimerHandshaking_HTX!H23</f>
+        <v>LoRa_sendChannelParameters.dataRate</v>
+      </c>
+      <c r="I23" s="2" t="str">
+        <f>LoRa_TimerHandshaking_HTX!I23</f>
+        <v>LoRa_currentDataRate</v>
+      </c>
+      <c r="J23">
+        <f>LoRa_TimerHandshaking_HTX!J23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <f>LoRa_Reset!B24</f>
+        <v>0</v>
+      </c>
+      <c r="C24" s="26">
+        <f>LoRa_TimerHandshaking_HTX!C24</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="32">
+        <f>LoRa_TimerHandshaking_HTX!D24</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="27">
+        <f>LoRa_TimerHandshaking_HTX!E24</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="28">
+        <f>LoRa_TimerHandshaking_HTX!F24</f>
+        <v>0</v>
+      </c>
+      <c r="G24" t="str">
+        <f>LoRa_TimerHandshaking_HTX!G24</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H24" t="str">
+        <f>LoRa_TimerHandshaking_HTX!H24</f>
+        <v>LoRa_txPower</v>
+      </c>
+      <c r="I24" s="2">
+        <f>LoRa_TimerHandshaking_HTX!I24</f>
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <f>LoRa_TimerHandshaking_HTX!J24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <f>LoRa_Reset!B25</f>
+        <v>0</v>
+      </c>
+      <c r="C25" t="str">
+        <f>LoRa_TimerHandshaking_HTX!C25</f>
+        <v>DATA</v>
+      </c>
+      <c r="D25" s="2" t="str">
+        <f>LoRa_TimerHandshaking_HTX!D25</f>
+        <v>LoRa_HeaderBufor</v>
+      </c>
+      <c r="E25">
+        <f>LoRa_TimerHandshaking_HTX!E25</f>
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <f>LoRa_TimerHandshaking_HTX!F25</f>
+        <v>0</v>
+      </c>
+      <c r="G25" t="str">
+        <f>LoRa_TimerHandshaking_HTX!G25</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H25" t="str">
+        <f>LoRa_TimerHandshaking_HTX!H25</f>
+        <v>LoRa_syncWord</v>
+      </c>
+      <c r="I25" s="2" t="str">
+        <f>LoRa_TimerHandshaking_HTX!I25</f>
+        <v>0x34</v>
+      </c>
+      <c r="J25">
+        <f>LoRa_TimerHandshaking_HTX!J25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" t="str">
+        <f>LoRa_Reset!B26</f>
+        <v>RADIO</v>
+      </c>
+      <c r="C26" t="str">
+        <f>LoRa_TimerHandshaking_HTX!C26</f>
+        <v>mode</v>
+      </c>
+      <c r="D26" s="2" t="str">
+        <f>LoRa_TimerHandshaking_HTX!D26</f>
+        <v>MODE_SLEEP</v>
+      </c>
+      <c r="E26">
+        <f>LoRa_TimerHandshaking_HTX!E26</f>
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <f>LoRa_TimerHandshaking_HTX!F26</f>
+        <v>0</v>
+      </c>
+      <c r="G26" t="str">
+        <f>LoRa_TimerHandshaking_HTX!G26</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H26" t="str">
+        <f>LoRa_TimerHandshaking_HTX!H26</f>
+        <v>LoRa_batteryLevel</v>
+      </c>
+      <c r="I26" s="2" t="str">
+        <f>LoRa_TimerHandshaking_HTX!I26</f>
+        <v>BATTERY_LEVEL_INVALID</v>
+      </c>
+      <c r="J26">
+        <f>LoRa_TimerHandshaking_HTX!J26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <f>LoRa_Reset!B27</f>
+        <v>0</v>
+      </c>
+      <c r="C27" t="str">
+        <f>LoRa_TimerHandshaking_HTX!C27</f>
+        <v>modulation</v>
+      </c>
+      <c r="D27" s="2" t="str">
+        <f>LoRa_TimerHandshaking_HTX!D27</f>
+        <v>modulation[dataRate]</v>
+      </c>
+      <c r="E27">
+        <f>LoRa_TimerHandshaking_HTX!E27</f>
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <f>LoRa_TimerHandshaking_HTX!F27</f>
+        <v>0</v>
+      </c>
+      <c r="G27" t="str">
+        <f>LoRa_TimerHandshaking_HTX!G27</f>
+        <v>IsmBand_t</v>
+      </c>
+      <c r="H27" t="str">
+        <f>LoRa_TimerHandshaking_HTX!H27</f>
+        <v>LoRa_ismBand</v>
+      </c>
+      <c r="I27" s="2" t="str">
+        <f>LoRa_TimerHandshaking_HTX!I27</f>
+        <v>ISM_EU868</v>
+      </c>
+      <c r="J27">
+        <f>LoRa_TimerHandshaking_HTX!J27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <f>LoRa_Reset!B28</f>
+        <v>0</v>
+      </c>
+      <c r="C28" t="str">
+        <f>LoRa_TimerHandshaking_HTX!C28</f>
+        <v>frequency</v>
+      </c>
+      <c r="D28" s="2" t="str">
+        <f>LoRa_TimerHandshaking_HTX!D28</f>
+        <v>freq</v>
+      </c>
+      <c r="E28">
+        <f>LoRa_TimerHandshaking_HTX!E28</f>
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <f>LoRa_TimerHandshaking_HTX!F28</f>
+        <v>0</v>
+      </c>
+      <c r="G28" t="str">
+        <f>LoRa_TimerHandshaking_HTX!G28</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H28" t="str">
+        <f>LoRa_TimerHandshaking_HTX!H28</f>
+        <v>LoRa_currentDataRate</v>
+      </c>
+      <c r="I28" s="2" t="str">
+        <f>LoRa_TimerHandshaking_HTX!I28</f>
+        <v>DR0</v>
+      </c>
+      <c r="J28">
+        <f>LoRa_TimerHandshaking_HTX!J28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <f>LoRa_Reset!B29</f>
+        <v>0</v>
+      </c>
+      <c r="C29" t="str">
+        <f>LoRa_TimerHandshaking_HTX!C29</f>
+        <v>payload</v>
+      </c>
+      <c r="D29" s="2" t="str">
+        <f>LoRa_TimerHandshaking_HTX!D29</f>
+        <v>bufferHeadIndex</v>
+      </c>
+      <c r="E29">
+        <f>LoRa_TimerHandshaking_HTX!E29</f>
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <f>LoRa_TimerHandshaking_HTX!F29</f>
+        <v>0</v>
+      </c>
+      <c r="G29" t="str">
+        <f>LoRa_TimerHandshaking_HTX!G29</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H29" t="str">
+        <f>LoRa_TimerHandshaking_HTX!H29</f>
+        <v>LoRa_minDataRate</v>
+      </c>
+      <c r="I29" s="2" t="str">
+        <f>LoRa_TimerHandshaking_HTX!I29</f>
+        <v>DR0</v>
+      </c>
+      <c r="J29">
+        <f>LoRa_TimerHandshaking_HTX!J29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <f>LoRa_Reset!B30</f>
+        <v>0</v>
+      </c>
+      <c r="C30" t="str">
+        <f>LoRa_TimerHandshaking_HTX!C30</f>
+        <v>power</v>
+      </c>
+      <c r="D30" s="2" t="str">
+        <f>LoRa_TimerHandshaking_HTX!D30</f>
+        <v>txPower868[LoRa_txPower]</v>
+      </c>
+      <c r="E30">
+        <f>LoRa_TimerHandshaking_HTX!E30</f>
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <f>LoRa_TimerHandshaking_HTX!F30</f>
+        <v>0</v>
+      </c>
+      <c r="G30" t="str">
+        <f>LoRa_TimerHandshaking_HTX!G30</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H30" t="str">
+        <f>LoRa_TimerHandshaking_HTX!H30</f>
+        <v>LoRa_maxDataRate</v>
+      </c>
+      <c r="I30" s="2" t="str">
+        <f>LoRa_TimerHandshaking_HTX!I30</f>
+        <v>DR7</v>
+      </c>
+      <c r="J30">
+        <f>LoRa_TimerHandshaking_HTX!J30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <f>LoRa_Reset!B31</f>
+        <v>0</v>
+      </c>
+      <c r="C31" t="str">
+        <f>LoRa_TimerHandshaking_HTX!C31</f>
+        <v>SpreadingFactor</v>
+      </c>
+      <c r="D31" s="2" t="str">
+        <f>LoRa_TimerHandshaking_HTX!D31</f>
+        <v>spreadingFactor[dataRate]</v>
+      </c>
+      <c r="E31">
+        <f>LoRa_TimerHandshaking_HTX!E31</f>
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <f>LoRa_TimerHandshaking_HTX!F31</f>
+        <v>0</v>
+      </c>
+      <c r="G31" t="str">
+        <f>LoRa_TimerHandshaking_HTX!G31</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H31" t="str">
+        <f>LoRa_TimerHandshaking_HTX!H31</f>
+        <v>LoRa_nextUsedChannel</v>
+      </c>
+      <c r="I31" s="2">
+        <f>LoRa_TimerHandshaking_HTX!I31</f>
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <f>LoRa_TimerHandshaking_HTX!J31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <f>LoRa_Reset!B32</f>
+        <v>0</v>
+      </c>
+      <c r="C32" t="str">
+        <f>LoRa_TimerHandshaking_HTX!C32</f>
+        <v>Bandwidth</v>
+      </c>
+      <c r="D32" s="2" t="str">
+        <f>LoRa_TimerHandshaking_HTX!D32</f>
+        <v>bandwidth[dataRate]</v>
+      </c>
+      <c r="E32">
+        <f>LoRa_TimerHandshaking_HTX!E32</f>
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <f>LoRa_TimerHandshaking_HTX!F32</f>
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <f>LoRa_TimerHandshaking_HTX!G32</f>
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <f>LoRa_TimerHandshaking_HTX!H32</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="2">
+        <f>LoRa_TimerHandshaking_HTX!I32</f>
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <f>LoRa_TimerHandshaking_HTX!J32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <f>LoRa_Reset!B33</f>
+        <v>0</v>
+      </c>
+      <c r="C33" t="str">
+        <f>LoRa_TimerHandshaking_HTX!C33</f>
+        <v>SyncWord</v>
+      </c>
+      <c r="D33" s="2" t="str">
+        <f>LoRa_TimerHandshaking_HTX!D33</f>
+        <v>LoRa_syncWord</v>
+      </c>
+      <c r="E33">
+        <f>LoRa_TimerHandshaking_HTX!E33</f>
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <f>LoRa_TimerHandshaking_HTX!F33</f>
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <f>LoRa_TimerHandshaking_HTX!G33</f>
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <f>LoRa_TimerHandshaking_HTX!H33</f>
+        <v>0</v>
+      </c>
+      <c r="I33" s="2">
+        <f>LoRa_TimerHandshaking_HTX!I33</f>
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <f>LoRa_TimerHandshaking_HTX!J33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <f>LoRa_Reset!B34</f>
+        <v>0</v>
+      </c>
+      <c r="C34" t="str">
+        <f>LoRa_TimerHandshaking_HTX!C34</f>
+        <v>CRC</v>
+      </c>
+      <c r="D34" s="2" t="str">
+        <f>LoRa_TimerHandshaking_HTX!D34</f>
+        <v>ENABLED</v>
+      </c>
+      <c r="E34">
+        <f>LoRa_TimerHandshaking_HTX!E34</f>
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <f>LoRa_TimerHandshaking_HTX!F34</f>
+        <v>0</v>
+      </c>
+      <c r="G34" t="str">
+        <f>LoRa_TimerHandshaking_HTX!G34</f>
+        <v>uint32_t</v>
+      </c>
+      <c r="H34" t="str">
+        <f>LoRa_TimerHandshaking_HTX!H34</f>
+        <v>frequency;</v>
+      </c>
+      <c r="I34" s="2" t="str">
+        <f>LoRa_TimerHandshaking_HTX!I34</f>
+        <v>freq</v>
+      </c>
+      <c r="J34">
+        <f>LoRa_TimerHandshaking_HTX!J34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <f>LoRa_Reset!B35</f>
+        <v>0</v>
+      </c>
+      <c r="C35" t="str">
+        <f>LoRa_TimerHandshaking_HTX!C35</f>
+        <v>IQInverted</v>
+      </c>
+      <c r="D35" s="2" t="str">
+        <f>LoRa_TimerHandshaking_HTX!D35</f>
+        <v>DISABLED</v>
+      </c>
+      <c r="E35">
+        <f>LoRa_TimerHandshaking_HTX!E35</f>
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <f>LoRa_TimerHandshaking_HTX!F35</f>
+        <v>0</v>
+      </c>
+      <c r="G35" t="str">
+        <f>LoRa_TimerHandshaking_HTX!G35</f>
+        <v>uint32_t</v>
+      </c>
+      <c r="H35" t="str">
+        <f>LoRa_TimerHandshaking_HTX!H35</f>
+        <v>frequencyDeviation;</v>
+      </c>
+      <c r="I35" s="2">
+        <f>LoRa_TimerHandshaking_HTX!I35</f>
+        <v>25000</v>
+      </c>
+      <c r="J35">
+        <f>LoRa_TimerHandshaking_HTX!J35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <f>LoRa_Reset!B36</f>
+        <v>0</v>
+      </c>
+      <c r="C36" t="str">
+        <f>LoRa_TimerHandshaking_HTX!C36</f>
+        <v>HopPeriod</v>
+      </c>
+      <c r="D36" s="2" t="str">
+        <f>LoRa_TimerHandshaking_HTX!D36</f>
+        <v>DISABLED</v>
+      </c>
+      <c r="E36">
+        <f>LoRa_TimerHandshaking_HTX!E36</f>
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <f>LoRa_TimerHandshaking_HTX!F36</f>
+        <v>0</v>
+      </c>
+      <c r="G36" t="str">
+        <f>LoRa_TimerHandshaking_HTX!G36</f>
+        <v>uint32_t</v>
+      </c>
+      <c r="H36" t="str">
+        <f>LoRa_TimerHandshaking_HTX!H36</f>
+        <v>bitRate;</v>
+      </c>
+      <c r="I36" s="2">
+        <f>LoRa_TimerHandshaking_HTX!I36</f>
+        <v>50000</v>
+      </c>
+      <c r="J36">
+        <f>LoRa_TimerHandshaking_HTX!J36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <f>LoRa_Reset!B37</f>
+        <v>0</v>
+      </c>
+      <c r="C37" t="str">
+        <f>LoRa_TimerHandshaking_HTX!C37</f>
+        <v>errorCodingRate</v>
+      </c>
+      <c r="D37" s="2" t="str">
+        <f>LoRa_TimerHandshaking_HTX!D37</f>
+        <v>CR_4_5</v>
+      </c>
+      <c r="E37">
+        <f>LoRa_TimerHandshaking_HTX!E37</f>
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <f>LoRa_TimerHandshaking_HTX!F37</f>
+        <v>0</v>
+      </c>
+      <c r="G37" t="str">
+        <f>LoRa_TimerHandshaking_HTX!G37</f>
+        <v>uint16_t</v>
+      </c>
+      <c r="H37" t="str">
+        <f>LoRa_TimerHandshaking_HTX!H37</f>
+        <v>preambleLen;</v>
+      </c>
+      <c r="I37" s="2">
+        <f>LoRa_TimerHandshaking_HTX!I37</f>
+        <v>8</v>
+      </c>
+      <c r="J37">
+        <f>LoRa_TimerHandshaking_HTX!J37</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <f>LoRa_Reset!B38</f>
+        <v>0</v>
+      </c>
+      <c r="C38" t="str">
+        <f>LoRa_TimerHandshaking_HTX!C38</f>
+        <v>implicitHeaderMode</v>
+      </c>
+      <c r="D38" s="2" t="str">
+        <f>LoRa_TimerHandshaking_HTX!D38</f>
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <f>LoRa_TimerHandshaking_HTX!E38</f>
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <f>LoRa_TimerHandshaking_HTX!F38</f>
+        <v>0</v>
+      </c>
+      <c r="G38" t="str">
+        <f>LoRa_TimerHandshaking_HTX!G38</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H38" t="str">
+        <f>LoRa_TimerHandshaking_HTX!H38</f>
+        <v>syncWordLoRa;</v>
+      </c>
+      <c r="I38" s="2" t="str">
+        <f>LoRa_TimerHandshaking_HTX!I38</f>
+        <v>LoRa_syncWord</v>
+      </c>
+      <c r="J38">
+        <f>LoRa_TimerHandshaking_HTX!J38</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <f>LoRa_Reset!B39</f>
+        <v>0</v>
+      </c>
+      <c r="C39" t="str">
+        <f>LoRa_TimerHandshaking_HTX!C39</f>
+        <v>symbolTimeout</v>
+      </c>
+      <c r="D39" s="2">
+        <f>LoRa_TimerHandshaking_HTX!D39</f>
+        <v>4</v>
+      </c>
+      <c r="E39">
+        <f>LoRa_TimerHandshaking_HTX!E39</f>
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <f>LoRa_TimerHandshaking_HTX!F39</f>
+        <v>0</v>
+      </c>
+      <c r="G39" t="str">
+        <f>LoRa_TimerHandshaking_HTX!G39</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H39" t="str">
+        <f>LoRa_TimerHandshaking_HTX!H39</f>
+        <v>syncWord[8];</v>
+      </c>
+      <c r="I39" s="2" t="str">
+        <f>LoRa_TimerHandshaking_HTX!I39</f>
+        <v>0xc1 0x94 0xc1</v>
+      </c>
+      <c r="J39">
+        <f>LoRa_TimerHandshaking_HTX!J39</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <f>LoRa_Reset!B40</f>
+        <v>0</v>
+      </c>
+      <c r="C40" t="str">
+        <f>LoRa_TimerHandshaking_HTX!C40</f>
+        <v>FSKfreqDeviation</v>
+      </c>
+      <c r="D40" s="2">
+        <f>LoRa_TimerHandshaking_HTX!D40</f>
+        <v>25000</v>
+      </c>
+      <c r="E40">
+        <f>LoRa_TimerHandshaking_HTX!E40</f>
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <f>LoRa_TimerHandshaking_HTX!F40</f>
+        <v>0</v>
+      </c>
+      <c r="G40" t="str">
+        <f>LoRa_TimerHandshaking_HTX!G40</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H40" t="str">
+        <f>LoRa_TimerHandshaking_HTX!H40</f>
+        <v>syncWordLen;</v>
+      </c>
+      <c r="I40" s="2">
+        <f>LoRa_TimerHandshaking_HTX!I40</f>
+        <v>3</v>
+      </c>
+      <c r="J40">
+        <f>LoRa_TimerHandshaking_HTX!J40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <f>LoRa_Reset!B41</f>
+        <v>0</v>
+      </c>
+      <c r="C41" t="str">
+        <f>LoRa_TimerHandshaking_HTX!C41</f>
+        <v>FSKBitRate</v>
+      </c>
+      <c r="D41" s="2">
+        <f>LoRa_TimerHandshaking_HTX!D41</f>
+        <v>50000</v>
+      </c>
+      <c r="E41">
+        <f>LoRa_TimerHandshaking_HTX!E41</f>
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <f>LoRa_TimerHandshaking_HTX!F41</f>
+        <v>0</v>
+      </c>
+      <c r="G41" t="str">
+        <f>LoRa_TimerHandshaking_HTX!G41</f>
+        <v>RadioModulation_t</v>
+      </c>
+      <c r="H41" t="str">
+        <f>LoRa_TimerHandshaking_HTX!H41</f>
+        <v>modulation;</v>
+      </c>
+      <c r="I41" s="2" t="str">
+        <f>LoRa_TimerHandshaking_HTX!I41</f>
+        <v>modulation[dataRate]</v>
+      </c>
+      <c r="J41">
+        <f>LoRa_TimerHandshaking_HTX!J41</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <f>LoRa_Reset!B42</f>
+        <v>0</v>
+      </c>
+      <c r="C42" t="str">
+        <f>LoRa_TimerHandshaking_HTX!C42</f>
+        <v>FSK_PREAMBLE</v>
+      </c>
+      <c r="D42" s="2">
+        <f>LoRa_TimerHandshaking_HTX!D42</f>
+        <v>8</v>
+      </c>
+      <c r="E42">
+        <f>LoRa_TimerHandshaking_HTX!E42</f>
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <f>LoRa_TimerHandshaking_HTX!F42</f>
+        <v>0</v>
+      </c>
+      <c r="G42" t="str">
+        <f>LoRa_TimerHandshaking_HTX!G42</f>
+        <v>RadioDataRate_t</v>
+      </c>
+      <c r="H42" t="str">
+        <f>LoRa_TimerHandshaking_HTX!H42</f>
+        <v>dataRate;</v>
+      </c>
+      <c r="I42" s="2" t="str">
+        <f>LoRa_TimerHandshaking_HTX!I42</f>
+        <v>spreadingFactor[dataRate]</v>
+      </c>
+      <c r="J42">
+        <f>LoRa_TimerHandshaking_HTX!J42</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <f>LoRa_Reset!B43</f>
+        <v>0</v>
+      </c>
+      <c r="C43" t="str">
+        <f>LoRa_TimerHandshaking_HTX!C43</f>
+        <v>fskDataShaping</v>
+      </c>
+      <c r="D43" s="2" t="str">
+        <f>LoRa_TimerHandshaking_HTX!D43</f>
+        <v>FSK_SHAPING_GAUSS_BT_0_5</v>
+      </c>
+      <c r="E43">
+        <f>LoRa_TimerHandshaking_HTX!E43</f>
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <f>LoRa_TimerHandshaking_HTX!F43</f>
+        <v>0</v>
+      </c>
+      <c r="G43" t="str">
+        <f>LoRa_TimerHandshaking_HTX!G43</f>
+        <v>RadioLoRaBandWidth_t</v>
+      </c>
+      <c r="H43" t="str">
+        <f>LoRa_TimerHandshaking_HTX!H43</f>
+        <v>bandWidth;</v>
+      </c>
+      <c r="I43" s="2" t="str">
+        <f>LoRa_TimerHandshaking_HTX!I43</f>
+        <v>bandwidth[dataRate]</v>
+      </c>
+      <c r="J43">
+        <f>LoRa_TimerHandshaking_HTX!J43</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <f>LoRa_Reset!B44</f>
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <f>LoRa_TimerHandshaking_HTX!C44</f>
+        <v>0</v>
+      </c>
+      <c r="D44" s="2">
+        <f>LoRa_TimerHandshaking_HTX!D44</f>
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <f>LoRa_TimerHandshaking_HTX!E44</f>
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <f>LoRa_TimerHandshaking_HTX!F44</f>
+        <v>0</v>
+      </c>
+      <c r="G44" t="str">
+        <f>LoRa_TimerHandshaking_HTX!G44</f>
+        <v>int8_t</v>
+      </c>
+      <c r="H44" t="str">
+        <f>LoRa_TimerHandshaking_HTX!H44</f>
+        <v>outputPower;</v>
+      </c>
+      <c r="I44" s="2" t="str">
+        <f>LoRa_TimerHandshaking_HTX!I44</f>
+        <v>txPower868[LoRa_txPower]</v>
+      </c>
+      <c r="J44">
+        <f>LoRa_TimerHandshaking_HTX!J44</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <f>LoRa_Reset!B45</f>
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <f>LoRa_TimerHandshaking_HTX!C45</f>
+        <v>0</v>
+      </c>
+      <c r="D45" s="2">
+        <f>LoRa_TimerHandshaking_HTX!D45</f>
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <f>LoRa_TimerHandshaking_HTX!E45</f>
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <f>LoRa_TimerHandshaking_HTX!F45</f>
+        <v>0</v>
+      </c>
+      <c r="G45" t="str">
+        <f>LoRa_TimerHandshaking_HTX!G45</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H45" t="str">
+        <f>LoRa_TimerHandshaking_HTX!H45</f>
+        <v>crcOn;</v>
+      </c>
+      <c r="I45" s="2" t="str">
+        <f>LoRa_TimerHandshaking_HTX!I45</f>
+        <v>ENABLED</v>
+      </c>
+      <c r="J45">
+        <f>LoRa_TimerHandshaking_HTX!J45</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <f>LoRa_Reset!B46</f>
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <f>LoRa_TimerHandshaking_HTX!C46</f>
+        <v>0</v>
+      </c>
+      <c r="D46" s="2">
+        <f>LoRa_TimerHandshaking_HTX!D46</f>
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <f>LoRa_TimerHandshaking_HTX!E46</f>
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <f>LoRa_TimerHandshaking_HTX!F46</f>
+        <v>0</v>
+      </c>
+      <c r="G46" t="str">
+        <f>LoRa_TimerHandshaking_HTX!G46</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H46" t="str">
+        <f>LoRa_TimerHandshaking_HTX!H46</f>
+        <v>paBoost;</v>
+      </c>
+      <c r="I46" s="2" t="str">
+        <f>LoRa_TimerHandshaking_HTX!I46</f>
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <f>LoRa_TimerHandshaking_HTX!J46</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <f>LoRa_Reset!B47</f>
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <f>LoRa_TimerHandshaking_HTX!C47</f>
+        <v>0</v>
+      </c>
+      <c r="D47" s="2">
+        <f>LoRa_TimerHandshaking_HTX!D47</f>
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <f>LoRa_TimerHandshaking_HTX!E47</f>
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <f>LoRa_TimerHandshaking_HTX!F47</f>
+        <v>0</v>
+      </c>
+      <c r="G47" t="str">
+        <f>LoRa_TimerHandshaking_HTX!G47</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H47" t="str">
+        <f>LoRa_TimerHandshaking_HTX!H47</f>
+        <v>flags</v>
+      </c>
+      <c r="I47" s="2" t="str">
+        <f>LoRa_TimerHandshaking_HTX!I47</f>
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <f>LoRa_TimerHandshaking_HTX!J47</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <f>LoRa_Reset!B48</f>
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <f>LoRa_TimerHandshaking_HTX!C48</f>
+        <v>0</v>
+      </c>
+      <c r="D48" s="2">
+        <f>LoRa_TimerHandshaking_HTX!D48</f>
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <f>LoRa_TimerHandshaking_HTX!E48</f>
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <f>LoRa_TimerHandshaking_HTX!F48</f>
+        <v>0</v>
+      </c>
+      <c r="G48" t="str">
+        <f>LoRa_TimerHandshaking_HTX!G48</f>
+        <v>uint16_t</v>
+      </c>
+      <c r="H48" t="str">
+        <f>LoRa_TimerHandshaking_HTX!H48</f>
+        <v>frequencyHopPeriod;</v>
+      </c>
+      <c r="I48" s="2" t="str">
+        <f>LoRa_TimerHandshaking_HTX!I48</f>
+        <v>DISABLED</v>
+      </c>
+      <c r="J48">
+        <f>LoRa_TimerHandshaking_HTX!J48</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <f>LoRa_Reset!B49</f>
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <f>LoRa_TimerHandshaking_HTX!C49</f>
+        <v>0</v>
+      </c>
+      <c r="D49" s="2">
+        <f>LoRa_TimerHandshaking_HTX!D49</f>
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <f>LoRa_TimerHandshaking_HTX!E49</f>
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <f>LoRa_TimerHandshaking_HTX!F49</f>
+        <v>0</v>
+      </c>
+      <c r="G49" t="str">
+        <f>LoRa_TimerHandshaking_HTX!G49</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H49" t="str">
+        <f>LoRa_TimerHandshaking_HTX!H49</f>
+        <v>iqInverted;</v>
+      </c>
+      <c r="I49" s="2" t="str">
+        <f>LoRa_TimerHandshaking_HTX!I49</f>
+        <v>DISABLED</v>
+      </c>
+      <c r="J49">
+        <f>LoRa_TimerHandshaking_HTX!J49</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <f>LoRa_Reset!B50</f>
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <f>LoRa_TimerHandshaking_HTX!C50</f>
+        <v>0</v>
+      </c>
+      <c r="D50" s="2">
+        <f>LoRa_TimerHandshaking_HTX!D50</f>
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <f>LoRa_TimerHandshaking_HTX!E50</f>
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <f>LoRa_TimerHandshaking_HTX!F50</f>
+        <v>0</v>
+      </c>
+      <c r="G50" t="str">
+        <f>LoRa_TimerHandshaking_HTX!G50</f>
+        <v>RadioErrorCodingRate_t</v>
+      </c>
+      <c r="H50" t="str">
+        <f>LoRa_TimerHandshaking_HTX!H50</f>
+        <v>errorCodingRate;</v>
+      </c>
+      <c r="I50" s="2" t="str">
+        <f>LoRa_TimerHandshaking_HTX!I50</f>
+        <v>CR_4_5</v>
+      </c>
+      <c r="J50">
+        <f>LoRa_TimerHandshaking_HTX!J50</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <f>LoRa_Reset!B51</f>
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <f>LoRa_TimerHandshaking_HTX!C51</f>
+        <v>0</v>
+      </c>
+      <c r="D51" s="2">
+        <f>LoRa_TimerHandshaking_HTX!D51</f>
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <f>LoRa_TimerHandshaking_HTX!E51</f>
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <f>LoRa_TimerHandshaking_HTX!F51</f>
+        <v>0</v>
+      </c>
+      <c r="G51" t="str">
+        <f>LoRa_TimerHandshaking_HTX!G51</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H51" t="str">
+        <f>LoRa_TimerHandshaking_HTX!H51</f>
+        <v>implicitHeaderMode;</v>
+      </c>
+      <c r="I51" s="2" t="str">
+        <f>LoRa_TimerHandshaking_HTX!I51</f>
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <f>LoRa_TimerHandshaking_HTX!J51</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <f>LoRa_Reset!B52</f>
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <f>LoRa_TimerHandshaking_HTX!C52</f>
+        <v>0</v>
+      </c>
+      <c r="D52" s="2">
+        <f>LoRa_TimerHandshaking_HTX!D52</f>
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <f>LoRa_TimerHandshaking_HTX!E52</f>
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <f>LoRa_TimerHandshaking_HTX!F52</f>
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <f>LoRa_TimerHandshaking_HTX!G52</f>
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <f>LoRa_TimerHandshaking_HTX!H52</f>
+        <v>0</v>
+      </c>
+      <c r="I52" s="2">
+        <f>LoRa_TimerHandshaking_HTX!I52</f>
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <f>LoRa_TimerHandshaking_HTX!J52</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <f>LoRa_Reset!B53</f>
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <f>LoRa_TimerHandshaking_HTX!C53</f>
+        <v>0</v>
+      </c>
+      <c r="D53" s="2">
+        <f>LoRa_TimerHandshaking_HTX!D53</f>
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <f>LoRa_TimerHandshaking_HTX!E53</f>
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <f>LoRa_TimerHandshaking_HTX!F53</f>
+        <v>0</v>
+      </c>
+      <c r="G53" t="str">
+        <f>LoRa_TimerHandshaking_HTX!G53</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H53" t="str">
+        <f>LoRa_TimerHandshaking_HTX!H53</f>
+        <v>dataBufferLen;</v>
+      </c>
+      <c r="I53" s="2" t="str">
+        <f>LoRa_TimerHandshaking_HTX!I53</f>
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <f>LoRa_TimerHandshaking_HTX!J53</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <f>LoRa_Reset!B54</f>
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <f>LoRa_TimerHandshaking_HTX!C54</f>
+        <v>0</v>
+      </c>
+      <c r="D54" s="2">
+        <f>LoRa_TimerHandshaking_HTX!D54</f>
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <f>LoRa_TimerHandshaking_HTX!E54</f>
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <f>LoRa_TimerHandshaking_HTX!F54</f>
+        <v>0</v>
+      </c>
+      <c r="G54" t="str">
+        <f>LoRa_TimerHandshaking_HTX!G54</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H54" t="str">
+        <f>LoRa_TimerHandshaking_HTX!H54</f>
+        <v>*dataBuffer;</v>
+      </c>
+      <c r="I54" s="2" t="str">
+        <f>LoRa_TimerHandshaking_HTX!I54</f>
+        <v>LoRa_radioBuffer</v>
+      </c>
+      <c r="J54">
+        <f>LoRa_TimerHandshaking_HTX!J54</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <f>LoRa_Reset!B55</f>
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <f>LoRa_TimerHandshaking_HTX!C55</f>
+        <v>0</v>
+      </c>
+      <c r="D55" s="2">
+        <f>LoRa_TimerHandshaking_HTX!D55</f>
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <f>LoRa_TimerHandshaking_HTX!E55</f>
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <f>LoRa_TimerHandshaking_HTX!F55</f>
+        <v>0</v>
+      </c>
+      <c r="G55" t="str">
+        <f>LoRa_TimerHandshaking_HTX!G55</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H55" t="str">
+        <f>LoRa_TimerHandshaking_HTX!H55</f>
+        <v>timeOnAirTimerId;</v>
+      </c>
+      <c r="I55" s="2" t="str">
+        <f>LoRa_TimerHandshaking_HTX!I55</f>
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <f>LoRa_TimerHandshaking_HTX!J55</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <f>LoRa_Reset!B56</f>
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <f>LoRa_TimerHandshaking_HTX!C56</f>
+        <v>0</v>
+      </c>
+      <c r="D56" s="2">
+        <f>LoRa_TimerHandshaking_HTX!D56</f>
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <f>LoRa_TimerHandshaking_HTX!E56</f>
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <f>LoRa_TimerHandshaking_HTX!F56</f>
+        <v>0</v>
+      </c>
+      <c r="G56" t="str">
+        <f>LoRa_TimerHandshaking_HTX!G56</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H56" t="str">
+        <f>LoRa_TimerHandshaking_HTX!H56</f>
+        <v>fskRxWindowTimerId;</v>
+      </c>
+      <c r="I56" s="2" t="str">
+        <f>LoRa_TimerHandshaking_HTX!I56</f>
+        <v>0</v>
+      </c>
+      <c r="J56" t="str">
+        <f>LoRa_TimerHandshaking_HTX!J56</f>
+        <v>RADIO_RxFSKTimeout</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <f>LoRa_Reset!B57</f>
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <f>LoRa_TimerHandshaking_HTX!C57</f>
+        <v>0</v>
+      </c>
+      <c r="D57" s="2">
+        <f>LoRa_TimerHandshaking_HTX!D57</f>
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <f>LoRa_TimerHandshaking_HTX!E57</f>
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <f>LoRa_TimerHandshaking_HTX!F57</f>
+        <v>0</v>
+      </c>
+      <c r="G57" t="str">
+        <f>LoRa_TimerHandshaking_HTX!G57</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H57" t="str">
+        <f>LoRa_TimerHandshaking_HTX!H57</f>
+        <v>watchdogTimerId;</v>
+      </c>
+      <c r="I57" s="2" t="str">
+        <f>LoRa_TimerHandshaking_HTX!I57</f>
+        <v>0</v>
+      </c>
+      <c r="J57" t="str">
+        <f>LoRa_TimerHandshaking_HTX!J57</f>
+        <v>RADIO_WatchdogTimeout</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <f>LoRa_Reset!B58</f>
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <f>LoRa_TimerHandshaking_HTX!C58</f>
+        <v>0</v>
+      </c>
+      <c r="D58" s="2">
+        <f>LoRa_TimerHandshaking_HTX!D58</f>
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <f>LoRa_TimerHandshaking_HTX!E58</f>
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <f>LoRa_TimerHandshaking_HTX!F58</f>
+        <v>0</v>
+      </c>
+      <c r="G58" t="str">
+        <f>LoRa_TimerHandshaking_HTX!G58</f>
+        <v>uint32_t</v>
+      </c>
+      <c r="H58" t="str">
+        <f>LoRa_TimerHandshaking_HTX!H58</f>
+        <v>watchdogTimerTimeout;</v>
+      </c>
+      <c r="I58" s="2" t="str">
+        <f>LoRa_TimerHandshaking_HTX!I58</f>
+        <v>watchdogTimerTimeout</v>
+      </c>
+      <c r="J58">
+        <f>LoRa_TimerHandshaking_HTX!J58</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <f>LoRa_Reset!B59</f>
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <f>LoRa_TimerHandshaking_HTX!C59</f>
+        <v>0</v>
+      </c>
+      <c r="D59" s="2">
+        <f>LoRa_TimerHandshaking_HTX!D59</f>
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <f>LoRa_TimerHandshaking_HTX!E59</f>
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <f>LoRa_TimerHandshaking_HTX!F59</f>
+        <v>0</v>
+      </c>
+      <c r="G59" t="str">
+        <f>LoRa_TimerHandshaking_HTX!G59</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H59" t="str">
+        <f>LoRa_TimerHandshaking_HTX!H59</f>
+        <v>initialized;</v>
+      </c>
+      <c r="I59" s="2">
+        <f>LoRa_TimerHandshaking_HTX!I59</f>
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <f>LoRa_TimerHandshaking_HTX!J59</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <f>LoRa_Reset!B60</f>
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <f>LoRa_TimerHandshaking_HTX!C60</f>
+        <v>0</v>
+      </c>
+      <c r="D60" s="2">
+        <f>LoRa_TimerHandshaking_HTX!D60</f>
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <f>LoRa_TimerHandshaking_HTX!E60</f>
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <f>LoRa_TimerHandshaking_HTX!F60</f>
+        <v>0</v>
+      </c>
+      <c r="G60" t="str">
+        <f>LoRa_TimerHandshaking_HTX!G60</f>
+        <v>uint32_t</v>
+      </c>
+      <c r="H60" t="str">
+        <f>LoRa_TimerHandshaking_HTX!H60</f>
+        <v>(*fhssNextFrequency)(void);</v>
+      </c>
+      <c r="I60" s="2" t="str">
+        <f>LoRa_TimerHandshaking_HTX!I60</f>
+        <v>NULL</v>
+      </c>
+      <c r="J60">
+        <f>LoRa_TimerHandshaking_HTX!J60</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <f>LoRa_Reset!B61</f>
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <f>LoRa_TimerHandshaking_HTX!C61</f>
+        <v>0</v>
+      </c>
+      <c r="D61" s="2">
+        <f>LoRa_TimerHandshaking_HTX!D61</f>
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <f>LoRa_TimerHandshaking_HTX!E61</f>
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <f>LoRa_TimerHandshaking_HTX!F61</f>
+        <v>0</v>
+      </c>
+      <c r="G61" t="str">
+        <f>LoRa_TimerHandshaking_HTX!G61</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H61" t="str">
+        <f>LoRa_TimerHandshaking_HTX!H61</f>
+        <v>regVersion;</v>
+      </c>
+      <c r="I61" s="2" t="str">
+        <f>LoRa_TimerHandshaking_HTX!I61</f>
+        <v>RADIO(REG_VERSION)</v>
+      </c>
+      <c r="J61">
+        <f>LoRa_TimerHandshaking_HTX!J61</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <f>LoRa_Reset!B62</f>
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <f>LoRa_TimerHandshaking_HTX!C62</f>
+        <v>0</v>
+      </c>
+      <c r="D62" s="2">
+        <f>LoRa_TimerHandshaking_HTX!D62</f>
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <f>LoRa_TimerHandshaking_HTX!E62</f>
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <f>LoRa_TimerHandshaking_HTX!F62</f>
+        <v>0</v>
+      </c>
+      <c r="G62" t="str">
+        <f>LoRa_TimerHandshaking_HTX!G62</f>
+        <v>int8_t</v>
+      </c>
+      <c r="H62" t="str">
+        <f>LoRa_TimerHandshaking_HTX!H62</f>
+        <v>packetSNR;</v>
+      </c>
+      <c r="I62" s="2">
+        <f>LoRa_TimerHandshaking_HTX!I62</f>
+        <v>-128</v>
+      </c>
+      <c r="J62">
+        <f>LoRa_TimerHandshaking_HTX!J62</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <f>LoRa_Reset!B63</f>
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <f>LoRa_TimerHandshaking_HTX!C63</f>
+        <v>0</v>
+      </c>
+      <c r="D63" s="2">
+        <f>LoRa_TimerHandshaking_HTX!D63</f>
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <f>LoRa_TimerHandshaking_HTX!E63</f>
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <f>LoRa_TimerHandshaking_HTX!F63</f>
+        <v>0</v>
+      </c>
+      <c r="G63" t="str">
+        <f>LoRa_TimerHandshaking_HTX!G63</f>
+        <v>RadioFSKShaping_t</v>
+      </c>
+      <c r="H63" t="str">
+        <f>LoRa_TimerHandshaking_HTX!H63</f>
+        <v>fskDataShaping;</v>
+      </c>
+      <c r="I63" s="2" t="str">
+        <f>LoRa_TimerHandshaking_HTX!I63</f>
+        <v>FSK_SHAPING_GAUSS_BT_0_5</v>
+      </c>
+      <c r="J63">
+        <f>LoRa_TimerHandshaking_HTX!J63</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <f>LoRa_Reset!B64</f>
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <f>LoRa_TimerHandshaking_HTX!C64</f>
+        <v>0</v>
+      </c>
+      <c r="D64" s="2">
+        <f>LoRa_TimerHandshaking_HTX!D64</f>
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <f>LoRa_TimerHandshaking_HTX!E64</f>
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <f>LoRa_TimerHandshaking_HTX!F64</f>
+        <v>0</v>
+      </c>
+      <c r="G64" t="str">
+        <f>LoRa_TimerHandshaking_HTX!G64</f>
+        <v>RadioFSKBandWidth_t</v>
+      </c>
+      <c r="H64" t="str">
+        <f>LoRa_TimerHandshaking_HTX!H64</f>
+        <v>rxBw;</v>
+      </c>
+      <c r="I64" s="2" t="str">
+        <f>LoRa_TimerHandshaking_HTX!I64</f>
+        <v>FSKBW_50_0KHZ</v>
+      </c>
+      <c r="J64">
+        <f>LoRa_TimerHandshaking_HTX!J64</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <f>LoRa_Reset!B65</f>
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <f>LoRa_TimerHandshaking_HTX!C65</f>
+        <v>0</v>
+      </c>
+      <c r="D65" s="2">
+        <f>LoRa_TimerHandshaking_HTX!D65</f>
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <f>LoRa_TimerHandshaking_HTX!E65</f>
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <f>LoRa_TimerHandshaking_HTX!F65</f>
+        <v>0</v>
+      </c>
+      <c r="G65" t="str">
+        <f>LoRa_TimerHandshaking_HTX!G65</f>
+        <v>RadioFSKBandWidth_t</v>
+      </c>
+      <c r="H65" t="str">
+        <f>LoRa_TimerHandshaking_HTX!H65</f>
+        <v>afcBw;</v>
+      </c>
+      <c r="I65" s="2" t="str">
+        <f>LoRa_TimerHandshaking_HTX!I65</f>
+        <v>FSKBW_83_3KHZ</v>
+      </c>
+      <c r="J65">
+        <f>LoRa_TimerHandshaking_HTX!J65</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <f>LoRa_Reset!B66</f>
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <f>LoRa_TimerHandshaking_HTX!C66</f>
+        <v>0</v>
+      </c>
+      <c r="D66" s="2">
+        <f>LoRa_TimerHandshaking_HTX!D66</f>
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <f>LoRa_TimerHandshaking_HTX!E66</f>
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <f>LoRa_TimerHandshaking_HTX!F66</f>
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <f>LoRa_TimerHandshaking_HTX!G66</f>
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <f>LoRa_TimerHandshaking_HTX!H66</f>
+        <v>0</v>
+      </c>
+      <c r="I66" s="2">
+        <f>LoRa_TimerHandshaking_HTX!I66</f>
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <f>LoRa_TimerHandshaking_HTX!J66</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <f>LoRa_Reset!B67</f>
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <f>LoRa_TimerHandshaking_HTX!C67</f>
+        <v>0</v>
+      </c>
+      <c r="D67" s="2">
+        <f>LoRa_TimerHandshaking_HTX!D67</f>
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <f>LoRa_TimerHandshaking_HTX!E67</f>
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <f>LoRa_TimerHandshaking_HTX!F67</f>
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <f>LoRa_TimerHandshaking_HTX!G67</f>
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <f>LoRa_TimerHandshaking_HTX!H67</f>
+        <v>0</v>
+      </c>
+      <c r="I67" s="2">
+        <f>LoRa_TimerHandshaking_HTX!I67</f>
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <f>LoRa_TimerHandshaking_HTX!J67</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <f>LoRa_Reset!B68</f>
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <f>LoRa_TimerHandshaking_HTX!C68</f>
+        <v>0</v>
+      </c>
+      <c r="D68" s="2">
+        <f>LoRa_TimerHandshaking_HTX!D68</f>
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <f>LoRa_TimerHandshaking_HTX!E68</f>
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <f>LoRa_TimerHandshaking_HTX!F68</f>
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <f>LoRa_TimerHandshaking_HTX!G68</f>
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <f>LoRa_TimerHandshaking_HTX!H68</f>
+        <v>0</v>
+      </c>
+      <c r="I68" s="2">
+        <f>LoRa_TimerHandshaking_HTX!I68</f>
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <f>LoRa_TimerHandshaking_HTX!J68</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <f>LoRa_Reset!B69</f>
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <f>LoRa_TimerHandshaking_HTX!C69</f>
+        <v>0</v>
+      </c>
+      <c r="D69" s="2">
+        <f>LoRa_TimerHandshaking_HTX!D69</f>
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <f>LoRa_TimerHandshaking_HTX!E69</f>
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <f>LoRa_TimerHandshaking_HTX!F69</f>
+        <v>0</v>
+      </c>
+      <c r="G69" t="str">
+        <f>LoRa_TimerHandshaking_HTX!G69</f>
+        <v>ChannelParams_t</v>
+      </c>
+      <c r="H69" t="str">
+        <f>LoRa_TimerHandshaking_HTX!H69</f>
+        <v>Channels</v>
+      </c>
+      <c r="I69" s="2" t="str">
+        <f>LoRa_TimerHandshaking_HTX!I69</f>
+        <v>DefaultChannels868</v>
+      </c>
+      <c r="J69">
+        <f>LoRa_TimerHandshaking_HTX!J69</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B70">
+        <f>LoRa_Reset!B70</f>
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <f>LoRa_TimerHandshaking_HTX!C70</f>
+        <v>0</v>
+      </c>
+      <c r="D70" s="2">
+        <f>LoRa_TimerHandshaking_HTX!D70</f>
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <f>LoRa_TimerHandshaking_HTX!E70</f>
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <f>LoRa_TimerHandshaking_HTX!F70</f>
+        <v>0</v>
+      </c>
+      <c r="G70" t="str">
+        <f>LoRa_TimerHandshaking_HTX!G70</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H70" t="str">
+        <f>LoRa_TimerHandshaking_HTX!H70</f>
+        <v>maxPayloadSize[]</v>
+      </c>
+      <c r="I70" s="2" t="str">
+        <f>LoRa_TimerHandshaking_HTX!I70</f>
+        <v>MAX_EU_SINGLE_BAND_CHANNELS</v>
+      </c>
+      <c r="J70">
+        <f>LoRa_TimerHandshaking_HTX!J70</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <f>LoRa_Reset!B71</f>
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <f>LoRa_TimerHandshaking_HTX!C71</f>
+        <v>0</v>
+      </c>
+      <c r="D71" s="2">
+        <f>LoRa_TimerHandshaking_HTX!D71</f>
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <f>LoRa_TimerHandshaking_HTX!E71</f>
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <f>LoRa_TimerHandshaking_HTX!F71</f>
+        <v>0</v>
+      </c>
+      <c r="G71" t="str">
+        <f>LoRa_TimerHandshaking_HTX!G71</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H71" t="str">
+        <f>LoRa_TimerHandshaking_HTX!H71</f>
+        <v>modulation[]</v>
+      </c>
+      <c r="I71" s="2">
+        <f>LoRa_TimerHandshaking_HTX!I71</f>
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <f>LoRa_TimerHandshaking_HTX!J71</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <f>LoRa_Reset!B72</f>
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <f>LoRa_TimerHandshaking_HTX!C72</f>
+        <v>0</v>
+      </c>
+      <c r="D72" s="2">
+        <f>LoRa_TimerHandshaking_HTX!D72</f>
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <f>LoRa_TimerHandshaking_HTX!E72</f>
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <f>LoRa_TimerHandshaking_HTX!F72</f>
+        <v>0</v>
+      </c>
+      <c r="G72" t="str">
+        <f>LoRa_TimerHandshaking_HTX!G72</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H72" t="str">
+        <f>LoRa_TimerHandshaking_HTX!H72</f>
+        <v>spreadingFactor[]</v>
+      </c>
+      <c r="I72" s="2">
+        <f>LoRa_TimerHandshaking_HTX!I72</f>
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <f>LoRa_TimerHandshaking_HTX!J72</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B73">
+        <f>LoRa_Reset!B73</f>
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <f>LoRa_TimerHandshaking_HTX!C73</f>
+        <v>0</v>
+      </c>
+      <c r="D73" s="2">
+        <f>LoRa_TimerHandshaking_HTX!D73</f>
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <f>LoRa_TimerHandshaking_HTX!E73</f>
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <f>LoRa_TimerHandshaking_HTX!F73</f>
+        <v>0</v>
+      </c>
+      <c r="G73" t="str">
+        <f>LoRa_TimerHandshaking_HTX!G73</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H73" t="str">
+        <f>LoRa_TimerHandshaking_HTX!H73</f>
+        <v>bandwidth[]</v>
+      </c>
+      <c r="I73" s="2">
+        <f>LoRa_TimerHandshaking_HTX!I73</f>
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <f>LoRa_TimerHandshaking_HTX!J73</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <f>LoRa_Reset!B74</f>
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <f>LoRa_TimerHandshaking_HTX!C74</f>
+        <v>0</v>
+      </c>
+      <c r="D74" s="2">
+        <f>LoRa_TimerHandshaking_HTX!D74</f>
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <f>LoRa_TimerHandshaking_HTX!E74</f>
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <f>LoRa_TimerHandshaking_HTX!F74</f>
+        <v>0</v>
+      </c>
+      <c r="G74" t="str">
+        <f>LoRa_TimerHandshaking_HTX!G74</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H74" t="str">
+        <f>LoRa_TimerHandshaking_HTX!H74</f>
+        <v>txPower868[]</v>
+      </c>
+      <c r="I74" s="2">
+        <f>LoRa_TimerHandshaking_HTX!I74</f>
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <f>LoRa_TimerHandshaking_HTX!J74</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B75">
+        <f>LoRa_Reset!B75</f>
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <f>LoRa_TimerHandshaking_HTX!C75</f>
+        <v>0</v>
+      </c>
+      <c r="D75" s="2">
+        <f>LoRa_TimerHandshaking_HTX!D75</f>
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <f>LoRa_TimerHandshaking_HTX!E75</f>
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <f>LoRa_TimerHandshaking_HTX!F75</f>
+        <v>0</v>
+      </c>
+      <c r="G75" t="str">
+        <f>LoRa_TimerHandshaking_HTX!G75</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H75" t="str">
+        <f>LoRa_TimerHandshaking_HTX!H75</f>
+        <v>LoRa_radioBuffer[]</v>
+      </c>
+      <c r="I75" s="2" t="str">
+        <f>LoRa_TimerHandshaking_HTX!I75</f>
+        <v>MAXIMUM_BUFFER_LENGTH</v>
+      </c>
+      <c r="J75">
+        <f>LoRa_TimerHandshaking_HTX!J75</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B76">
+        <f>LoRa_Reset!B76</f>
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <f>LoRa_TimerHandshaking_HTX!C76</f>
+        <v>0</v>
+      </c>
+      <c r="D76" s="2">
+        <f>LoRa_TimerHandshaking_HTX!D76</f>
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <f>LoRa_TimerHandshaking_HTX!E76</f>
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <f>LoRa_TimerHandshaking_HTX!F76</f>
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <f>LoRa_TimerHandshaking_HTX!G76</f>
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <f>LoRa_TimerHandshaking_HTX!H76</f>
+        <v>0</v>
+      </c>
+      <c r="I76" s="2">
+        <f>LoRa_TimerHandshaking_HTX!I76</f>
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <f>LoRa_TimerHandshaking_HTX!J76</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B77">
+        <f>LoRa_Reset!B77</f>
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <f>LoRa_TimerHandshaking_HTX!C77</f>
+        <v>0</v>
+      </c>
+      <c r="D77" s="2">
+        <f>LoRa_TimerHandshaking_HTX!D77</f>
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <f>LoRa_TimerHandshaking_HTX!E77</f>
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <f>LoRa_TimerHandshaking_HTX!F77</f>
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <f>LoRa_TimerHandshaking_HTX!G77</f>
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <f>LoRa_TimerHandshaking_HTX!H77</f>
+        <v>0</v>
+      </c>
+      <c r="I77" s="2">
+        <f>LoRa_TimerHandshaking_HTX!I77</f>
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <f>LoRa_TimerHandshaking_HTX!J77</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B78">
+        <f>LoRa_Reset!B78</f>
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <f>LoRa_Reset!C78</f>
+        <v>0</v>
+      </c>
+      <c r="D78" s="2">
+        <f>LoRa_Reset!D78</f>
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <f>LoRa_Reset!E78</f>
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <f>LoRa_Reset!F78</f>
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <f>LoRa_Reset!G78</f>
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <f>LoRa_Reset!H78</f>
+        <v>0</v>
+      </c>
+      <c r="I78" s="2">
+        <f>LoRa_Reset!I78</f>
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <f>LoRa_Reset!J78</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B9" location="LoRa_TimerHandshaking_HTX!C1" display="LoRa_TimerHandshaking" xr:uid="{5A53D521-8616-4482-A869-37AFE4126DAD}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C2A150-A73A-4C2C-9789-7613EBAA81D9}">
   <dimension ref="B1:J79"/>
   <sheetViews>
@@ -37988,7 +43626,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB28F772-F47D-44F5-B063-4EFCF9FF0835}">
   <dimension ref="B1:J79"/>
   <sheetViews>
@@ -40688,2715 +46326,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89F31521-E8A8-4E11-8C69-3DA81310C770}">
-  <dimension ref="B1:J79"/>
-  <sheetViews>
-    <sheetView showZeros="0" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="15.25" customWidth="1"/>
-    <col min="3" max="3" width="44.875" customWidth="1"/>
-    <col min="4" max="5" width="24.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="5.75" customWidth="1"/>
-    <col min="7" max="7" width="27" customWidth="1"/>
-    <col min="8" max="8" width="27.5" customWidth="1"/>
-    <col min="9" max="9" width="31.875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="28.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3">
-        <f>LoRa_Reset!B3</f>
-        <v>0</v>
-      </c>
-      <c r="C3" t="str">
-        <f>LoRa_TxDone!C3</f>
-        <v>LoRa_transmitStatus</v>
-      </c>
-      <c r="D3" s="2" t="str">
-        <f>LoRa_TxDone!D3</f>
-        <v>LoRa_Handshaking_RX</v>
-      </c>
-      <c r="E3">
-        <f>LoRa_TxDone!E3</f>
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <f>LoRa_TxDone!F3</f>
-        <v>0</v>
-      </c>
-      <c r="G3" t="str">
-        <f>LoRa_TxDone!G3</f>
-        <v>LoRaMacState_t</v>
-      </c>
-      <c r="H3" t="str">
-        <f>LoRa_TxDone!H3</f>
-        <v>LoRa_transmitStatus</v>
-      </c>
-      <c r="I3" s="2" t="str">
-        <f>LoRa_TxDone!I3</f>
-        <v>LoRa_Idle</v>
-      </c>
-      <c r="J3">
-        <f>LoRa_TxDone!J3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <f>LoRa_Reset!B4</f>
-        <v>0</v>
-      </c>
-      <c r="C4" t="str">
-        <f>LoRa_TxDone!C4</f>
-        <v>LoRa_StatusDanych</v>
-      </c>
-      <c r="D4" s="2" t="str">
-        <f>LoRa_TxDone!D4</f>
-        <v>LoRa_transmiting</v>
-      </c>
-      <c r="E4">
-        <f>LoRa_TxDone!E4</f>
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <f>LoRa_TxDone!F4</f>
-        <v>0</v>
-      </c>
-      <c r="G4" t="str">
-        <f>LoRa_TxDone!G4</f>
-        <v>LoRaStatus_t</v>
-      </c>
-      <c r="H4" t="str">
-        <f>LoRa_TxDone!H4</f>
-        <v>LoRa_StatusDanych</v>
-      </c>
-      <c r="I4" s="2" t="str">
-        <f>LoRa_TxDone!I4</f>
-        <v>LoRa_transmitIdle</v>
-      </c>
-      <c r="J4">
-        <f>LoRa_TxDone!J4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <f>LoRa_Reset!B5</f>
-        <v>0</v>
-      </c>
-      <c r="C5" t="str">
-        <f>LoRa_TxDone!C5</f>
-        <v>flags</v>
-      </c>
-      <c r="D5" s="2" t="str">
-        <f>I47</f>
-        <v>0</v>
-      </c>
-      <c r="E5"/>
-      <c r="F5">
-        <f>LoRa_TxDone!F5</f>
-        <v>0</v>
-      </c>
-      <c r="G5" t="str">
-        <f>LoRa_TxDone!G5</f>
-        <v>bool</v>
-      </c>
-      <c r="H5" t="str">
-        <f>LoRa_TxDone!H5</f>
-        <v>LoRa_initialised</v>
-      </c>
-      <c r="I5" s="2" t="str">
-        <f>LoRa_TxDone!I5</f>
-        <v>ENABLED</v>
-      </c>
-      <c r="J5">
-        <f>LoRa_TxDone!J5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <f>LoRa_Reset!B6</f>
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <f>LoRa_TxDone!C6</f>
-        <v>0</v>
-      </c>
-      <c r="D6" s="2">
-        <f>LoRa_TxDone!D6</f>
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <f>J47</f>
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <f>LoRa_TxDone!F6</f>
-        <v>0</v>
-      </c>
-      <c r="G6" t="str">
-        <f>LoRa_TxDone!G6</f>
-        <v>FCnt_t</v>
-      </c>
-      <c r="H6" t="str">
-        <f>LoRa_TxDone!H6</f>
-        <v>LoRa_Counnter</v>
-      </c>
-      <c r="I6" s="2" t="str">
-        <f>LoRa_TxDone!I6</f>
-        <v>++</v>
-      </c>
-      <c r="J6">
-        <f>LoRa_TxDone!J6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <f>LoRa_Reset!B7</f>
-        <v>0</v>
-      </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="20"/>
-      <c r="G7" t="str">
-        <f>LoRa_TxDone!G7</f>
-        <v>uint8_t</v>
-      </c>
-      <c r="H7" t="str">
-        <f>LoRa_TxDone!H7</f>
-        <v>LoRa_Addres</v>
-      </c>
-      <c r="I7" s="2" t="str">
-        <f>LoRa_TxDone!I7</f>
-        <v>LoRaDeviceAddress</v>
-      </c>
-      <c r="J7">
-        <f>LoRa_TxDone!J7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <f>LoRa_Reset!B8</f>
-        <v>0</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="G8" t="str">
-        <f>LoRa_TxDone!G8</f>
-        <v>uint8_t</v>
-      </c>
-      <c r="H8" t="str">
-        <f>LoRa_TxDone!H8</f>
-        <v>LoRa_TimerHandshaking</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="J8" t="str">
-        <f>LoRa_TxDone!J8</f>
-        <v>LoRa_TimerHandshakingCallback</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="23"/>
-      <c r="G9" t="str">
-        <f>LoRa_TxDone!G9</f>
-        <v>uint8_t</v>
-      </c>
-      <c r="H9" t="str">
-        <f>LoRa_TxDone!H9</f>
-        <v>LoRa_TimerRetransmit</v>
-      </c>
-      <c r="I9" s="2" t="str">
-        <f>LoRa_TxDone!I9</f>
-        <v>0</v>
-      </c>
-      <c r="J9" t="str">
-        <f>LoRa_TxDone!J9</f>
-        <v>LoRa_TimerRetransmitCallback</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <f>LoRa_Reset!B10</f>
-        <v>0</v>
-      </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="23"/>
-      <c r="G10" t="str">
-        <f>LoRa_TxDone!G10</f>
-        <v>uint8_t</v>
-      </c>
-      <c r="H10" t="str">
-        <f>LoRa_TxDone!H10</f>
-        <v>LoRa_TimerWaitAck</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="J10" t="str">
-        <f>LoRa_TxDone!J10</f>
-        <v>LoRa_TimerWaitAckCallback</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <f>LoRa_Reset!B11</f>
-        <v>0</v>
-      </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="23"/>
-      <c r="G11" t="str">
-        <f>LoRa_TxDone!G11</f>
-        <v>uint8_t</v>
-      </c>
-      <c r="H11" t="str">
-        <f>LoRa_TxDone!H11</f>
-        <v>LoRa_HeaderBufor</v>
-      </c>
-      <c r="I11" s="2" t="str">
-        <f>LoRa_TxDone!I11</f>
-        <v>LoRa_Addres, nxt_channel</v>
-      </c>
-      <c r="J11">
-        <f>LoRa_TxDone!J11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <f>LoRa_Reset!B12</f>
-        <v>0</v>
-      </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="23"/>
-      <c r="G12" t="str">
-        <f>LoRa_TxDone!G12</f>
-        <v>uint8_t</v>
-      </c>
-      <c r="H12" t="str">
-        <f>LoRa_TxDone!H12</f>
-        <v>LoRa_HeaderLength</v>
-      </c>
-      <c r="I12" s="2" t="str">
-        <f>LoRa_TxDone!I12</f>
-        <v>bufferHeadIndex</v>
-      </c>
-      <c r="J12">
-        <f>LoRa_TxDone!J12</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13">
-        <f>LoRa_Reset!B13</f>
-        <v>0</v>
-      </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="23"/>
-      <c r="G13" t="str">
-        <f>LoRa_TxDone!G13</f>
-        <v>uint8_t</v>
-      </c>
-      <c r="H13" t="str">
-        <f>LoRa_TxDone!H13</f>
-        <v>LoRa_Bufor</v>
-      </c>
-      <c r="I13" s="2" t="str">
-        <f>LoRa_TxDone!I13</f>
-        <v>bufferIndex, nxt_channel, data, CRC</v>
-      </c>
-      <c r="J13">
-        <f>LoRa_TxDone!J13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <f>LoRa_Reset!B14</f>
-        <v>0</v>
-      </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="23"/>
-      <c r="G14" t="str">
-        <f>LoRa_TxDone!G14</f>
-        <v>uint8_t</v>
-      </c>
-      <c r="H14" t="str">
-        <f>LoRa_TxDone!H14</f>
-        <v>LoRa_BuforLength</v>
-      </c>
-      <c r="I14" s="2" t="str">
-        <f>LoRa_TxDone!I14</f>
-        <v>bufferIndex</v>
-      </c>
-      <c r="J14">
-        <f>LoRa_TxDone!J14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15">
-        <f>LoRa_Reset!B15</f>
-        <v>0</v>
-      </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="23"/>
-      <c r="G15" t="str">
-        <f>LoRa_TxDone!G15</f>
-        <v>uint8_t</v>
-      </c>
-      <c r="H15" t="str">
-        <f>LoRa_TxDone!H15</f>
-        <v>LoRa_Command</v>
-      </c>
-      <c r="I15" s="2">
-        <f>LoRa_TxDone!I15</f>
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <f>LoRa_TxDone!J15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16">
-        <f>LoRa_Reset!B16</f>
-        <v>0</v>
-      </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="23"/>
-      <c r="G16" t="str">
-        <f>LoRa_TxDone!G16</f>
-        <v>uint8_t</v>
-      </c>
-      <c r="H16" t="str">
-        <f>LoRa_TxDone!H16</f>
-        <v>LoRa_maxChannels</v>
-      </c>
-      <c r="I16" s="2" t="str">
-        <f>LoRa_TxDone!I16</f>
-        <v>MAX_EU_SINGLE_BAND_CHANNELS</v>
-      </c>
-      <c r="J16">
-        <f>LoRa_TxDone!J16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17">
-        <f>LoRa_Reset!B17</f>
-        <v>0</v>
-      </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="23"/>
-      <c r="G17" t="str">
-        <f>LoRa_TxDone!G17</f>
-        <v>uint8_t</v>
-      </c>
-      <c r="H17" t="str">
-        <f>LoRa_TxDone!H17</f>
-        <v>LoRa_lastUsedChannelIndex</v>
-      </c>
-      <c r="I17" s="2" t="str">
-        <f>LoRa_TxDone!I17</f>
-        <v>CH_nr</v>
-      </c>
-      <c r="J17">
-        <f>LoRa_TxDone!J17</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18">
-        <f>LoRa_Reset!B18</f>
-        <v>0</v>
-      </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="23"/>
-      <c r="G18" t="str">
-        <f>LoRa_TxDone!G18</f>
-        <v>ReceiveWindowParameters_t</v>
-      </c>
-      <c r="H18" t="str">
-        <f>LoRa_TxDone!H18</f>
-        <v>LoRa_ch0_params.frequency</v>
-      </c>
-      <c r="I18" s="2" t="str">
-        <f>LoRa_TxDone!I18</f>
-        <v>LoRa_CH0_frequency</v>
-      </c>
-      <c r="J18">
-        <f>LoRa_TxDone!J18</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19">
-        <f>LoRa_Reset!B19</f>
-        <v>0</v>
-      </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="23"/>
-      <c r="G19">
-        <f>LoRa_TxDone!G19</f>
-        <v>0</v>
-      </c>
-      <c r="H19" t="str">
-        <f>LoRa_TxDone!H19</f>
-        <v>LoRa_ch0_params.datarate</v>
-      </c>
-      <c r="I19" s="2" t="str">
-        <f>LoRa_TxDone!I19</f>
-        <v>LoRa_CH0_datarate</v>
-      </c>
-      <c r="J19">
-        <f>LoRa_TxDone!J19</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20">
-        <f>LoRa_Reset!B20</f>
-        <v>0</v>
-      </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="23"/>
-      <c r="G20" t="str">
-        <f>LoRa_TxDone!G20</f>
-        <v>ReceiveWindowParameters_t</v>
-      </c>
-      <c r="H20" t="str">
-        <f>LoRa_TxDone!H20</f>
-        <v>LoRa_receiveChannelParameters.frequency</v>
-      </c>
-      <c r="I20" s="2" t="str">
-        <f>LoRa_TxDone!I20</f>
-        <v>Channels[CH_nr].frequency</v>
-      </c>
-      <c r="J20">
-        <f>LoRa_TxDone!J20</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21">
-        <f>LoRa_Reset!B21</f>
-        <v>0</v>
-      </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="23"/>
-      <c r="G21">
-        <f>LoRa_TxDone!G21</f>
-        <v>0</v>
-      </c>
-      <c r="H21" t="str">
-        <f>LoRa_TxDone!H21</f>
-        <v>LoRa_receiveChannelParameters.dataRate</v>
-      </c>
-      <c r="I21" s="2" t="str">
-        <f>LoRa_TxDone!I21</f>
-        <v>LoRa_currentDataRate</v>
-      </c>
-      <c r="J21">
-        <f>LoRa_TxDone!J21</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22">
-        <f>LoRa_Reset!B22</f>
-        <v>0</v>
-      </c>
-      <c r="C22" s="39" t="s">
-        <v>207</v>
-      </c>
-      <c r="D22" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="23"/>
-      <c r="G22" t="str">
-        <f>LoRa_TxDone!G22</f>
-        <v>ReceiveWindowParameters_t</v>
-      </c>
-      <c r="H22" t="str">
-        <f>LoRa_TxDone!H22</f>
-        <v>LoRa_sendChannelParameters.frequency</v>
-      </c>
-      <c r="I22" s="2" t="str">
-        <f>LoRa_TxDone!I22</f>
-        <v>Channels[CH_nr].frequency</v>
-      </c>
-      <c r="J22">
-        <f>LoRa_TxDone!J22</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23">
-        <f>LoRa_Reset!B23</f>
-        <v>0</v>
-      </c>
-      <c r="C23" s="40" t="s">
-        <v>208</v>
-      </c>
-      <c r="D23" s="31">
-        <f>J47</f>
-        <v>0</v>
-      </c>
-      <c r="E23" s="22"/>
-      <c r="F23" s="23"/>
-      <c r="G23">
-        <f>LoRa_TxDone!G23</f>
-        <v>0</v>
-      </c>
-      <c r="H23" t="str">
-        <f>LoRa_TxDone!H23</f>
-        <v>LoRa_sendChannelParameters.dataRate</v>
-      </c>
-      <c r="I23" s="2" t="str">
-        <f>LoRa_TxDone!I23</f>
-        <v>LoRa_currentDataRate</v>
-      </c>
-      <c r="J23">
-        <f>LoRa_TxDone!J23</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24">
-        <f>LoRa_Reset!B24</f>
-        <v>0</v>
-      </c>
-      <c r="C24" s="26"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="28"/>
-      <c r="G24" t="str">
-        <f>LoRa_TxDone!G24</f>
-        <v>uint8_t</v>
-      </c>
-      <c r="H24" t="str">
-        <f>LoRa_TxDone!H24</f>
-        <v>LoRa_txPower</v>
-      </c>
-      <c r="I24" s="2">
-        <f>LoRa_TxDone!I24</f>
-        <v>1</v>
-      </c>
-      <c r="J24">
-        <f>LoRa_TxDone!J24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25">
-        <f>LoRa_Reset!B25</f>
-        <v>0</v>
-      </c>
-      <c r="C25" t="str">
-        <f>LoRa_TxDone!C25</f>
-        <v>DATA</v>
-      </c>
-      <c r="D25" s="2" t="str">
-        <f>LoRa_TxDone!D25</f>
-        <v>LoRa_HeaderBufor</v>
-      </c>
-      <c r="E25">
-        <f>LoRa_TxDone!E25</f>
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <f>LoRa_TxDone!F25</f>
-        <v>0</v>
-      </c>
-      <c r="G25" t="str">
-        <f>LoRa_TxDone!G25</f>
-        <v>uint8_t</v>
-      </c>
-      <c r="H25" t="str">
-        <f>LoRa_TxDone!H25</f>
-        <v>LoRa_syncWord</v>
-      </c>
-      <c r="I25" s="2" t="str">
-        <f>LoRa_TxDone!I25</f>
-        <v>0x34</v>
-      </c>
-      <c r="J25">
-        <f>LoRa_TxDone!J25</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" t="str">
-        <f>LoRa_Reset!B26</f>
-        <v>RADIO</v>
-      </c>
-      <c r="C26" t="str">
-        <f>LoRa_TxDone!C26</f>
-        <v>mode</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="E26">
-        <f>LoRa_TxDone!E26</f>
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <f>LoRa_TxDone!F26</f>
-        <v>0</v>
-      </c>
-      <c r="G26" t="str">
-        <f>LoRa_TxDone!G26</f>
-        <v>uint8_t</v>
-      </c>
-      <c r="H26" t="str">
-        <f>LoRa_TxDone!H26</f>
-        <v>LoRa_batteryLevel</v>
-      </c>
-      <c r="I26" s="2" t="str">
-        <f>LoRa_TxDone!I26</f>
-        <v>BATTERY_LEVEL_INVALID</v>
-      </c>
-      <c r="J26">
-        <f>LoRa_TxDone!J26</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27">
-        <f>LoRa_Reset!B27</f>
-        <v>0</v>
-      </c>
-      <c r="C27" t="str">
-        <f>LoRa_TxDone!C27</f>
-        <v>modulation</v>
-      </c>
-      <c r="D27" s="2" t="str">
-        <f>LoRa_TxDone!D27</f>
-        <v>modulation[dataRate]</v>
-      </c>
-      <c r="E27">
-        <f>LoRa_TxDone!E27</f>
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <f>LoRa_TxDone!F27</f>
-        <v>0</v>
-      </c>
-      <c r="G27" t="str">
-        <f>LoRa_TxDone!G27</f>
-        <v>IsmBand_t</v>
-      </c>
-      <c r="H27" t="str">
-        <f>LoRa_TxDone!H27</f>
-        <v>LoRa_ismBand</v>
-      </c>
-      <c r="I27" s="2" t="str">
-        <f>LoRa_TxDone!I27</f>
-        <v>ISM_EU868</v>
-      </c>
-      <c r="J27">
-        <f>LoRa_TxDone!J27</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B28">
-        <f>LoRa_Reset!B28</f>
-        <v>0</v>
-      </c>
-      <c r="C28" t="str">
-        <f>LoRa_TxDone!C28</f>
-        <v>frequency</v>
-      </c>
-      <c r="D28" s="2" t="str">
-        <f>LoRa_TxDone!D28</f>
-        <v>freq</v>
-      </c>
-      <c r="E28">
-        <f>LoRa_TxDone!E28</f>
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <f>LoRa_TxDone!F28</f>
-        <v>0</v>
-      </c>
-      <c r="G28" t="str">
-        <f>LoRa_TxDone!G28</f>
-        <v>uint8_t</v>
-      </c>
-      <c r="H28" t="str">
-        <f>LoRa_TxDone!H28</f>
-        <v>LoRa_currentDataRate</v>
-      </c>
-      <c r="I28" s="2" t="str">
-        <f>LoRa_TxDone!I28</f>
-        <v>DR0</v>
-      </c>
-      <c r="J28">
-        <f>LoRa_TxDone!J28</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29">
-        <f>LoRa_Reset!B29</f>
-        <v>0</v>
-      </c>
-      <c r="C29" t="str">
-        <f>LoRa_TxDone!C29</f>
-        <v>payload</v>
-      </c>
-      <c r="D29" s="2">
-        <f>LoRa_TxDone!D29</f>
-        <v>1</v>
-      </c>
-      <c r="E29">
-        <f>LoRa_TxDone!E29</f>
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <f>LoRa_TxDone!F29</f>
-        <v>0</v>
-      </c>
-      <c r="G29" t="str">
-        <f>LoRa_TxDone!G29</f>
-        <v>uint8_t</v>
-      </c>
-      <c r="H29" t="str">
-        <f>LoRa_TxDone!H29</f>
-        <v>LoRa_minDataRate</v>
-      </c>
-      <c r="I29" s="2" t="str">
-        <f>LoRa_TxDone!I29</f>
-        <v>DR0</v>
-      </c>
-      <c r="J29">
-        <f>LoRa_TxDone!J29</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30">
-        <f>LoRa_Reset!B30</f>
-        <v>0</v>
-      </c>
-      <c r="C30" t="str">
-        <f>LoRa_TxDone!C30</f>
-        <v>power</v>
-      </c>
-      <c r="D30" s="2" t="str">
-        <f>LoRa_TxDone!D30</f>
-        <v>txPower868[LoRa_txPower]</v>
-      </c>
-      <c r="E30">
-        <f>LoRa_TxDone!E30</f>
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <f>LoRa_TxDone!F30</f>
-        <v>0</v>
-      </c>
-      <c r="G30" t="str">
-        <f>LoRa_TxDone!G30</f>
-        <v>uint8_t</v>
-      </c>
-      <c r="H30" t="str">
-        <f>LoRa_TxDone!H30</f>
-        <v>LoRa_maxDataRate</v>
-      </c>
-      <c r="I30" s="2" t="str">
-        <f>LoRa_TxDone!I30</f>
-        <v>DR7</v>
-      </c>
-      <c r="J30">
-        <f>LoRa_TxDone!J30</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B31">
-        <f>LoRa_Reset!B31</f>
-        <v>0</v>
-      </c>
-      <c r="C31" t="str">
-        <f>LoRa_TxDone!C31</f>
-        <v>SpreadingFactor</v>
-      </c>
-      <c r="D31" s="2" t="str">
-        <f>LoRa_TxDone!D31</f>
-        <v>spreadingFactor[dataRate]</v>
-      </c>
-      <c r="E31">
-        <f>LoRa_TxDone!E31</f>
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <f>LoRa_TxDone!F31</f>
-        <v>0</v>
-      </c>
-      <c r="G31" t="str">
-        <f>LoRa_TxDone!G31</f>
-        <v>uint8_t</v>
-      </c>
-      <c r="H31" t="str">
-        <f>LoRa_TxDone!H31</f>
-        <v>LoRa_nextUsedChannel</v>
-      </c>
-      <c r="I31" s="2">
-        <f>LoRa_TxDone!I31</f>
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <f>LoRa_TxDone!J31</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B32">
-        <f>LoRa_Reset!B32</f>
-        <v>0</v>
-      </c>
-      <c r="C32" t="str">
-        <f>LoRa_TxDone!C32</f>
-        <v>Bandwidth</v>
-      </c>
-      <c r="D32" s="2" t="str">
-        <f>LoRa_TxDone!D32</f>
-        <v>bandwidth[dataRate]</v>
-      </c>
-      <c r="E32">
-        <f>LoRa_TxDone!E32</f>
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <f>LoRa_TxDone!F32</f>
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <f>LoRa_TxDone!G32</f>
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <f>LoRa_TxDone!H32</f>
-        <v>0</v>
-      </c>
-      <c r="I32" s="2">
-        <f>LoRa_TxDone!I32</f>
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <f>LoRa_TxDone!J32</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B33">
-        <f>LoRa_Reset!B33</f>
-        <v>0</v>
-      </c>
-      <c r="C33" t="str">
-        <f>LoRa_TxDone!C33</f>
-        <v>SyncWord</v>
-      </c>
-      <c r="D33" s="2" t="str">
-        <f>LoRa_TxDone!D33</f>
-        <v>LoRa_syncWord</v>
-      </c>
-      <c r="E33">
-        <f>LoRa_TxDone!E33</f>
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <f>LoRa_TxDone!F33</f>
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <f>LoRa_TxDone!G33</f>
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <f>LoRa_TxDone!H33</f>
-        <v>0</v>
-      </c>
-      <c r="I33" s="2">
-        <f>LoRa_TxDone!I33</f>
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <f>LoRa_TxDone!J33</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B34">
-        <f>LoRa_Reset!B34</f>
-        <v>0</v>
-      </c>
-      <c r="C34" t="str">
-        <f>LoRa_TxDone!C34</f>
-        <v>CRC</v>
-      </c>
-      <c r="D34" s="2" t="str">
-        <f>LoRa_TxDone!D34</f>
-        <v>DISABLED</v>
-      </c>
-      <c r="E34">
-        <f>LoRa_TxDone!E34</f>
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <f>LoRa_TxDone!F34</f>
-        <v>0</v>
-      </c>
-      <c r="G34" t="str">
-        <f>LoRa_TxDone!G34</f>
-        <v>uint32_t</v>
-      </c>
-      <c r="H34" t="str">
-        <f>LoRa_TxDone!H34</f>
-        <v>frequency;</v>
-      </c>
-      <c r="I34" s="2" t="str">
-        <f>LoRa_TxDone!I34</f>
-        <v>freq</v>
-      </c>
-      <c r="J34">
-        <f>LoRa_TxDone!J34</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B35">
-        <f>LoRa_Reset!B35</f>
-        <v>0</v>
-      </c>
-      <c r="C35" t="str">
-        <f>LoRa_TxDone!C35</f>
-        <v>IQInverted</v>
-      </c>
-      <c r="D35" s="2" t="str">
-        <f>LoRa_TxDone!D35</f>
-        <v>DISABLED</v>
-      </c>
-      <c r="E35">
-        <f>LoRa_TxDone!E35</f>
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <f>LoRa_TxDone!F35</f>
-        <v>0</v>
-      </c>
-      <c r="G35" t="str">
-        <f>LoRa_TxDone!G35</f>
-        <v>uint32_t</v>
-      </c>
-      <c r="H35" t="str">
-        <f>LoRa_TxDone!H35</f>
-        <v>frequencyDeviation;</v>
-      </c>
-      <c r="I35" s="2">
-        <f>LoRa_TxDone!I35</f>
-        <v>25000</v>
-      </c>
-      <c r="J35">
-        <f>LoRa_TxDone!J35</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B36">
-        <f>LoRa_Reset!B36</f>
-        <v>0</v>
-      </c>
-      <c r="C36" t="str">
-        <f>LoRa_TxDone!C36</f>
-        <v>HopPeriod</v>
-      </c>
-      <c r="D36" s="2" t="str">
-        <f>LoRa_TxDone!D36</f>
-        <v>DISABLED</v>
-      </c>
-      <c r="E36">
-        <f>LoRa_TxDone!E36</f>
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <f>LoRa_TxDone!F36</f>
-        <v>0</v>
-      </c>
-      <c r="G36" t="str">
-        <f>LoRa_TxDone!G36</f>
-        <v>uint32_t</v>
-      </c>
-      <c r="H36" t="str">
-        <f>LoRa_TxDone!H36</f>
-        <v>bitRate;</v>
-      </c>
-      <c r="I36" s="2">
-        <f>LoRa_TxDone!I36</f>
-        <v>50000</v>
-      </c>
-      <c r="J36">
-        <f>LoRa_TxDone!J36</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B37">
-        <f>LoRa_Reset!B37</f>
-        <v>0</v>
-      </c>
-      <c r="C37" t="str">
-        <f>LoRa_TxDone!C37</f>
-        <v>errorCodingRate</v>
-      </c>
-      <c r="D37" s="2" t="str">
-        <f>LoRa_TxDone!D37</f>
-        <v>CR_4_5</v>
-      </c>
-      <c r="E37">
-        <f>LoRa_TxDone!E37</f>
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <f>LoRa_TxDone!F37</f>
-        <v>0</v>
-      </c>
-      <c r="G37" t="str">
-        <f>LoRa_TxDone!G37</f>
-        <v>uint16_t</v>
-      </c>
-      <c r="H37" t="str">
-        <f>LoRa_TxDone!H37</f>
-        <v>preambleLen;</v>
-      </c>
-      <c r="I37" s="2">
-        <f>LoRa_TxDone!I37</f>
-        <v>8</v>
-      </c>
-      <c r="J37">
-        <f>LoRa_TxDone!J37</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B38">
-        <f>LoRa_Reset!B38</f>
-        <v>0</v>
-      </c>
-      <c r="C38" t="str">
-        <f>LoRa_TxDone!C38</f>
-        <v>implicitHeaderMode</v>
-      </c>
-      <c r="D38" s="2" t="str">
-        <f>LoRa_TxDone!D38</f>
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <f>LoRa_TxDone!E38</f>
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <f>LoRa_TxDone!F38</f>
-        <v>0</v>
-      </c>
-      <c r="G38" t="str">
-        <f>LoRa_TxDone!G38</f>
-        <v>uint8_t</v>
-      </c>
-      <c r="H38" t="str">
-        <f>LoRa_TxDone!H38</f>
-        <v>syncWordLoRa;</v>
-      </c>
-      <c r="I38" s="2" t="str">
-        <f>LoRa_TxDone!I38</f>
-        <v>LoRa_syncWord</v>
-      </c>
-      <c r="J38">
-        <f>LoRa_TxDone!J38</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B39">
-        <f>LoRa_Reset!B39</f>
-        <v>0</v>
-      </c>
-      <c r="C39" t="str">
-        <f>LoRa_TxDone!C39</f>
-        <v>symbolTimeout</v>
-      </c>
-      <c r="D39" s="2">
-        <f>LoRa_TxDone!D39</f>
-        <v>4</v>
-      </c>
-      <c r="E39">
-        <f>LoRa_TxDone!E39</f>
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <f>LoRa_TxDone!F39</f>
-        <v>0</v>
-      </c>
-      <c r="G39" t="str">
-        <f>LoRa_TxDone!G39</f>
-        <v>uint8_t</v>
-      </c>
-      <c r="H39" t="str">
-        <f>LoRa_TxDone!H39</f>
-        <v>syncWord[8];</v>
-      </c>
-      <c r="I39" s="2" t="str">
-        <f>LoRa_TxDone!I39</f>
-        <v>0xc1 0x94 0xc1</v>
-      </c>
-      <c r="J39">
-        <f>LoRa_TxDone!J39</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B40">
-        <f>LoRa_Reset!B40</f>
-        <v>0</v>
-      </c>
-      <c r="C40" t="str">
-        <f>LoRa_TxDone!C40</f>
-        <v>FSKfreqDeviation</v>
-      </c>
-      <c r="D40" s="2">
-        <f>LoRa_TxDone!D40</f>
-        <v>25000</v>
-      </c>
-      <c r="E40">
-        <f>LoRa_TxDone!E40</f>
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <f>LoRa_TxDone!F40</f>
-        <v>0</v>
-      </c>
-      <c r="G40" t="str">
-        <f>LoRa_TxDone!G40</f>
-        <v>uint8_t</v>
-      </c>
-      <c r="H40" t="str">
-        <f>LoRa_TxDone!H40</f>
-        <v>syncWordLen;</v>
-      </c>
-      <c r="I40" s="2">
-        <f>LoRa_TxDone!I40</f>
-        <v>3</v>
-      </c>
-      <c r="J40">
-        <f>LoRa_TxDone!J40</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B41">
-        <f>LoRa_Reset!B41</f>
-        <v>0</v>
-      </c>
-      <c r="C41" t="str">
-        <f>LoRa_TxDone!C41</f>
-        <v>FSKBitRate</v>
-      </c>
-      <c r="D41" s="2">
-        <f>LoRa_TxDone!D41</f>
-        <v>50000</v>
-      </c>
-      <c r="E41">
-        <f>LoRa_TxDone!E41</f>
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <f>LoRa_TxDone!F41</f>
-        <v>0</v>
-      </c>
-      <c r="G41" t="str">
-        <f>LoRa_TxDone!G41</f>
-        <v>RadioModulation_t</v>
-      </c>
-      <c r="H41" t="str">
-        <f>LoRa_TxDone!H41</f>
-        <v>modulation;</v>
-      </c>
-      <c r="I41" s="2" t="str">
-        <f>LoRa_TxDone!I41</f>
-        <v>modulation[dataRate]</v>
-      </c>
-      <c r="J41">
-        <f>LoRa_TxDone!J41</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B42">
-        <f>LoRa_Reset!B42</f>
-        <v>0</v>
-      </c>
-      <c r="C42" t="str">
-        <f>LoRa_TxDone!C42</f>
-        <v>FSK_PREAMBLE</v>
-      </c>
-      <c r="D42" s="2">
-        <f>LoRa_TxDone!D42</f>
-        <v>8</v>
-      </c>
-      <c r="E42">
-        <f>LoRa_TxDone!E42</f>
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <f>LoRa_TxDone!F42</f>
-        <v>0</v>
-      </c>
-      <c r="G42" t="str">
-        <f>LoRa_TxDone!G42</f>
-        <v>RadioDataRate_t</v>
-      </c>
-      <c r="H42" t="str">
-        <f>LoRa_TxDone!H42</f>
-        <v>dataRate;</v>
-      </c>
-      <c r="I42" s="2" t="str">
-        <f>LoRa_TxDone!I42</f>
-        <v>spreadingFactor[dataRate]</v>
-      </c>
-      <c r="J42">
-        <f>LoRa_TxDone!J42</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B43">
-        <f>LoRa_Reset!B43</f>
-        <v>0</v>
-      </c>
-      <c r="C43" t="str">
-        <f>LoRa_TxDone!C43</f>
-        <v>fskDataShaping</v>
-      </c>
-      <c r="D43" s="2" t="str">
-        <f>LoRa_TxDone!D43</f>
-        <v>FSK_SHAPING_GAUSS_BT_0_5</v>
-      </c>
-      <c r="E43">
-        <f>LoRa_TxDone!E43</f>
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <f>LoRa_TxDone!F43</f>
-        <v>0</v>
-      </c>
-      <c r="G43" t="str">
-        <f>LoRa_TxDone!G43</f>
-        <v>RadioLoRaBandWidth_t</v>
-      </c>
-      <c r="H43" t="str">
-        <f>LoRa_TxDone!H43</f>
-        <v>bandWidth;</v>
-      </c>
-      <c r="I43" s="2" t="str">
-        <f>LoRa_TxDone!I43</f>
-        <v>bandwidth[dataRate]</v>
-      </c>
-      <c r="J43">
-        <f>LoRa_TxDone!J43</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B44">
-        <f>LoRa_Reset!B44</f>
-        <v>0</v>
-      </c>
-      <c r="C44">
-        <f>LoRa_TxDone!C44</f>
-        <v>0</v>
-      </c>
-      <c r="D44" s="2">
-        <f>LoRa_TxDone!D44</f>
-        <v>0</v>
-      </c>
-      <c r="E44">
-        <f>LoRa_TxDone!E44</f>
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <f>LoRa_TxDone!F44</f>
-        <v>0</v>
-      </c>
-      <c r="G44" t="str">
-        <f>LoRa_TxDone!G44</f>
-        <v>int8_t</v>
-      </c>
-      <c r="H44" t="str">
-        <f>LoRa_TxDone!H44</f>
-        <v>outputPower;</v>
-      </c>
-      <c r="I44" s="2" t="str">
-        <f>LoRa_TxDone!I44</f>
-        <v>txPower868[LoRa_txPower]</v>
-      </c>
-      <c r="J44">
-        <f>LoRa_TxDone!J44</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B45">
-        <f>LoRa_Reset!B45</f>
-        <v>0</v>
-      </c>
-      <c r="C45">
-        <f>LoRa_TxDone!C45</f>
-        <v>0</v>
-      </c>
-      <c r="D45" s="2">
-        <f>LoRa_TxDone!D45</f>
-        <v>0</v>
-      </c>
-      <c r="E45">
-        <f>LoRa_TxDone!E45</f>
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <f>LoRa_TxDone!F45</f>
-        <v>0</v>
-      </c>
-      <c r="G45" t="str">
-        <f>LoRa_TxDone!G45</f>
-        <v>uint8_t</v>
-      </c>
-      <c r="H45" t="str">
-        <f>LoRa_TxDone!H45</f>
-        <v>crcOn;</v>
-      </c>
-      <c r="I45" s="2" t="str">
-        <f>LoRa_TxDone!I45</f>
-        <v>DISABLED</v>
-      </c>
-      <c r="J45">
-        <f>LoRa_TxDone!J45</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B46">
-        <f>LoRa_Reset!B46</f>
-        <v>0</v>
-      </c>
-      <c r="C46">
-        <f>LoRa_TxDone!C46</f>
-        <v>0</v>
-      </c>
-      <c r="D46" s="2">
-        <f>LoRa_TxDone!D46</f>
-        <v>0</v>
-      </c>
-      <c r="E46">
-        <f>LoRa_TxDone!E46</f>
-        <v>0</v>
-      </c>
-      <c r="F46">
-        <f>LoRa_TxDone!F46</f>
-        <v>0</v>
-      </c>
-      <c r="G46" t="str">
-        <f>LoRa_TxDone!G46</f>
-        <v>uint8_t</v>
-      </c>
-      <c r="H46" t="str">
-        <f>LoRa_TxDone!H46</f>
-        <v>paBoost;</v>
-      </c>
-      <c r="I46" s="2" t="str">
-        <f>LoRa_TxDone!I46</f>
-        <v>0</v>
-      </c>
-      <c r="J46">
-        <f>LoRa_TxDone!J46</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B47">
-        <f>LoRa_Reset!B47</f>
-        <v>0</v>
-      </c>
-      <c r="C47">
-        <f>LoRa_TxDone!C47</f>
-        <v>0</v>
-      </c>
-      <c r="D47" s="2">
-        <f>LoRa_TxDone!D47</f>
-        <v>0</v>
-      </c>
-      <c r="E47">
-        <f>LoRa_TxDone!E47</f>
-        <v>0</v>
-      </c>
-      <c r="F47">
-        <f>LoRa_TxDone!F47</f>
-        <v>0</v>
-      </c>
-      <c r="G47" t="str">
-        <f>LoRa_TxDone!G47</f>
-        <v>uint8_t</v>
-      </c>
-      <c r="H47" t="str">
-        <f>LoRa_TxDone!H47</f>
-        <v>flags</v>
-      </c>
-      <c r="I47" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="J47" s="5"/>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B48">
-        <f>LoRa_Reset!B48</f>
-        <v>0</v>
-      </c>
-      <c r="C48">
-        <f>LoRa_TxDone!C48</f>
-        <v>0</v>
-      </c>
-      <c r="D48" s="2">
-        <f>LoRa_TxDone!D48</f>
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <f>LoRa_TxDone!E48</f>
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <f>LoRa_TxDone!F48</f>
-        <v>0</v>
-      </c>
-      <c r="G48" t="str">
-        <f>LoRa_TxDone!G48</f>
-        <v>uint16_t</v>
-      </c>
-      <c r="H48" t="str">
-        <f>LoRa_TxDone!H48</f>
-        <v>frequencyHopPeriod;</v>
-      </c>
-      <c r="I48" s="2" t="str">
-        <f>LoRa_TxDone!I48</f>
-        <v>DISABLED</v>
-      </c>
-      <c r="J48">
-        <f>LoRa_TxDone!J48</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B49">
-        <f>LoRa_Reset!B49</f>
-        <v>0</v>
-      </c>
-      <c r="C49">
-        <f>LoRa_TxDone!C49</f>
-        <v>0</v>
-      </c>
-      <c r="D49" s="2">
-        <f>LoRa_TxDone!D49</f>
-        <v>0</v>
-      </c>
-      <c r="E49">
-        <f>LoRa_TxDone!E49</f>
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <f>LoRa_TxDone!F49</f>
-        <v>0</v>
-      </c>
-      <c r="G49" t="str">
-        <f>LoRa_TxDone!G49</f>
-        <v>uint8_t</v>
-      </c>
-      <c r="H49" t="str">
-        <f>LoRa_TxDone!H49</f>
-        <v>iqInverted;</v>
-      </c>
-      <c r="I49" s="2" t="str">
-        <f>LoRa_TxDone!I49</f>
-        <v>DISABLED</v>
-      </c>
-      <c r="J49">
-        <f>LoRa_TxDone!J49</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B50">
-        <f>LoRa_Reset!B50</f>
-        <v>0</v>
-      </c>
-      <c r="C50">
-        <f>LoRa_TxDone!C50</f>
-        <v>0</v>
-      </c>
-      <c r="D50" s="2">
-        <f>LoRa_TxDone!D50</f>
-        <v>0</v>
-      </c>
-      <c r="E50">
-        <f>LoRa_TxDone!E50</f>
-        <v>0</v>
-      </c>
-      <c r="F50">
-        <f>LoRa_TxDone!F50</f>
-        <v>0</v>
-      </c>
-      <c r="G50" t="str">
-        <f>LoRa_TxDone!G50</f>
-        <v>RadioErrorCodingRate_t</v>
-      </c>
-      <c r="H50" t="str">
-        <f>LoRa_TxDone!H50</f>
-        <v>errorCodingRate;</v>
-      </c>
-      <c r="I50" s="2" t="str">
-        <f>LoRa_TxDone!I50</f>
-        <v>CR_4_5</v>
-      </c>
-      <c r="J50">
-        <f>LoRa_TxDone!J50</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B51">
-        <f>LoRa_Reset!B51</f>
-        <v>0</v>
-      </c>
-      <c r="C51">
-        <f>LoRa_TxDone!C51</f>
-        <v>0</v>
-      </c>
-      <c r="D51" s="2">
-        <f>LoRa_TxDone!D51</f>
-        <v>0</v>
-      </c>
-      <c r="E51">
-        <f>LoRa_TxDone!E51</f>
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <f>LoRa_TxDone!F51</f>
-        <v>0</v>
-      </c>
-      <c r="G51" t="str">
-        <f>LoRa_TxDone!G51</f>
-        <v>uint8_t</v>
-      </c>
-      <c r="H51" t="str">
-        <f>LoRa_TxDone!H51</f>
-        <v>implicitHeaderMode;</v>
-      </c>
-      <c r="I51" s="2" t="str">
-        <f>LoRa_TxDone!I51</f>
-        <v>0</v>
-      </c>
-      <c r="J51">
-        <f>LoRa_TxDone!J51</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B52">
-        <f>LoRa_Reset!B52</f>
-        <v>0</v>
-      </c>
-      <c r="C52">
-        <f>LoRa_TxDone!C52</f>
-        <v>0</v>
-      </c>
-      <c r="D52" s="2">
-        <f>LoRa_TxDone!D52</f>
-        <v>0</v>
-      </c>
-      <c r="E52">
-        <f>LoRa_TxDone!E52</f>
-        <v>0</v>
-      </c>
-      <c r="F52">
-        <f>LoRa_TxDone!F52</f>
-        <v>0</v>
-      </c>
-      <c r="G52">
-        <f>LoRa_TxDone!G52</f>
-        <v>0</v>
-      </c>
-      <c r="H52">
-        <f>LoRa_TxDone!H52</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B53">
-        <f>LoRa_Reset!B53</f>
-        <v>0</v>
-      </c>
-      <c r="C53">
-        <f>LoRa_TxDone!C53</f>
-        <v>0</v>
-      </c>
-      <c r="D53" s="2">
-        <f>LoRa_TxDone!D53</f>
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <f>LoRa_TxDone!E53</f>
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <f>LoRa_TxDone!F53</f>
-        <v>0</v>
-      </c>
-      <c r="G53" t="str">
-        <f>LoRa_TxDone!G53</f>
-        <v>uint8_t</v>
-      </c>
-      <c r="H53" t="str">
-        <f>LoRa_TxDone!H53</f>
-        <v>dataBufferLen;</v>
-      </c>
-      <c r="I53" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="J53">
-        <f>LoRa_TxDone!J53</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B54">
-        <f>LoRa_Reset!B54</f>
-        <v>0</v>
-      </c>
-      <c r="C54">
-        <f>LoRa_TxDone!C54</f>
-        <v>0</v>
-      </c>
-      <c r="D54" s="2">
-        <f>LoRa_TxDone!D54</f>
-        <v>0</v>
-      </c>
-      <c r="E54">
-        <f>LoRa_TxDone!E54</f>
-        <v>0</v>
-      </c>
-      <c r="F54">
-        <f>LoRa_TxDone!F54</f>
-        <v>0</v>
-      </c>
-      <c r="G54" t="str">
-        <f>LoRa_TxDone!G54</f>
-        <v>uint8_t</v>
-      </c>
-      <c r="H54" t="str">
-        <f>LoRa_TxDone!H54</f>
-        <v>*dataBuffer;</v>
-      </c>
-      <c r="I54" s="6" t="str">
-        <f>LoRa_TxDone!I54</f>
-        <v>LoRa_radioBuffer</v>
-      </c>
-      <c r="J54">
-        <f>LoRa_TxDone!J54</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B55">
-        <f>LoRa_Reset!B55</f>
-        <v>0</v>
-      </c>
-      <c r="C55">
-        <f>LoRa_TxDone!C55</f>
-        <v>0</v>
-      </c>
-      <c r="D55" s="2">
-        <f>LoRa_TxDone!D55</f>
-        <v>0</v>
-      </c>
-      <c r="E55">
-        <f>LoRa_TxDone!E55</f>
-        <v>0</v>
-      </c>
-      <c r="F55">
-        <f>LoRa_TxDone!F55</f>
-        <v>0</v>
-      </c>
-      <c r="G55" t="str">
-        <f>LoRa_TxDone!G55</f>
-        <v>uint8_t</v>
-      </c>
-      <c r="H55" t="str">
-        <f>LoRa_TxDone!H55</f>
-        <v>timeOnAirTimerId;</v>
-      </c>
-      <c r="I55" s="2" t="str">
-        <f>LoRa_TxDone!I55</f>
-        <v>TIME_ON_AIR_LOAD_VALUE</v>
-      </c>
-      <c r="J55">
-        <f>LoRa_TxDone!J55</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B56">
-        <f>LoRa_Reset!B56</f>
-        <v>0</v>
-      </c>
-      <c r="C56">
-        <f>LoRa_TxDone!C56</f>
-        <v>0</v>
-      </c>
-      <c r="D56" s="2">
-        <f>LoRa_TxDone!D56</f>
-        <v>0</v>
-      </c>
-      <c r="E56">
-        <f>LoRa_TxDone!E56</f>
-        <v>0</v>
-      </c>
-      <c r="F56">
-        <f>LoRa_TxDone!F56</f>
-        <v>0</v>
-      </c>
-      <c r="G56" t="str">
-        <f>LoRa_TxDone!G56</f>
-        <v>uint8_t</v>
-      </c>
-      <c r="H56" t="str">
-        <f>LoRa_TxDone!H56</f>
-        <v>fskRxWindowTimerId;</v>
-      </c>
-      <c r="I56" s="2" t="str">
-        <f>LoRa_TxDone!I56</f>
-        <v>0</v>
-      </c>
-      <c r="J56" t="str">
-        <f>LoRa_TxDone!J56</f>
-        <v>RADIO_RxFSKTimeout</v>
-      </c>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B57">
-        <f>LoRa_Reset!B57</f>
-        <v>0</v>
-      </c>
-      <c r="C57">
-        <f>LoRa_TxDone!C57</f>
-        <v>0</v>
-      </c>
-      <c r="D57" s="2">
-        <f>LoRa_TxDone!D57</f>
-        <v>0</v>
-      </c>
-      <c r="E57">
-        <f>LoRa_TxDone!E57</f>
-        <v>0</v>
-      </c>
-      <c r="F57">
-        <f>LoRa_TxDone!F57</f>
-        <v>0</v>
-      </c>
-      <c r="G57" t="str">
-        <f>LoRa_TxDone!G57</f>
-        <v>uint8_t</v>
-      </c>
-      <c r="H57" t="str">
-        <f>LoRa_TxDone!H57</f>
-        <v>watchdogTimerId;</v>
-      </c>
-      <c r="I57" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="J57" t="str">
-        <f>LoRa_TxDone!J57</f>
-        <v>RADIO_WatchdogTimeout</v>
-      </c>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B58">
-        <f>LoRa_Reset!B58</f>
-        <v>0</v>
-      </c>
-      <c r="C58">
-        <f>LoRa_TxDone!C58</f>
-        <v>0</v>
-      </c>
-      <c r="D58" s="2">
-        <f>LoRa_TxDone!D58</f>
-        <v>0</v>
-      </c>
-      <c r="E58">
-        <f>LoRa_TxDone!E58</f>
-        <v>0</v>
-      </c>
-      <c r="F58">
-        <f>LoRa_TxDone!F58</f>
-        <v>0</v>
-      </c>
-      <c r="G58" t="str">
-        <f>LoRa_TxDone!G58</f>
-        <v>uint32_t</v>
-      </c>
-      <c r="H58" t="str">
-        <f>LoRa_TxDone!H58</f>
-        <v>watchdogTimerTimeout;</v>
-      </c>
-      <c r="I58" s="2" t="str">
-        <f>LoRa_TxDone!I58</f>
-        <v>watchdogTimerTimeout</v>
-      </c>
-      <c r="J58">
-        <f>LoRa_TxDone!J58</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B59">
-        <f>LoRa_Reset!B59</f>
-        <v>0</v>
-      </c>
-      <c r="C59">
-        <f>LoRa_TxDone!C59</f>
-        <v>0</v>
-      </c>
-      <c r="D59" s="2">
-        <f>LoRa_TxDone!D59</f>
-        <v>0</v>
-      </c>
-      <c r="E59">
-        <f>LoRa_TxDone!E59</f>
-        <v>0</v>
-      </c>
-      <c r="F59">
-        <f>LoRa_TxDone!F59</f>
-        <v>0</v>
-      </c>
-      <c r="G59" t="str">
-        <f>LoRa_TxDone!G59</f>
-        <v>uint8_t</v>
-      </c>
-      <c r="H59" t="str">
-        <f>LoRa_TxDone!H59</f>
-        <v>initialized;</v>
-      </c>
-      <c r="I59" s="2">
-        <f>LoRa_TxDone!I59</f>
-        <v>1</v>
-      </c>
-      <c r="J59">
-        <f>LoRa_TxDone!J59</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B60">
-        <f>LoRa_Reset!B60</f>
-        <v>0</v>
-      </c>
-      <c r="C60">
-        <f>LoRa_TxDone!C60</f>
-        <v>0</v>
-      </c>
-      <c r="D60" s="2">
-        <f>LoRa_TxDone!D60</f>
-        <v>0</v>
-      </c>
-      <c r="E60">
-        <f>LoRa_TxDone!E60</f>
-        <v>0</v>
-      </c>
-      <c r="F60">
-        <f>LoRa_TxDone!F60</f>
-        <v>0</v>
-      </c>
-      <c r="G60" t="str">
-        <f>LoRa_TxDone!G60</f>
-        <v>uint32_t</v>
-      </c>
-      <c r="H60" t="str">
-        <f>LoRa_TxDone!H60</f>
-        <v>(*fhssNextFrequency)(void);</v>
-      </c>
-      <c r="I60" s="2" t="str">
-        <f>LoRa_TxDone!I60</f>
-        <v>NULL</v>
-      </c>
-      <c r="J60">
-        <f>LoRa_TxDone!J60</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B61">
-        <f>LoRa_Reset!B61</f>
-        <v>0</v>
-      </c>
-      <c r="C61">
-        <f>LoRa_TxDone!C61</f>
-        <v>0</v>
-      </c>
-      <c r="D61" s="2">
-        <f>LoRa_TxDone!D61</f>
-        <v>0</v>
-      </c>
-      <c r="E61">
-        <f>LoRa_TxDone!E61</f>
-        <v>0</v>
-      </c>
-      <c r="F61">
-        <f>LoRa_TxDone!F61</f>
-        <v>0</v>
-      </c>
-      <c r="G61" t="str">
-        <f>LoRa_TxDone!G61</f>
-        <v>uint8_t</v>
-      </c>
-      <c r="H61" t="str">
-        <f>LoRa_TxDone!H61</f>
-        <v>regVersion;</v>
-      </c>
-      <c r="I61" s="2" t="str">
-        <f>LoRa_TxDone!I61</f>
-        <v>RADIO(REG_VERSION)</v>
-      </c>
-      <c r="J61">
-        <f>LoRa_TxDone!J61</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B62">
-        <f>LoRa_Reset!B62</f>
-        <v>0</v>
-      </c>
-      <c r="C62">
-        <f>LoRa_TxDone!C62</f>
-        <v>0</v>
-      </c>
-      <c r="D62" s="2">
-        <f>LoRa_TxDone!D62</f>
-        <v>0</v>
-      </c>
-      <c r="E62">
-        <f>LoRa_TxDone!E62</f>
-        <v>0</v>
-      </c>
-      <c r="F62">
-        <f>LoRa_TxDone!F62</f>
-        <v>0</v>
-      </c>
-      <c r="G62" t="str">
-        <f>LoRa_TxDone!G62</f>
-        <v>int8_t</v>
-      </c>
-      <c r="H62" t="str">
-        <f>LoRa_TxDone!H62</f>
-        <v>packetSNR;</v>
-      </c>
-      <c r="I62" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="J62">
-        <f>LoRa_TxDone!J62</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B63">
-        <f>LoRa_Reset!B63</f>
-        <v>0</v>
-      </c>
-      <c r="C63">
-        <f>LoRa_TxDone!C63</f>
-        <v>0</v>
-      </c>
-      <c r="D63" s="2">
-        <f>LoRa_TxDone!D63</f>
-        <v>0</v>
-      </c>
-      <c r="E63">
-        <f>LoRa_TxDone!E63</f>
-        <v>0</v>
-      </c>
-      <c r="F63">
-        <f>LoRa_TxDone!F63</f>
-        <v>0</v>
-      </c>
-      <c r="G63" t="str">
-        <f>LoRa_TxDone!G63</f>
-        <v>RadioFSKShaping_t</v>
-      </c>
-      <c r="H63" t="str">
-        <f>LoRa_TxDone!H63</f>
-        <v>fskDataShaping;</v>
-      </c>
-      <c r="I63" s="2" t="str">
-        <f>LoRa_TxDone!I63</f>
-        <v>FSK_SHAPING_GAUSS_BT_0_5</v>
-      </c>
-      <c r="J63">
-        <f>LoRa_TxDone!J63</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B64">
-        <f>LoRa_Reset!B64</f>
-        <v>0</v>
-      </c>
-      <c r="C64">
-        <f>LoRa_TxDone!C64</f>
-        <v>0</v>
-      </c>
-      <c r="D64" s="2">
-        <f>LoRa_TxDone!D64</f>
-        <v>0</v>
-      </c>
-      <c r="E64">
-        <f>LoRa_TxDone!E64</f>
-        <v>0</v>
-      </c>
-      <c r="F64">
-        <f>LoRa_TxDone!F64</f>
-        <v>0</v>
-      </c>
-      <c r="G64" t="str">
-        <f>LoRa_TxDone!G64</f>
-        <v>RadioFSKBandWidth_t</v>
-      </c>
-      <c r="H64" t="str">
-        <f>LoRa_TxDone!H64</f>
-        <v>rxBw;</v>
-      </c>
-      <c r="I64" s="2" t="str">
-        <f>LoRa_TxDone!I64</f>
-        <v>FSKBW_50_0KHZ</v>
-      </c>
-      <c r="J64">
-        <f>LoRa_TxDone!J64</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B65">
-        <f>LoRa_Reset!B65</f>
-        <v>0</v>
-      </c>
-      <c r="C65">
-        <f>LoRa_TxDone!C65</f>
-        <v>0</v>
-      </c>
-      <c r="D65" s="2">
-        <f>LoRa_TxDone!D65</f>
-        <v>0</v>
-      </c>
-      <c r="E65">
-        <f>LoRa_TxDone!E65</f>
-        <v>0</v>
-      </c>
-      <c r="F65">
-        <f>LoRa_TxDone!F65</f>
-        <v>0</v>
-      </c>
-      <c r="G65" t="str">
-        <f>LoRa_TxDone!G65</f>
-        <v>RadioFSKBandWidth_t</v>
-      </c>
-      <c r="H65" t="str">
-        <f>LoRa_TxDone!H65</f>
-        <v>afcBw;</v>
-      </c>
-      <c r="I65" s="2" t="str">
-        <f>LoRa_TxDone!I65</f>
-        <v>FSKBW_83_3KHZ</v>
-      </c>
-      <c r="J65">
-        <f>LoRa_TxDone!J65</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B66">
-        <f>LoRa_Reset!B66</f>
-        <v>0</v>
-      </c>
-      <c r="C66">
-        <f>LoRa_TxDone!C66</f>
-        <v>0</v>
-      </c>
-      <c r="D66" s="2">
-        <f>LoRa_TxDone!D66</f>
-        <v>0</v>
-      </c>
-      <c r="E66">
-        <f>LoRa_TxDone!E66</f>
-        <v>0</v>
-      </c>
-      <c r="F66">
-        <f>LoRa_TxDone!F66</f>
-        <v>0</v>
-      </c>
-      <c r="G66">
-        <f>LoRa_TxDone!G66</f>
-        <v>0</v>
-      </c>
-      <c r="H66">
-        <f>LoRa_TxDone!H66</f>
-        <v>0</v>
-      </c>
-      <c r="I66" s="2">
-        <f>LoRa_TxDone!I66</f>
-        <v>0</v>
-      </c>
-      <c r="J66">
-        <f>LoRa_TxDone!J66</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B67">
-        <f>LoRa_Reset!B67</f>
-        <v>0</v>
-      </c>
-      <c r="C67">
-        <f>LoRa_TxDone!C67</f>
-        <v>0</v>
-      </c>
-      <c r="D67" s="2">
-        <f>LoRa_TxDone!D67</f>
-        <v>0</v>
-      </c>
-      <c r="E67">
-        <f>LoRa_TxDone!E67</f>
-        <v>0</v>
-      </c>
-      <c r="F67">
-        <f>LoRa_TxDone!F67</f>
-        <v>0</v>
-      </c>
-      <c r="G67">
-        <f>LoRa_TxDone!G67</f>
-        <v>0</v>
-      </c>
-      <c r="H67">
-        <f>LoRa_TxDone!H67</f>
-        <v>0</v>
-      </c>
-      <c r="I67" s="2">
-        <f>LoRa_TxDone!I67</f>
-        <v>0</v>
-      </c>
-      <c r="J67">
-        <f>LoRa_TxDone!J67</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B68">
-        <f>LoRa_Reset!B68</f>
-        <v>0</v>
-      </c>
-      <c r="C68">
-        <f>LoRa_TxDone!C68</f>
-        <v>0</v>
-      </c>
-      <c r="D68" s="2">
-        <f>LoRa_TxDone!D68</f>
-        <v>0</v>
-      </c>
-      <c r="E68">
-        <f>LoRa_TxDone!E68</f>
-        <v>0</v>
-      </c>
-      <c r="F68">
-        <f>LoRa_TxDone!F68</f>
-        <v>0</v>
-      </c>
-      <c r="G68">
-        <f>LoRa_TxDone!G68</f>
-        <v>0</v>
-      </c>
-      <c r="H68">
-        <f>LoRa_TxDone!H68</f>
-        <v>0</v>
-      </c>
-      <c r="I68" s="2">
-        <f>LoRa_TxDone!I68</f>
-        <v>0</v>
-      </c>
-      <c r="J68">
-        <f>LoRa_TxDone!J68</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B69">
-        <f>LoRa_Reset!B69</f>
-        <v>0</v>
-      </c>
-      <c r="C69">
-        <f>LoRa_TxDone!C69</f>
-        <v>0</v>
-      </c>
-      <c r="D69" s="2">
-        <f>LoRa_TxDone!D69</f>
-        <v>0</v>
-      </c>
-      <c r="E69">
-        <f>LoRa_TxDone!E69</f>
-        <v>0</v>
-      </c>
-      <c r="F69">
-        <f>LoRa_TxDone!F69</f>
-        <v>0</v>
-      </c>
-      <c r="G69" t="str">
-        <f>LoRa_TxDone!G69</f>
-        <v>ChannelParams_t</v>
-      </c>
-      <c r="H69" t="str">
-        <f>LoRa_TxDone!H69</f>
-        <v>Channels</v>
-      </c>
-      <c r="I69" s="2" t="str">
-        <f>LoRa_TxDone!I69</f>
-        <v>DefaultChannels868</v>
-      </c>
-      <c r="J69">
-        <f>LoRa_TxDone!J69</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B70">
-        <f>LoRa_Reset!B70</f>
-        <v>0</v>
-      </c>
-      <c r="C70">
-        <f>LoRa_TxDone!C70</f>
-        <v>0</v>
-      </c>
-      <c r="D70" s="2">
-        <f>LoRa_TxDone!D70</f>
-        <v>0</v>
-      </c>
-      <c r="E70">
-        <f>LoRa_TxDone!E70</f>
-        <v>0</v>
-      </c>
-      <c r="F70">
-        <f>LoRa_TxDone!F70</f>
-        <v>0</v>
-      </c>
-      <c r="G70" t="str">
-        <f>LoRa_TxDone!G70</f>
-        <v>uint8_t</v>
-      </c>
-      <c r="H70" t="str">
-        <f>LoRa_TxDone!H70</f>
-        <v>maxPayloadSize[]</v>
-      </c>
-      <c r="I70" s="2" t="str">
-        <f>LoRa_TxDone!I70</f>
-        <v>MAX_EU_SINGLE_BAND_CHANNELS</v>
-      </c>
-      <c r="J70">
-        <f>LoRa_TxDone!J70</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B71">
-        <f>LoRa_Reset!B71</f>
-        <v>0</v>
-      </c>
-      <c r="C71">
-        <f>LoRa_TxDone!C71</f>
-        <v>0</v>
-      </c>
-      <c r="D71" s="2">
-        <f>LoRa_TxDone!D71</f>
-        <v>0</v>
-      </c>
-      <c r="E71">
-        <f>LoRa_TxDone!E71</f>
-        <v>0</v>
-      </c>
-      <c r="F71">
-        <f>LoRa_TxDone!F71</f>
-        <v>0</v>
-      </c>
-      <c r="G71" t="str">
-        <f>LoRa_TxDone!G71</f>
-        <v>uint8_t</v>
-      </c>
-      <c r="H71" t="str">
-        <f>LoRa_TxDone!H71</f>
-        <v>modulation[]</v>
-      </c>
-      <c r="I71" s="2">
-        <f>LoRa_TxDone!I71</f>
-        <v>0</v>
-      </c>
-      <c r="J71">
-        <f>LoRa_TxDone!J71</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B72">
-        <f>LoRa_Reset!B72</f>
-        <v>0</v>
-      </c>
-      <c r="C72">
-        <f>LoRa_TxDone!C72</f>
-        <v>0</v>
-      </c>
-      <c r="D72" s="2">
-        <f>LoRa_TxDone!D72</f>
-        <v>0</v>
-      </c>
-      <c r="E72">
-        <f>LoRa_TxDone!E72</f>
-        <v>0</v>
-      </c>
-      <c r="F72">
-        <f>LoRa_TxDone!F72</f>
-        <v>0</v>
-      </c>
-      <c r="G72" t="str">
-        <f>LoRa_TxDone!G72</f>
-        <v>uint8_t</v>
-      </c>
-      <c r="H72" t="str">
-        <f>LoRa_TxDone!H72</f>
-        <v>spreadingFactor[]</v>
-      </c>
-      <c r="I72" s="2">
-        <f>LoRa_TxDone!I72</f>
-        <v>0</v>
-      </c>
-      <c r="J72">
-        <f>LoRa_TxDone!J72</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B73">
-        <f>LoRa_Reset!B73</f>
-        <v>0</v>
-      </c>
-      <c r="C73">
-        <f>LoRa_TxDone!C73</f>
-        <v>0</v>
-      </c>
-      <c r="D73" s="2">
-        <f>LoRa_TxDone!D73</f>
-        <v>0</v>
-      </c>
-      <c r="E73">
-        <f>LoRa_TxDone!E73</f>
-        <v>0</v>
-      </c>
-      <c r="F73">
-        <f>LoRa_TxDone!F73</f>
-        <v>0</v>
-      </c>
-      <c r="G73" t="str">
-        <f>LoRa_TxDone!G73</f>
-        <v>uint8_t</v>
-      </c>
-      <c r="H73" t="str">
-        <f>LoRa_TxDone!H73</f>
-        <v>bandwidth[]</v>
-      </c>
-      <c r="I73" s="2">
-        <f>LoRa_TxDone!I73</f>
-        <v>0</v>
-      </c>
-      <c r="J73">
-        <f>LoRa_TxDone!J73</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B74">
-        <f>LoRa_Reset!B74</f>
-        <v>0</v>
-      </c>
-      <c r="C74">
-        <f>LoRa_TxDone!C74</f>
-        <v>0</v>
-      </c>
-      <c r="D74" s="2">
-        <f>LoRa_TxDone!D74</f>
-        <v>0</v>
-      </c>
-      <c r="E74">
-        <f>LoRa_TxDone!E74</f>
-        <v>0</v>
-      </c>
-      <c r="F74">
-        <f>LoRa_TxDone!F74</f>
-        <v>0</v>
-      </c>
-      <c r="G74" t="str">
-        <f>LoRa_TxDone!G74</f>
-        <v>uint8_t</v>
-      </c>
-      <c r="H74" t="str">
-        <f>LoRa_TxDone!H74</f>
-        <v>txPower868[]</v>
-      </c>
-      <c r="I74" s="2">
-        <f>LoRa_TxDone!I74</f>
-        <v>0</v>
-      </c>
-      <c r="J74">
-        <f>LoRa_TxDone!J74</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B75">
-        <f>LoRa_Reset!B75</f>
-        <v>0</v>
-      </c>
-      <c r="C75">
-        <f>LoRa_TxDone!C75</f>
-        <v>0</v>
-      </c>
-      <c r="D75" s="2">
-        <f>LoRa_TxDone!D75</f>
-        <v>0</v>
-      </c>
-      <c r="E75">
-        <f>LoRa_TxDone!E75</f>
-        <v>0</v>
-      </c>
-      <c r="F75">
-        <f>LoRa_TxDone!F75</f>
-        <v>0</v>
-      </c>
-      <c r="G75" t="str">
-        <f>LoRa_TxDone!G75</f>
-        <v>uint8_t</v>
-      </c>
-      <c r="H75" t="str">
-        <f>LoRa_TxDone!H75</f>
-        <v>LoRa_radioBuffer[]</v>
-      </c>
-      <c r="I75" s="2" t="str">
-        <f>LoRa_TxDone!I75</f>
-        <v>MAXIMUM_BUFFER_LENGTH</v>
-      </c>
-      <c r="J75">
-        <f>LoRa_TxDone!J75</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B76">
-        <f>LoRa_Reset!B76</f>
-        <v>0</v>
-      </c>
-      <c r="C76">
-        <f>LoRa_TxDone!C76</f>
-        <v>0</v>
-      </c>
-      <c r="D76" s="2">
-        <f>LoRa_TxDone!D76</f>
-        <v>0</v>
-      </c>
-      <c r="E76">
-        <f>LoRa_TxDone!E76</f>
-        <v>0</v>
-      </c>
-      <c r="F76">
-        <f>LoRa_TxDone!F76</f>
-        <v>0</v>
-      </c>
-      <c r="G76">
-        <f>LoRa_TxDone!G76</f>
-        <v>0</v>
-      </c>
-      <c r="H76">
-        <f>LoRa_TxDone!H76</f>
-        <v>0</v>
-      </c>
-      <c r="I76" s="2">
-        <f>LoRa_TxDone!I76</f>
-        <v>0</v>
-      </c>
-      <c r="J76">
-        <f>LoRa_TxDone!J76</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B77">
-        <f>LoRa_Reset!B77</f>
-        <v>0</v>
-      </c>
-      <c r="C77">
-        <f>LoRa_TxDone!C77</f>
-        <v>0</v>
-      </c>
-      <c r="D77" s="2">
-        <f>LoRa_TxDone!D77</f>
-        <v>0</v>
-      </c>
-      <c r="E77">
-        <f>LoRa_TxDone!E77</f>
-        <v>0</v>
-      </c>
-      <c r="F77">
-        <f>LoRa_TxDone!F77</f>
-        <v>0</v>
-      </c>
-      <c r="G77">
-        <f>LoRa_TxDone!G77</f>
-        <v>0</v>
-      </c>
-      <c r="H77">
-        <f>LoRa_TxDone!H77</f>
-        <v>0</v>
-      </c>
-      <c r="I77" s="2">
-        <f>LoRa_TxDone!I77</f>
-        <v>0</v>
-      </c>
-      <c r="J77">
-        <f>LoRa_TxDone!J77</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B78">
-        <f>LoRa_Reset!B78</f>
-        <v>0</v>
-      </c>
-      <c r="C78">
-        <f>LoRa_Send_Header!C78</f>
-        <v>0</v>
-      </c>
-      <c r="D78" s="2">
-        <f>LoRa_Send_Header!D78</f>
-        <v>0</v>
-      </c>
-      <c r="E78">
-        <f>LoRa_Send_Header!E78</f>
-        <v>0</v>
-      </c>
-      <c r="F78">
-        <f>LoRa_Send_Header!F78</f>
-        <v>0</v>
-      </c>
-      <c r="G78">
-        <f>LoRa_Send_Header!G78</f>
-        <v>0</v>
-      </c>
-      <c r="H78">
-        <f>LoRa_Send_Header!H78</f>
-        <v>0</v>
-      </c>
-      <c r="I78" s="2">
-        <f>LoRa_Send_Header!I78</f>
-        <v>0</v>
-      </c>
-      <c r="J78">
-        <f>LoRa_Send_Header!J78</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E79"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B9" location="LoRa_TxDone!C1" display="LoRa_TxDone" xr:uid="{31D92A3E-65EA-4796-A27A-F611CA5D7333}"/>
-    <hyperlink ref="C23" location="LoRa_RxDone_Fail!C1" display="LoRa_RxDone_Fail" xr:uid="{86A4D7CA-4AFC-49D0-96DE-6296433511C9}"/>
-    <hyperlink ref="C22" location="LoRa_RxDone_OK!C1" display="LoRa_RxDone_OK" xr:uid="{FF9C85BB-3BBD-4DAE-9DE6-606593DE6EC2}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Lora 2019v2.xlsx
+++ b/Lora 2019v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\elektr_2019\LoRa_2019\LoRa_2019.X\Lora2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9430262-301D-44DA-8647-1302E9D269FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA161CA7-E9E4-4575-A624-284232A90C75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47656" yWindow="4347" windowWidth="21084" windowHeight="13925" firstSheet="3" activeTab="4" xr2:uid="{CF74FFB2-BF4B-47C5-93C8-DE55957A940B}"/>
+    <workbookView xWindow="47656" yWindow="4347" windowWidth="21084" windowHeight="13925" firstSheet="2" activeTab="4" xr2:uid="{CF74FFB2-BF4B-47C5-93C8-DE55957A940B}"/>
   </bookViews>
   <sheets>
     <sheet name="function" sheetId="9" r:id="rId1"/>
@@ -18294,7 +18294,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81F6DCA9-7D6E-45B0-BDB1-79B8F2066CB5}">
   <dimension ref="B1:J79"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="C1" workbookViewId="0">
+    <sheetView showZeros="0" workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
@@ -19757,8 +19757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D9B3289-BD93-4D61-9195-B9151968E91C}">
   <dimension ref="B1:J79"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView showZeros="0" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -19801,7 +19801,7 @@
         <f>LoRa_System_Init!H3</f>
         <v>LoRa_transmitStatus</v>
       </c>
-      <c r="I3" s="2" t="str">
+      <c r="I3" s="6" t="str">
         <f>LoRa_System_Init!I3</f>
         <v>LoRa_Idle</v>
       </c>
@@ -21448,7 +21448,7 @@
   <dimension ref="A1:J79"/>
   <sheetViews>
     <sheetView showZeros="0" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -24391,7 +24391,7 @@
   <dimension ref="B1:J78"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -27114,7 +27114,7 @@
   <dimension ref="B1:J78"/>
   <sheetViews>
     <sheetView showZeros="0" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -29806,7 +29806,7 @@
   <dimension ref="B1:J78"/>
   <sheetViews>
     <sheetView showZeros="0" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>

--- a/Lora 2019v2.xlsx
+++ b/Lora 2019v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\elektr_2019\LoRa_2019\LoRa_2019.X\Lora2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA161CA7-E9E4-4575-A624-284232A90C75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D4D116-FC61-4B63-95D6-CDBC3C95D70F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="47656" yWindow="4347" windowWidth="21084" windowHeight="13925" firstSheet="2" activeTab="4" xr2:uid="{CF74FFB2-BF4B-47C5-93C8-DE55957A940B}"/>
   </bookViews>
@@ -24390,8 +24390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4B4ECE7-0122-4C74-99F3-7DF333B519C0}">
   <dimension ref="B1:J78"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -27114,7 +27114,7 @@
   <dimension ref="B1:J78"/>
   <sheetViews>
     <sheetView showZeros="0" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
